--- a/A00517153.xlsx
+++ b/A00517153.xlsx
@@ -18,10 +18,10 @@
     <t>Competencia</t>
   </si>
   <si>
-    <t>Proyecto</t>
+    <t>Criterios</t>
   </si>
   <si>
-    <t>Criterios</t>
+    <t>Proyecto</t>
   </si>
   <si>
     <t>Presente</t>
@@ -33,6 +33,57 @@
     <t>FIA</t>
   </si>
   <si>
+    <t>SING0301A 
+Evaluación del problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Componentes.- no código redundante o basura. (Evaluación de componentes. Evalúa los componentes que integran una problemática asociada a sistemas en la ingeniería y ciencias simples, identificándolos como relaciones de entrada y salida, que puede encontrar en su vida cotidiana y para los cuales se tiene una descripción estructurada.)
+2) Normales.-  genera casos de prueba para condiciones normales. (Es capaz de usar leyes de las ciencias naturales y exactas para detectar la condición normal de funcionamiento de sistemas en la ingeniería y ciencias simples.)
+3) Desviaciones.- genera casos de prueba para casos limites o irregulares. (Es capaz de usar leyes de las ciencias naturales y exactas para detectar posibles desviaciones del funcionamiento normal de sistemas en la ingeniería y ciencias simples.)
+ </t>
+  </si>
+  <si>
+    <t>Se consideran y documentan solo algunos casos generales, o ninguno</t>
+  </si>
+  <si>
+    <t>Se presentan faltas a la integridad académica o actitudes en contra de los valores del Tecnológico de Monterrey</t>
+  </si>
+  <si>
+    <t>SING0303A
+ Implementación de acciones</t>
+  </si>
+  <si>
+    <t>1) Implementación.- El programa resuelve el problema establecido en el contexto. (Implementación de acciones. Implementa acciones científicas e ingenieriles básicas para obtener soluciones simples y prácticas a problemas de sistemas en la ingeniería y ciencias sencillos determinando criterios, objetivos y métricas a cumplir.) 
+2) Análisis.- La solución se ajusta a las limitaciones del contexto (tiempo/ espacio/ memoria/ etc..). (Análisis de acciones. Es capaz de integrar conscientemente análisis de priorización en las acciones con base en criterios, métricas y limitaciones de las soluciones determinadas.)</t>
+  </si>
+  <si>
+    <t>Funciona de manera correcta solo para algunos de los casos solicitados, o para ninguno</t>
+  </si>
+  <si>
+    <t>SING0401A
+ Aplicación de estándares y normas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Estilo, aplica PEP 8 (Estándares internacionales. Aplica los estándares y normas internacionales en el ejercicio de sus profesión.)
+2) Documenta adecuadamente las excepciones a PEP 8 (Identificación de estándares. Identifica las restricciones del estándar de acuerdo al proceso o servicio, de tal manera que las soluciones propuestas cumplen el estándar.)
+</t>
+  </si>
+  <si>
+    <t>Hay omisiones de estilo, no cumple con todas las reglas etablecidas en el manual de estilo C++ proporcionado en el curso</t>
+  </si>
+  <si>
+    <t>SEG0702A
+ Tecnologías de vanguardia</t>
+  </si>
+  <si>
+    <t>1) Conocer le herramienta *
+2) Usarla exitosamente *
+3) Integrarla de forma útil *</t>
+  </si>
+  <si>
+    <t>No hace uso de manejo de control de versiones o no presenta evidencia completa</t>
+  </si>
+  <si>
     <t>SING0102A Demostración del funcionamiento de sistemas en ingeniería y ciencias</t>
   </si>
   <si>
@@ -42,9 +93,6 @@
   <si>
     <t xml:space="preserve">
  Aplica pocos o casi ningún concepto de manera fundamentada.</t>
-  </si>
-  <si>
-    <t>Se presentan faltas a la integridad académica o actitudes en contra de los valores del Tecnológico de Monterrey</t>
   </si>
   <si>
     <t>SING0302A 
@@ -72,20 +120,7 @@
     <t>La evidencia esta presente  si =1 no =0</t>
   </si>
   <si>
-    <t>SING0301A 
-Evaluación del problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Componentes.- no código redundante o basura. (Evaluación de componentes. Evalúa los componentes que integran una problemática asociada a sistemas en la ingeniería y ciencias simples, identificándolos como relaciones de entrada y salida, que puede encontrar en su vida cotidiana y para los cuales se tiene una descripción estructurada.)
-2) Normales.-  genera casos de prueba para condiciones normales. (Es capaz de usar leyes de las ciencias naturales y exactas para detectar la condición normal de funcionamiento de sistemas en la ingeniería y ciencias simples.)
-3) Desviaciones.- genera casos de prueba para casos limites o irregulares. (Es capaz de usar leyes de las ciencias naturales y exactas para detectar posibles desviaciones del funcionamiento normal de sistemas en la ingeniería y ciencias simples.)
- </t>
-  </si>
-  <si>
     <t>Especificación de evaluación Proyecto</t>
-  </si>
-  <si>
-    <t>Se consideran y documentan solo algunos casos generales, o ninguno</t>
   </si>
   <si>
     <t>Evidencias observadas en el proyecto</t>
@@ -94,45 +129,10 @@
     <t>si/no</t>
   </si>
   <si>
-    <t>SING0303A
- Implementación de acciones</t>
-  </si>
-  <si>
-    <t>1) Implementación.- El programa resuelve el problema establecido en el contexto. (Implementación de acciones. Implementa acciones científicas e ingenieriles básicas para obtener soluciones simples y prácticas a problemas de sistemas en la ingeniería y ciencias sencillos determinando criterios, objetivos y métricas a cumplir.) 
-2) Análisis.- La solución se ajusta a las limitaciones del contexto (tiempo/ espacio/ memoria/ etc..). (Análisis de acciones. Es capaz de integrar conscientemente análisis de priorización en las acciones con base en criterios, métricas y limitaciones de las soluciones determinadas.)</t>
-  </si>
-  <si>
     <t>Evalúa  SICT0301A</t>
   </si>
   <si>
-    <t>Funciona de manera correcta solo para algunos de los casos solicitados, o para ninguno</t>
-  </si>
-  <si>
-    <t>SING0401A
- Aplicación de estándares y normas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Estilo, aplica PEP 8 (Estándares internacionales. Aplica los estándares y normas internacionales en el ejercicio de sus profesión.)
-2) Documenta adecuadamente las excepciones a PEP 8 (Identificación de estándares. Identifica las restricciones del estándar de acuerdo al proceso o servicio, de tal manera que las soluciones propuestas cumplen el estándar.)
-</t>
-  </si>
-  <si>
     <t>Incluye pruebas  documentadas para cada caso</t>
-  </si>
-  <si>
-    <t>Hay omisiones de estilo, no cumple con todas las reglas etablecidas en el manual de estilo C++ proporcionado en el curso</t>
-  </si>
-  <si>
-    <t>SEG0702A
- Tecnologías de vanguardia</t>
-  </si>
-  <si>
-    <t>1) Conocer le herramienta *
-2) Usarla exitosamente *
-3) Integrarla de forma útil *</t>
-  </si>
-  <si>
-    <t>No hace uso de manejo de control de versiones o no presenta evidencia completa</t>
   </si>
   <si>
     <t>SING0301A  o SING0303A</t>
@@ -316,10 +316,14 @@
     <font/>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8.0"/>
     </font>
     <font>
-      <b/>
+      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -329,8 +333,7 @@
       <sz val="9.0"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font>
       <b/>
@@ -341,9 +344,6 @@
       <b/>
       <sz val="8.0"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -458,17 +458,6 @@
   <borders count="16">
     <border/>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -480,17 +469,6 @@
       </top>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -498,14 +476,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -529,6 +499,36 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -540,17 +540,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -558,20 +547,6 @@
         <color rgb="FF000000"/>
       </right>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -618,6 +593,31 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -628,247 +628,247 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="14" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="15" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="15" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="17" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="17" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="17" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="17" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -916,56 +916,56 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="7"/>
+      <c r="B2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="37">
+      <c r="E3" s="20"/>
+      <c r="F3" s="41">
         <v>0.0</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>29</v>
+      <c r="A4" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1GmBArkXX6ur-ZJKJP6Y5Z-93ukfB-61gT_tI7--qQg8/edit#gid=0"",""Proyectos!B3:B14"")"),1.0)</f>
@@ -975,7 +975,7 @@
         <f>C4&gt;0</f>
         <v>1</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="47">
         <v>50.0</v>
       </c>
@@ -998,9 +998,9 @@
         <f>SUM(C5:C10)&gt;4</f>
         <v>1</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" s="53"/>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="53"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="54">
         <v>70.0</v>
       </c>
@@ -1030,9 +1030,9 @@
         <v>1</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" s="53"/>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="56">
         <v>90.0</v>
       </c>
@@ -1062,12 +1062,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="53"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="58" t="s">
         <v>43</v>
       </c>
@@ -1075,8 +1075,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="56">
         <v>100.0</v>
       </c>
@@ -1099,7 +1099,7 @@
         <f t="shared" ref="D11:D12" si="1">C11&gt;0</f>
         <v>1</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
     </row>
@@ -1110,17 +1110,17 @@
       <c r="B12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="64" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
+      <c r="C12" s="64">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D12" s="46" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" s="65"/>
@@ -1135,10 +1135,10 @@
 game.cpp:58:14: fatal error: Gui.h: No such file or directory
      #include "Gui.h"</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="65"/>
@@ -1149,8 +1149,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15">
       <c r="A15" s="65"/>
@@ -1158,21 +1158,21 @@
         <v>51</v>
       </c>
       <c r="C15" s="69" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Documenta el UML")</f>
-        <v>Documenta el UML</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Documenta el UML, Revisado")</f>
+        <v>Documenta el UML, Revisado</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="65"/>
       <c r="B16" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="29">
+      <c r="C16" s="4"/>
+      <c r="D16" s="37">
         <f>if(AND(D4=TRUE,D5=TRUE,D11=TRUE,D12=TRUE),100,
    if(AND(D4=TRUE,D5=TRUE,D11=TRUE),90,
      if(AND(D4=TRUE,D5=TRUE),70,
@@ -1180,55 +1180,55 @@
        )
      )
 )</f>
-        <v>90</v>
-      </c>
-      <c r="E16" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18">
       <c r="A18" s="73" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="72"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19">
       <c r="A19" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="75" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="31" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="77" t="s">
@@ -1245,11 +1245,11 @@
         <f>SUM(C21:C31)&gt;6</f>
         <v>1</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="37">
+      <c r="E21" s="20"/>
+      <c r="F21" s="41">
         <v>0.0</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1263,11 +1263,11 @@
         <v>1</v>
       </c>
       <c r="D22" s="53"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="80">
         <v>50.0</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="42" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="53"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="54">
         <v>70.0</v>
       </c>
@@ -1299,9 +1299,9 @@
         <v>1</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" s="53"/>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="53"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="53"/>
       <c r="G26" s="53"/>
     </row>
@@ -1344,9 +1344,9 @@
         <v>0</v>
       </c>
       <c r="D27" s="53"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" s="53"/>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="53"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29">
       <c r="A29" s="53"/>
@@ -1370,9 +1370,9 @@
         <v>1</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="53"/>
@@ -1384,12 +1384,12 @@
         <v>1</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="78" t="s">
         <v>70</v>
       </c>
@@ -1397,10 +1397,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32">
       <c r="A32" s="81" t="s">
@@ -1417,9 +1417,9 @@
         <f>SUM(C32:C38)&gt;4</f>
         <v>1</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33">
       <c r="A33" s="53"/>
@@ -1431,9 +1431,9 @@
         <v>1</v>
       </c>
       <c r="D33" s="53"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34">
       <c r="A34" s="53"/>
@@ -1445,9 +1445,9 @@
         <v>0</v>
       </c>
       <c r="D34" s="53"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35">
       <c r="A35" s="53"/>
@@ -1459,9 +1459,9 @@
         <v>1</v>
       </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36">
       <c r="A36" s="53"/>
@@ -1473,9 +1473,9 @@
         <v>1</v>
       </c>
       <c r="D36" s="53"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37">
       <c r="A37" s="53"/>
@@ -1487,12 +1487,12 @@
         <v>1</v>
       </c>
       <c r="D37" s="53"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38">
-      <c r="A38" s="9"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="82" t="s">
         <v>78</v>
       </c>
@@ -1500,10 +1500,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39">
       <c r="A39" s="83" t="s">
@@ -1520,9 +1520,9 @@
         <f>SUM(C39:C43)&gt;3</f>
         <v>1</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40">
       <c r="A40" s="53"/>
@@ -1534,9 +1534,9 @@
         <v>1</v>
       </c>
       <c r="D40" s="53"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41">
       <c r="A41" s="53"/>
@@ -1548,9 +1548,9 @@
         <v>1</v>
       </c>
       <c r="D41" s="53"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42">
       <c r="A42" s="53"/>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="D42" s="53"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43">
-      <c r="A43" s="9"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="85" t="s">
         <v>84</v>
       </c>
@@ -1575,18 +1575,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44">
       <c r="A44" s="86"/>
       <c r="B44" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="29">
+      <c r="C44" s="4"/>
+      <c r="D44" s="37">
         <f>if(AND(D21=TRUE,D32=TRUE,D39=TRUE),100,
    if(AND(D21=TRUE, D39=TRUE),70,
      if(AND(D21=TRUE), 50,0)
@@ -1594,27 +1594,27 @@
        )</f>
         <v>100</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45">
       <c r="A45" s="86"/>
       <c r="B45" s="72"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46">
       <c r="A46" s="86"/>
       <c r="B46" s="72"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47">
       <c r="A47" s="88"/>
@@ -6544,3034 +6544,3034 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="44"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9">
-      <c r="A9" s="44"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10">
-      <c r="A10" s="44"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11">
-      <c r="A11" s="44"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="44"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13">
-      <c r="A13" s="44"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14">
-      <c r="A14" s="44"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="44"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16">
-      <c r="A16" s="44"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17">
-      <c r="A17" s="44"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18">
-      <c r="A18" s="44"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19">
-      <c r="A19" s="44"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20">
-      <c r="A20" s="44"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21">
-      <c r="A21" s="44"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22">
-      <c r="A22" s="44"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23">
-      <c r="A23" s="44"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24">
-      <c r="A24" s="44"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26">
-      <c r="A26" s="44"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27">
-      <c r="A27" s="44"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28">
-      <c r="A28" s="44"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29">
-      <c r="A29" s="44"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30">
-      <c r="A30" s="44"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31">
-      <c r="A31" s="44"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32">
-      <c r="A32" s="44"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33">
-      <c r="A33" s="44"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34">
-      <c r="A34" s="44"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35">
-      <c r="A35" s="44"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36">
-      <c r="A36" s="44"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37">
-      <c r="A37" s="44"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38">
-      <c r="A38" s="44"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39">
-      <c r="A39" s="44"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40">
-      <c r="A40" s="44"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41">
-      <c r="A41" s="44"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42">
-      <c r="A42" s="44"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43">
-      <c r="A43" s="44"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44">
-      <c r="A44" s="44"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45">
-      <c r="A45" s="44"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46">
-      <c r="A46" s="44"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47">
-      <c r="A47" s="44"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48">
-      <c r="A48" s="44"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49">
-      <c r="A49" s="44"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50">
-      <c r="A50" s="44"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51">
-      <c r="A51" s="44"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52">
-      <c r="A52" s="44"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53">
-      <c r="A53" s="44"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54">
-      <c r="A54" s="44"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55">
-      <c r="A55" s="44"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56">
-      <c r="A56" s="44"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57">
-      <c r="A57" s="44"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58">
-      <c r="A58" s="44"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59">
-      <c r="A59" s="44"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60">
-      <c r="A60" s="44"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61">
-      <c r="A61" s="44"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62">
-      <c r="A62" s="44"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63">
-      <c r="A63" s="44"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64">
-      <c r="A64" s="44"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65">
-      <c r="A65" s="44"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66">
-      <c r="A66" s="44"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67">
-      <c r="A67" s="44"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68">
-      <c r="A68" s="44"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69">
-      <c r="A69" s="44"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70">
-      <c r="A70" s="44"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71">
-      <c r="A71" s="44"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72">
-      <c r="A72" s="44"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="73">
-      <c r="A73" s="44"/>
+      <c r="A73" s="24"/>
     </row>
     <row r="74">
-      <c r="A74" s="44"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75">
-      <c r="A75" s="44"/>
+      <c r="A75" s="24"/>
     </row>
     <row r="76">
-      <c r="A76" s="44"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77">
-      <c r="A77" s="44"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78">
-      <c r="A78" s="44"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79">
-      <c r="A79" s="44"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80">
-      <c r="A80" s="44"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81">
-      <c r="A81" s="44"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82">
-      <c r="A82" s="44"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83">
-      <c r="A83" s="44"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84">
-      <c r="A84" s="44"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85">
-      <c r="A85" s="44"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86">
-      <c r="A86" s="44"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87">
-      <c r="A87" s="44"/>
+      <c r="A87" s="24"/>
     </row>
     <row r="88">
-      <c r="A88" s="44"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89">
-      <c r="A89" s="44"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90">
-      <c r="A90" s="44"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91">
-      <c r="A91" s="44"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92">
-      <c r="A92" s="44"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93">
-      <c r="A93" s="44"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94">
-      <c r="A94" s="44"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95">
-      <c r="A95" s="44"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96">
-      <c r="A96" s="44"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97">
-      <c r="A97" s="44"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98">
-      <c r="A98" s="44"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99">
-      <c r="A99" s="44"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100">
-      <c r="A100" s="44"/>
+      <c r="A100" s="24"/>
     </row>
     <row r="101">
-      <c r="A101" s="44"/>
+      <c r="A101" s="24"/>
     </row>
     <row r="102">
-      <c r="A102" s="44"/>
+      <c r="A102" s="24"/>
     </row>
     <row r="103">
-      <c r="A103" s="44"/>
+      <c r="A103" s="24"/>
     </row>
     <row r="104">
-      <c r="A104" s="44"/>
+      <c r="A104" s="24"/>
     </row>
     <row r="105">
-      <c r="A105" s="44"/>
+      <c r="A105" s="24"/>
     </row>
     <row r="106">
-      <c r="A106" s="44"/>
+      <c r="A106" s="24"/>
     </row>
     <row r="107">
-      <c r="A107" s="44"/>
+      <c r="A107" s="24"/>
     </row>
     <row r="108">
-      <c r="A108" s="44"/>
+      <c r="A108" s="24"/>
     </row>
     <row r="109">
-      <c r="A109" s="44"/>
+      <c r="A109" s="24"/>
     </row>
     <row r="110">
-      <c r="A110" s="44"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111">
-      <c r="A111" s="44"/>
+      <c r="A111" s="24"/>
     </row>
     <row r="112">
-      <c r="A112" s="44"/>
+      <c r="A112" s="24"/>
     </row>
     <row r="113">
-      <c r="A113" s="44"/>
+      <c r="A113" s="24"/>
     </row>
     <row r="114">
-      <c r="A114" s="44"/>
+      <c r="A114" s="24"/>
     </row>
     <row r="115">
-      <c r="A115" s="44"/>
+      <c r="A115" s="24"/>
     </row>
     <row r="116">
-      <c r="A116" s="44"/>
+      <c r="A116" s="24"/>
     </row>
     <row r="117">
-      <c r="A117" s="44"/>
+      <c r="A117" s="24"/>
     </row>
     <row r="118">
-      <c r="A118" s="44"/>
+      <c r="A118" s="24"/>
     </row>
     <row r="119">
-      <c r="A119" s="44"/>
+      <c r="A119" s="24"/>
     </row>
     <row r="120">
-      <c r="A120" s="44"/>
+      <c r="A120" s="24"/>
     </row>
     <row r="121">
-      <c r="A121" s="44"/>
+      <c r="A121" s="24"/>
     </row>
     <row r="122">
-      <c r="A122" s="44"/>
+      <c r="A122" s="24"/>
     </row>
     <row r="123">
-      <c r="A123" s="44"/>
+      <c r="A123" s="24"/>
     </row>
     <row r="124">
-      <c r="A124" s="44"/>
+      <c r="A124" s="24"/>
     </row>
     <row r="125">
-      <c r="A125" s="44"/>
+      <c r="A125" s="24"/>
     </row>
     <row r="126">
-      <c r="A126" s="44"/>
+      <c r="A126" s="24"/>
     </row>
     <row r="127">
-      <c r="A127" s="44"/>
+      <c r="A127" s="24"/>
     </row>
     <row r="128">
-      <c r="A128" s="44"/>
+      <c r="A128" s="24"/>
     </row>
     <row r="129">
-      <c r="A129" s="44"/>
+      <c r="A129" s="24"/>
     </row>
     <row r="130">
-      <c r="A130" s="44"/>
+      <c r="A130" s="24"/>
     </row>
     <row r="131">
-      <c r="A131" s="44"/>
+      <c r="A131" s="24"/>
     </row>
     <row r="132">
-      <c r="A132" s="44"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133">
-      <c r="A133" s="44"/>
+      <c r="A133" s="24"/>
     </row>
     <row r="134">
-      <c r="A134" s="44"/>
+      <c r="A134" s="24"/>
     </row>
     <row r="135">
-      <c r="A135" s="44"/>
+      <c r="A135" s="24"/>
     </row>
     <row r="136">
-      <c r="A136" s="44"/>
+      <c r="A136" s="24"/>
     </row>
     <row r="137">
-      <c r="A137" s="44"/>
+      <c r="A137" s="24"/>
     </row>
     <row r="138">
-      <c r="A138" s="44"/>
+      <c r="A138" s="24"/>
     </row>
     <row r="139">
-      <c r="A139" s="44"/>
+      <c r="A139" s="24"/>
     </row>
     <row r="140">
-      <c r="A140" s="44"/>
+      <c r="A140" s="24"/>
     </row>
     <row r="141">
-      <c r="A141" s="44"/>
+      <c r="A141" s="24"/>
     </row>
     <row r="142">
-      <c r="A142" s="44"/>
+      <c r="A142" s="24"/>
     </row>
     <row r="143">
-      <c r="A143" s="44"/>
+      <c r="A143" s="24"/>
     </row>
     <row r="144">
-      <c r="A144" s="44"/>
+      <c r="A144" s="24"/>
     </row>
     <row r="145">
-      <c r="A145" s="44"/>
+      <c r="A145" s="24"/>
     </row>
     <row r="146">
-      <c r="A146" s="44"/>
+      <c r="A146" s="24"/>
     </row>
     <row r="147">
-      <c r="A147" s="44"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148">
-      <c r="A148" s="44"/>
+      <c r="A148" s="24"/>
     </row>
     <row r="149">
-      <c r="A149" s="44"/>
+      <c r="A149" s="24"/>
     </row>
     <row r="150">
-      <c r="A150" s="44"/>
+      <c r="A150" s="24"/>
     </row>
     <row r="151">
-      <c r="A151" s="44"/>
+      <c r="A151" s="24"/>
     </row>
     <row r="152">
-      <c r="A152" s="44"/>
+      <c r="A152" s="24"/>
     </row>
     <row r="153">
-      <c r="A153" s="44"/>
+      <c r="A153" s="24"/>
     </row>
     <row r="154">
-      <c r="A154" s="44"/>
+      <c r="A154" s="24"/>
     </row>
     <row r="155">
-      <c r="A155" s="44"/>
+      <c r="A155" s="24"/>
     </row>
     <row r="156">
-      <c r="A156" s="44"/>
+      <c r="A156" s="24"/>
     </row>
     <row r="157">
-      <c r="A157" s="44"/>
+      <c r="A157" s="24"/>
     </row>
     <row r="158">
-      <c r="A158" s="44"/>
+      <c r="A158" s="24"/>
     </row>
     <row r="159">
-      <c r="A159" s="44"/>
+      <c r="A159" s="24"/>
     </row>
     <row r="160">
-      <c r="A160" s="44"/>
+      <c r="A160" s="24"/>
     </row>
     <row r="161">
-      <c r="A161" s="44"/>
+      <c r="A161" s="24"/>
     </row>
     <row r="162">
-      <c r="A162" s="44"/>
+      <c r="A162" s="24"/>
     </row>
     <row r="163">
-      <c r="A163" s="44"/>
+      <c r="A163" s="24"/>
     </row>
     <row r="164">
-      <c r="A164" s="44"/>
+      <c r="A164" s="24"/>
     </row>
     <row r="165">
-      <c r="A165" s="44"/>
+      <c r="A165" s="24"/>
     </row>
     <row r="166">
-      <c r="A166" s="44"/>
+      <c r="A166" s="24"/>
     </row>
     <row r="167">
-      <c r="A167" s="44"/>
+      <c r="A167" s="24"/>
     </row>
     <row r="168">
-      <c r="A168" s="44"/>
+      <c r="A168" s="24"/>
     </row>
     <row r="169">
-      <c r="A169" s="44"/>
+      <c r="A169" s="24"/>
     </row>
     <row r="170">
-      <c r="A170" s="44"/>
+      <c r="A170" s="24"/>
     </row>
     <row r="171">
-      <c r="A171" s="44"/>
+      <c r="A171" s="24"/>
     </row>
     <row r="172">
-      <c r="A172" s="44"/>
+      <c r="A172" s="24"/>
     </row>
     <row r="173">
-      <c r="A173" s="44"/>
+      <c r="A173" s="24"/>
     </row>
     <row r="174">
-      <c r="A174" s="44"/>
+      <c r="A174" s="24"/>
     </row>
     <row r="175">
-      <c r="A175" s="44"/>
+      <c r="A175" s="24"/>
     </row>
     <row r="176">
-      <c r="A176" s="44"/>
+      <c r="A176" s="24"/>
     </row>
     <row r="177">
-      <c r="A177" s="44"/>
+      <c r="A177" s="24"/>
     </row>
     <row r="178">
-      <c r="A178" s="44"/>
+      <c r="A178" s="24"/>
     </row>
     <row r="179">
-      <c r="A179" s="44"/>
+      <c r="A179" s="24"/>
     </row>
     <row r="180">
-      <c r="A180" s="44"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181">
-      <c r="A181" s="44"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182">
-      <c r="A182" s="44"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183">
-      <c r="A183" s="44"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184">
-      <c r="A184" s="44"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185">
-      <c r="A185" s="44"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186">
-      <c r="A186" s="44"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187">
-      <c r="A187" s="44"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188">
-      <c r="A188" s="44"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189">
-      <c r="A189" s="44"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190">
-      <c r="A190" s="44"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191">
-      <c r="A191" s="44"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192">
-      <c r="A192" s="44"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193">
-      <c r="A193" s="44"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194">
-      <c r="A194" s="44"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195">
-      <c r="A195" s="44"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196">
-      <c r="A196" s="44"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197">
-      <c r="A197" s="44"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198">
-      <c r="A198" s="44"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199">
-      <c r="A199" s="44"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200">
-      <c r="A200" s="44"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201">
-      <c r="A201" s="44"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202">
-      <c r="A202" s="44"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203">
-      <c r="A203" s="44"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204">
-      <c r="A204" s="44"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205">
-      <c r="A205" s="44"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206">
-      <c r="A206" s="44"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207">
-      <c r="A207" s="44"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208">
-      <c r="A208" s="44"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209">
-      <c r="A209" s="44"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210">
-      <c r="A210" s="44"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211">
-      <c r="A211" s="44"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212">
-      <c r="A212" s="44"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213">
-      <c r="A213" s="44"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214">
-      <c r="A214" s="44"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215">
-      <c r="A215" s="44"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216">
-      <c r="A216" s="44"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217">
-      <c r="A217" s="44"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218">
-      <c r="A218" s="44"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219">
-      <c r="A219" s="44"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220">
-      <c r="A220" s="44"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221">
-      <c r="A221" s="44"/>
+      <c r="A221" s="24"/>
     </row>
     <row r="222">
-      <c r="A222" s="44"/>
+      <c r="A222" s="24"/>
     </row>
     <row r="223">
-      <c r="A223" s="44"/>
+      <c r="A223" s="24"/>
     </row>
     <row r="224">
-      <c r="A224" s="44"/>
+      <c r="A224" s="24"/>
     </row>
     <row r="225">
-      <c r="A225" s="44"/>
+      <c r="A225" s="24"/>
     </row>
     <row r="226">
-      <c r="A226" s="44"/>
+      <c r="A226" s="24"/>
     </row>
     <row r="227">
-      <c r="A227" s="44"/>
+      <c r="A227" s="24"/>
     </row>
     <row r="228">
-      <c r="A228" s="44"/>
+      <c r="A228" s="24"/>
     </row>
     <row r="229">
-      <c r="A229" s="44"/>
+      <c r="A229" s="24"/>
     </row>
     <row r="230">
-      <c r="A230" s="44"/>
+      <c r="A230" s="24"/>
     </row>
     <row r="231">
-      <c r="A231" s="44"/>
+      <c r="A231" s="24"/>
     </row>
     <row r="232">
-      <c r="A232" s="44"/>
+      <c r="A232" s="24"/>
     </row>
     <row r="233">
-      <c r="A233" s="44"/>
+      <c r="A233" s="24"/>
     </row>
     <row r="234">
-      <c r="A234" s="44"/>
+      <c r="A234" s="24"/>
     </row>
     <row r="235">
-      <c r="A235" s="44"/>
+      <c r="A235" s="24"/>
     </row>
     <row r="236">
-      <c r="A236" s="44"/>
+      <c r="A236" s="24"/>
     </row>
     <row r="237">
-      <c r="A237" s="44"/>
+      <c r="A237" s="24"/>
     </row>
     <row r="238">
-      <c r="A238" s="44"/>
+      <c r="A238" s="24"/>
     </row>
     <row r="239">
-      <c r="A239" s="44"/>
+      <c r="A239" s="24"/>
     </row>
     <row r="240">
-      <c r="A240" s="44"/>
+      <c r="A240" s="24"/>
     </row>
     <row r="241">
-      <c r="A241" s="44"/>
+      <c r="A241" s="24"/>
     </row>
     <row r="242">
-      <c r="A242" s="44"/>
+      <c r="A242" s="24"/>
     </row>
     <row r="243">
-      <c r="A243" s="44"/>
+      <c r="A243" s="24"/>
     </row>
     <row r="244">
-      <c r="A244" s="44"/>
+      <c r="A244" s="24"/>
     </row>
     <row r="245">
-      <c r="A245" s="44"/>
+      <c r="A245" s="24"/>
     </row>
     <row r="246">
-      <c r="A246" s="44"/>
+      <c r="A246" s="24"/>
     </row>
     <row r="247">
-      <c r="A247" s="44"/>
+      <c r="A247" s="24"/>
     </row>
     <row r="248">
-      <c r="A248" s="44"/>
+      <c r="A248" s="24"/>
     </row>
     <row r="249">
-      <c r="A249" s="44"/>
+      <c r="A249" s="24"/>
     </row>
     <row r="250">
-      <c r="A250" s="44"/>
+      <c r="A250" s="24"/>
     </row>
     <row r="251">
-      <c r="A251" s="44"/>
+      <c r="A251" s="24"/>
     </row>
     <row r="252">
-      <c r="A252" s="44"/>
+      <c r="A252" s="24"/>
     </row>
     <row r="253">
-      <c r="A253" s="44"/>
+      <c r="A253" s="24"/>
     </row>
     <row r="254">
-      <c r="A254" s="44"/>
+      <c r="A254" s="24"/>
     </row>
     <row r="255">
-      <c r="A255" s="44"/>
+      <c r="A255" s="24"/>
     </row>
     <row r="256">
-      <c r="A256" s="44"/>
+      <c r="A256" s="24"/>
     </row>
     <row r="257">
-      <c r="A257" s="44"/>
+      <c r="A257" s="24"/>
     </row>
     <row r="258">
-      <c r="A258" s="44"/>
+      <c r="A258" s="24"/>
     </row>
     <row r="259">
-      <c r="A259" s="44"/>
+      <c r="A259" s="24"/>
     </row>
     <row r="260">
-      <c r="A260" s="44"/>
+      <c r="A260" s="24"/>
     </row>
     <row r="261">
-      <c r="A261" s="44"/>
+      <c r="A261" s="24"/>
     </row>
     <row r="262">
-      <c r="A262" s="44"/>
+      <c r="A262" s="24"/>
     </row>
     <row r="263">
-      <c r="A263" s="44"/>
+      <c r="A263" s="24"/>
     </row>
     <row r="264">
-      <c r="A264" s="44"/>
+      <c r="A264" s="24"/>
     </row>
     <row r="265">
-      <c r="A265" s="44"/>
+      <c r="A265" s="24"/>
     </row>
     <row r="266">
-      <c r="A266" s="44"/>
+      <c r="A266" s="24"/>
     </row>
     <row r="267">
-      <c r="A267" s="44"/>
+      <c r="A267" s="24"/>
     </row>
     <row r="268">
-      <c r="A268" s="44"/>
+      <c r="A268" s="24"/>
     </row>
     <row r="269">
-      <c r="A269" s="44"/>
+      <c r="A269" s="24"/>
     </row>
     <row r="270">
-      <c r="A270" s="44"/>
+      <c r="A270" s="24"/>
     </row>
     <row r="271">
-      <c r="A271" s="44"/>
+      <c r="A271" s="24"/>
     </row>
     <row r="272">
-      <c r="A272" s="44"/>
+      <c r="A272" s="24"/>
     </row>
     <row r="273">
-      <c r="A273" s="44"/>
+      <c r="A273" s="24"/>
     </row>
     <row r="274">
-      <c r="A274" s="44"/>
+      <c r="A274" s="24"/>
     </row>
     <row r="275">
-      <c r="A275" s="44"/>
+      <c r="A275" s="24"/>
     </row>
     <row r="276">
-      <c r="A276" s="44"/>
+      <c r="A276" s="24"/>
     </row>
     <row r="277">
-      <c r="A277" s="44"/>
+      <c r="A277" s="24"/>
     </row>
     <row r="278">
-      <c r="A278" s="44"/>
+      <c r="A278" s="24"/>
     </row>
     <row r="279">
-      <c r="A279" s="44"/>
+      <c r="A279" s="24"/>
     </row>
     <row r="280">
-      <c r="A280" s="44"/>
+      <c r="A280" s="24"/>
     </row>
     <row r="281">
-      <c r="A281" s="44"/>
+      <c r="A281" s="24"/>
     </row>
     <row r="282">
-      <c r="A282" s="44"/>
+      <c r="A282" s="24"/>
     </row>
     <row r="283">
-      <c r="A283" s="44"/>
+      <c r="A283" s="24"/>
     </row>
     <row r="284">
-      <c r="A284" s="44"/>
+      <c r="A284" s="24"/>
     </row>
     <row r="285">
-      <c r="A285" s="44"/>
+      <c r="A285" s="24"/>
     </row>
     <row r="286">
-      <c r="A286" s="44"/>
+      <c r="A286" s="24"/>
     </row>
     <row r="287">
-      <c r="A287" s="44"/>
+      <c r="A287" s="24"/>
     </row>
     <row r="288">
-      <c r="A288" s="44"/>
+      <c r="A288" s="24"/>
     </row>
     <row r="289">
-      <c r="A289" s="44"/>
+      <c r="A289" s="24"/>
     </row>
     <row r="290">
-      <c r="A290" s="44"/>
+      <c r="A290" s="24"/>
     </row>
     <row r="291">
-      <c r="A291" s="44"/>
+      <c r="A291" s="24"/>
     </row>
     <row r="292">
-      <c r="A292" s="44"/>
+      <c r="A292" s="24"/>
     </row>
     <row r="293">
-      <c r="A293" s="44"/>
+      <c r="A293" s="24"/>
     </row>
     <row r="294">
-      <c r="A294" s="44"/>
+      <c r="A294" s="24"/>
     </row>
     <row r="295">
-      <c r="A295" s="44"/>
+      <c r="A295" s="24"/>
     </row>
     <row r="296">
-      <c r="A296" s="44"/>
+      <c r="A296" s="24"/>
     </row>
     <row r="297">
-      <c r="A297" s="44"/>
+      <c r="A297" s="24"/>
     </row>
     <row r="298">
-      <c r="A298" s="44"/>
+      <c r="A298" s="24"/>
     </row>
     <row r="299">
-      <c r="A299" s="44"/>
+      <c r="A299" s="24"/>
     </row>
     <row r="300">
-      <c r="A300" s="44"/>
+      <c r="A300" s="24"/>
     </row>
     <row r="301">
-      <c r="A301" s="44"/>
+      <c r="A301" s="24"/>
     </row>
     <row r="302">
-      <c r="A302" s="44"/>
+      <c r="A302" s="24"/>
     </row>
     <row r="303">
-      <c r="A303" s="44"/>
+      <c r="A303" s="24"/>
     </row>
     <row r="304">
-      <c r="A304" s="44"/>
+      <c r="A304" s="24"/>
     </row>
     <row r="305">
-      <c r="A305" s="44"/>
+      <c r="A305" s="24"/>
     </row>
     <row r="306">
-      <c r="A306" s="44"/>
+      <c r="A306" s="24"/>
     </row>
     <row r="307">
-      <c r="A307" s="44"/>
+      <c r="A307" s="24"/>
     </row>
     <row r="308">
-      <c r="A308" s="44"/>
+      <c r="A308" s="24"/>
     </row>
     <row r="309">
-      <c r="A309" s="44"/>
+      <c r="A309" s="24"/>
     </row>
     <row r="310">
-      <c r="A310" s="44"/>
+      <c r="A310" s="24"/>
     </row>
     <row r="311">
-      <c r="A311" s="44"/>
+      <c r="A311" s="24"/>
     </row>
     <row r="312">
-      <c r="A312" s="44"/>
+      <c r="A312" s="24"/>
     </row>
     <row r="313">
-      <c r="A313" s="44"/>
+      <c r="A313" s="24"/>
     </row>
     <row r="314">
-      <c r="A314" s="44"/>
+      <c r="A314" s="24"/>
     </row>
     <row r="315">
-      <c r="A315" s="44"/>
+      <c r="A315" s="24"/>
     </row>
     <row r="316">
-      <c r="A316" s="44"/>
+      <c r="A316" s="24"/>
     </row>
     <row r="317">
-      <c r="A317" s="44"/>
+      <c r="A317" s="24"/>
     </row>
     <row r="318">
-      <c r="A318" s="44"/>
+      <c r="A318" s="24"/>
     </row>
     <row r="319">
-      <c r="A319" s="44"/>
+      <c r="A319" s="24"/>
     </row>
     <row r="320">
-      <c r="A320" s="44"/>
+      <c r="A320" s="24"/>
     </row>
     <row r="321">
-      <c r="A321" s="44"/>
+      <c r="A321" s="24"/>
     </row>
     <row r="322">
-      <c r="A322" s="44"/>
+      <c r="A322" s="24"/>
     </row>
     <row r="323">
-      <c r="A323" s="44"/>
+      <c r="A323" s="24"/>
     </row>
     <row r="324">
-      <c r="A324" s="44"/>
+      <c r="A324" s="24"/>
     </row>
     <row r="325">
-      <c r="A325" s="44"/>
+      <c r="A325" s="24"/>
     </row>
     <row r="326">
-      <c r="A326" s="44"/>
+      <c r="A326" s="24"/>
     </row>
     <row r="327">
-      <c r="A327" s="44"/>
+      <c r="A327" s="24"/>
     </row>
     <row r="328">
-      <c r="A328" s="44"/>
+      <c r="A328" s="24"/>
     </row>
     <row r="329">
-      <c r="A329" s="44"/>
+      <c r="A329" s="24"/>
     </row>
     <row r="330">
-      <c r="A330" s="44"/>
+      <c r="A330" s="24"/>
     </row>
     <row r="331">
-      <c r="A331" s="44"/>
+      <c r="A331" s="24"/>
     </row>
     <row r="332">
-      <c r="A332" s="44"/>
+      <c r="A332" s="24"/>
     </row>
     <row r="333">
-      <c r="A333" s="44"/>
+      <c r="A333" s="24"/>
     </row>
     <row r="334">
-      <c r="A334" s="44"/>
+      <c r="A334" s="24"/>
     </row>
     <row r="335">
-      <c r="A335" s="44"/>
+      <c r="A335" s="24"/>
     </row>
     <row r="336">
-      <c r="A336" s="44"/>
+      <c r="A336" s="24"/>
     </row>
     <row r="337">
-      <c r="A337" s="44"/>
+      <c r="A337" s="24"/>
     </row>
     <row r="338">
-      <c r="A338" s="44"/>
+      <c r="A338" s="24"/>
     </row>
     <row r="339">
-      <c r="A339" s="44"/>
+      <c r="A339" s="24"/>
     </row>
     <row r="340">
-      <c r="A340" s="44"/>
+      <c r="A340" s="24"/>
     </row>
     <row r="341">
-      <c r="A341" s="44"/>
+      <c r="A341" s="24"/>
     </row>
     <row r="342">
-      <c r="A342" s="44"/>
+      <c r="A342" s="24"/>
     </row>
     <row r="343">
-      <c r="A343" s="44"/>
+      <c r="A343" s="24"/>
     </row>
     <row r="344">
-      <c r="A344" s="44"/>
+      <c r="A344" s="24"/>
     </row>
     <row r="345">
-      <c r="A345" s="44"/>
+      <c r="A345" s="24"/>
     </row>
     <row r="346">
-      <c r="A346" s="44"/>
+      <c r="A346" s="24"/>
     </row>
     <row r="347">
-      <c r="A347" s="44"/>
+      <c r="A347" s="24"/>
     </row>
     <row r="348">
-      <c r="A348" s="44"/>
+      <c r="A348" s="24"/>
     </row>
     <row r="349">
-      <c r="A349" s="44"/>
+      <c r="A349" s="24"/>
     </row>
     <row r="350">
-      <c r="A350" s="44"/>
+      <c r="A350" s="24"/>
     </row>
     <row r="351">
-      <c r="A351" s="44"/>
+      <c r="A351" s="24"/>
     </row>
     <row r="352">
-      <c r="A352" s="44"/>
+      <c r="A352" s="24"/>
     </row>
     <row r="353">
-      <c r="A353" s="44"/>
+      <c r="A353" s="24"/>
     </row>
     <row r="354">
-      <c r="A354" s="44"/>
+      <c r="A354" s="24"/>
     </row>
     <row r="355">
-      <c r="A355" s="44"/>
+      <c r="A355" s="24"/>
     </row>
     <row r="356">
-      <c r="A356" s="44"/>
+      <c r="A356" s="24"/>
     </row>
     <row r="357">
-      <c r="A357" s="44"/>
+      <c r="A357" s="24"/>
     </row>
     <row r="358">
-      <c r="A358" s="44"/>
+      <c r="A358" s="24"/>
     </row>
     <row r="359">
-      <c r="A359" s="44"/>
+      <c r="A359" s="24"/>
     </row>
     <row r="360">
-      <c r="A360" s="44"/>
+      <c r="A360" s="24"/>
     </row>
     <row r="361">
-      <c r="A361" s="44"/>
+      <c r="A361" s="24"/>
     </row>
     <row r="362">
-      <c r="A362" s="44"/>
+      <c r="A362" s="24"/>
     </row>
     <row r="363">
-      <c r="A363" s="44"/>
+      <c r="A363" s="24"/>
     </row>
     <row r="364">
-      <c r="A364" s="44"/>
+      <c r="A364" s="24"/>
     </row>
     <row r="365">
-      <c r="A365" s="44"/>
+      <c r="A365" s="24"/>
     </row>
     <row r="366">
-      <c r="A366" s="44"/>
+      <c r="A366" s="24"/>
     </row>
     <row r="367">
-      <c r="A367" s="44"/>
+      <c r="A367" s="24"/>
     </row>
     <row r="368">
-      <c r="A368" s="44"/>
+      <c r="A368" s="24"/>
     </row>
     <row r="369">
-      <c r="A369" s="44"/>
+      <c r="A369" s="24"/>
     </row>
     <row r="370">
-      <c r="A370" s="44"/>
+      <c r="A370" s="24"/>
     </row>
     <row r="371">
-      <c r="A371" s="44"/>
+      <c r="A371" s="24"/>
     </row>
     <row r="372">
-      <c r="A372" s="44"/>
+      <c r="A372" s="24"/>
     </row>
     <row r="373">
-      <c r="A373" s="44"/>
+      <c r="A373" s="24"/>
     </row>
     <row r="374">
-      <c r="A374" s="44"/>
+      <c r="A374" s="24"/>
     </row>
     <row r="375">
-      <c r="A375" s="44"/>
+      <c r="A375" s="24"/>
     </row>
     <row r="376">
-      <c r="A376" s="44"/>
+      <c r="A376" s="24"/>
     </row>
     <row r="377">
-      <c r="A377" s="44"/>
+      <c r="A377" s="24"/>
     </row>
     <row r="378">
-      <c r="A378" s="44"/>
+      <c r="A378" s="24"/>
     </row>
     <row r="379">
-      <c r="A379" s="44"/>
+      <c r="A379" s="24"/>
     </row>
     <row r="380">
-      <c r="A380" s="44"/>
+      <c r="A380" s="24"/>
     </row>
     <row r="381">
-      <c r="A381" s="44"/>
+      <c r="A381" s="24"/>
     </row>
     <row r="382">
-      <c r="A382" s="44"/>
+      <c r="A382" s="24"/>
     </row>
     <row r="383">
-      <c r="A383" s="44"/>
+      <c r="A383" s="24"/>
     </row>
     <row r="384">
-      <c r="A384" s="44"/>
+      <c r="A384" s="24"/>
     </row>
     <row r="385">
-      <c r="A385" s="44"/>
+      <c r="A385" s="24"/>
     </row>
     <row r="386">
-      <c r="A386" s="44"/>
+      <c r="A386" s="24"/>
     </row>
     <row r="387">
-      <c r="A387" s="44"/>
+      <c r="A387" s="24"/>
     </row>
     <row r="388">
-      <c r="A388" s="44"/>
+      <c r="A388" s="24"/>
     </row>
     <row r="389">
-      <c r="A389" s="44"/>
+      <c r="A389" s="24"/>
     </row>
     <row r="390">
-      <c r="A390" s="44"/>
+      <c r="A390" s="24"/>
     </row>
     <row r="391">
-      <c r="A391" s="44"/>
+      <c r="A391" s="24"/>
     </row>
     <row r="392">
-      <c r="A392" s="44"/>
+      <c r="A392" s="24"/>
     </row>
     <row r="393">
-      <c r="A393" s="44"/>
+      <c r="A393" s="24"/>
     </row>
     <row r="394">
-      <c r="A394" s="44"/>
+      <c r="A394" s="24"/>
     </row>
     <row r="395">
-      <c r="A395" s="44"/>
+      <c r="A395" s="24"/>
     </row>
     <row r="396">
-      <c r="A396" s="44"/>
+      <c r="A396" s="24"/>
     </row>
     <row r="397">
-      <c r="A397" s="44"/>
+      <c r="A397" s="24"/>
     </row>
     <row r="398">
-      <c r="A398" s="44"/>
+      <c r="A398" s="24"/>
     </row>
     <row r="399">
-      <c r="A399" s="44"/>
+      <c r="A399" s="24"/>
     </row>
     <row r="400">
-      <c r="A400" s="44"/>
+      <c r="A400" s="24"/>
     </row>
     <row r="401">
-      <c r="A401" s="44"/>
+      <c r="A401" s="24"/>
     </row>
     <row r="402">
-      <c r="A402" s="44"/>
+      <c r="A402" s="24"/>
     </row>
     <row r="403">
-      <c r="A403" s="44"/>
+      <c r="A403" s="24"/>
     </row>
     <row r="404">
-      <c r="A404" s="44"/>
+      <c r="A404" s="24"/>
     </row>
     <row r="405">
-      <c r="A405" s="44"/>
+      <c r="A405" s="24"/>
     </row>
     <row r="406">
-      <c r="A406" s="44"/>
+      <c r="A406" s="24"/>
     </row>
     <row r="407">
-      <c r="A407" s="44"/>
+      <c r="A407" s="24"/>
     </row>
     <row r="408">
-      <c r="A408" s="44"/>
+      <c r="A408" s="24"/>
     </row>
     <row r="409">
-      <c r="A409" s="44"/>
+      <c r="A409" s="24"/>
     </row>
     <row r="410">
-      <c r="A410" s="44"/>
+      <c r="A410" s="24"/>
     </row>
     <row r="411">
-      <c r="A411" s="44"/>
+      <c r="A411" s="24"/>
     </row>
     <row r="412">
-      <c r="A412" s="44"/>
+      <c r="A412" s="24"/>
     </row>
     <row r="413">
-      <c r="A413" s="44"/>
+      <c r="A413" s="24"/>
     </row>
     <row r="414">
-      <c r="A414" s="44"/>
+      <c r="A414" s="24"/>
     </row>
     <row r="415">
-      <c r="A415" s="44"/>
+      <c r="A415" s="24"/>
     </row>
     <row r="416">
-      <c r="A416" s="44"/>
+      <c r="A416" s="24"/>
     </row>
     <row r="417">
-      <c r="A417" s="44"/>
+      <c r="A417" s="24"/>
     </row>
     <row r="418">
-      <c r="A418" s="44"/>
+      <c r="A418" s="24"/>
     </row>
     <row r="419">
-      <c r="A419" s="44"/>
+      <c r="A419" s="24"/>
     </row>
     <row r="420">
-      <c r="A420" s="44"/>
+      <c r="A420" s="24"/>
     </row>
     <row r="421">
-      <c r="A421" s="44"/>
+      <c r="A421" s="24"/>
     </row>
     <row r="422">
-      <c r="A422" s="44"/>
+      <c r="A422" s="24"/>
     </row>
     <row r="423">
-      <c r="A423" s="44"/>
+      <c r="A423" s="24"/>
     </row>
     <row r="424">
-      <c r="A424" s="44"/>
+      <c r="A424" s="24"/>
     </row>
     <row r="425">
-      <c r="A425" s="44"/>
+      <c r="A425" s="24"/>
     </row>
     <row r="426">
-      <c r="A426" s="44"/>
+      <c r="A426" s="24"/>
     </row>
     <row r="427">
-      <c r="A427" s="44"/>
+      <c r="A427" s="24"/>
     </row>
     <row r="428">
-      <c r="A428" s="44"/>
+      <c r="A428" s="24"/>
     </row>
     <row r="429">
-      <c r="A429" s="44"/>
+      <c r="A429" s="24"/>
     </row>
     <row r="430">
-      <c r="A430" s="44"/>
+      <c r="A430" s="24"/>
     </row>
     <row r="431">
-      <c r="A431" s="44"/>
+      <c r="A431" s="24"/>
     </row>
     <row r="432">
-      <c r="A432" s="44"/>
+      <c r="A432" s="24"/>
     </row>
     <row r="433">
-      <c r="A433" s="44"/>
+      <c r="A433" s="24"/>
     </row>
     <row r="434">
-      <c r="A434" s="44"/>
+      <c r="A434" s="24"/>
     </row>
     <row r="435">
-      <c r="A435" s="44"/>
+      <c r="A435" s="24"/>
     </row>
     <row r="436">
-      <c r="A436" s="44"/>
+      <c r="A436" s="24"/>
     </row>
     <row r="437">
-      <c r="A437" s="44"/>
+      <c r="A437" s="24"/>
     </row>
     <row r="438">
-      <c r="A438" s="44"/>
+      <c r="A438" s="24"/>
     </row>
     <row r="439">
-      <c r="A439" s="44"/>
+      <c r="A439" s="24"/>
     </row>
     <row r="440">
-      <c r="A440" s="44"/>
+      <c r="A440" s="24"/>
     </row>
     <row r="441">
-      <c r="A441" s="44"/>
+      <c r="A441" s="24"/>
     </row>
     <row r="442">
-      <c r="A442" s="44"/>
+      <c r="A442" s="24"/>
     </row>
     <row r="443">
-      <c r="A443" s="44"/>
+      <c r="A443" s="24"/>
     </row>
     <row r="444">
-      <c r="A444" s="44"/>
+      <c r="A444" s="24"/>
     </row>
     <row r="445">
-      <c r="A445" s="44"/>
+      <c r="A445" s="24"/>
     </row>
     <row r="446">
-      <c r="A446" s="44"/>
+      <c r="A446" s="24"/>
     </row>
     <row r="447">
-      <c r="A447" s="44"/>
+      <c r="A447" s="24"/>
     </row>
     <row r="448">
-      <c r="A448" s="44"/>
+      <c r="A448" s="24"/>
     </row>
     <row r="449">
-      <c r="A449" s="44"/>
+      <c r="A449" s="24"/>
     </row>
     <row r="450">
-      <c r="A450" s="44"/>
+      <c r="A450" s="24"/>
     </row>
     <row r="451">
-      <c r="A451" s="44"/>
+      <c r="A451" s="24"/>
     </row>
     <row r="452">
-      <c r="A452" s="44"/>
+      <c r="A452" s="24"/>
     </row>
     <row r="453">
-      <c r="A453" s="44"/>
+      <c r="A453" s="24"/>
     </row>
     <row r="454">
-      <c r="A454" s="44"/>
+      <c r="A454" s="24"/>
     </row>
     <row r="455">
-      <c r="A455" s="44"/>
+      <c r="A455" s="24"/>
     </row>
     <row r="456">
-      <c r="A456" s="44"/>
+      <c r="A456" s="24"/>
     </row>
     <row r="457">
-      <c r="A457" s="44"/>
+      <c r="A457" s="24"/>
     </row>
     <row r="458">
-      <c r="A458" s="44"/>
+      <c r="A458" s="24"/>
     </row>
     <row r="459">
-      <c r="A459" s="44"/>
+      <c r="A459" s="24"/>
     </row>
     <row r="460">
-      <c r="A460" s="44"/>
+      <c r="A460" s="24"/>
     </row>
     <row r="461">
-      <c r="A461" s="44"/>
+      <c r="A461" s="24"/>
     </row>
     <row r="462">
-      <c r="A462" s="44"/>
+      <c r="A462" s="24"/>
     </row>
     <row r="463">
-      <c r="A463" s="44"/>
+      <c r="A463" s="24"/>
     </row>
     <row r="464">
-      <c r="A464" s="44"/>
+      <c r="A464" s="24"/>
     </row>
     <row r="465">
-      <c r="A465" s="44"/>
+      <c r="A465" s="24"/>
     </row>
     <row r="466">
-      <c r="A466" s="44"/>
+      <c r="A466" s="24"/>
     </row>
     <row r="467">
-      <c r="A467" s="44"/>
+      <c r="A467" s="24"/>
     </row>
     <row r="468">
-      <c r="A468" s="44"/>
+      <c r="A468" s="24"/>
     </row>
     <row r="469">
-      <c r="A469" s="44"/>
+      <c r="A469" s="24"/>
     </row>
     <row r="470">
-      <c r="A470" s="44"/>
+      <c r="A470" s="24"/>
     </row>
     <row r="471">
-      <c r="A471" s="44"/>
+      <c r="A471" s="24"/>
     </row>
     <row r="472">
-      <c r="A472" s="44"/>
+      <c r="A472" s="24"/>
     </row>
     <row r="473">
-      <c r="A473" s="44"/>
+      <c r="A473" s="24"/>
     </row>
     <row r="474">
-      <c r="A474" s="44"/>
+      <c r="A474" s="24"/>
     </row>
     <row r="475">
-      <c r="A475" s="44"/>
+      <c r="A475" s="24"/>
     </row>
     <row r="476">
-      <c r="A476" s="44"/>
+      <c r="A476" s="24"/>
     </row>
     <row r="477">
-      <c r="A477" s="44"/>
+      <c r="A477" s="24"/>
     </row>
     <row r="478">
-      <c r="A478" s="44"/>
+      <c r="A478" s="24"/>
     </row>
     <row r="479">
-      <c r="A479" s="44"/>
+      <c r="A479" s="24"/>
     </row>
     <row r="480">
-      <c r="A480" s="44"/>
+      <c r="A480" s="24"/>
     </row>
     <row r="481">
-      <c r="A481" s="44"/>
+      <c r="A481" s="24"/>
     </row>
     <row r="482">
-      <c r="A482" s="44"/>
+      <c r="A482" s="24"/>
     </row>
     <row r="483">
-      <c r="A483" s="44"/>
+      <c r="A483" s="24"/>
     </row>
     <row r="484">
-      <c r="A484" s="44"/>
+      <c r="A484" s="24"/>
     </row>
     <row r="485">
-      <c r="A485" s="44"/>
+      <c r="A485" s="24"/>
     </row>
     <row r="486">
-      <c r="A486" s="44"/>
+      <c r="A486" s="24"/>
     </row>
     <row r="487">
-      <c r="A487" s="44"/>
+      <c r="A487" s="24"/>
     </row>
     <row r="488">
-      <c r="A488" s="44"/>
+      <c r="A488" s="24"/>
     </row>
     <row r="489">
-      <c r="A489" s="44"/>
+      <c r="A489" s="24"/>
     </row>
     <row r="490">
-      <c r="A490" s="44"/>
+      <c r="A490" s="24"/>
     </row>
     <row r="491">
-      <c r="A491" s="44"/>
+      <c r="A491" s="24"/>
     </row>
     <row r="492">
-      <c r="A492" s="44"/>
+      <c r="A492" s="24"/>
     </row>
     <row r="493">
-      <c r="A493" s="44"/>
+      <c r="A493" s="24"/>
     </row>
     <row r="494">
-      <c r="A494" s="44"/>
+      <c r="A494" s="24"/>
     </row>
     <row r="495">
-      <c r="A495" s="44"/>
+      <c r="A495" s="24"/>
     </row>
     <row r="496">
-      <c r="A496" s="44"/>
+      <c r="A496" s="24"/>
     </row>
     <row r="497">
-      <c r="A497" s="44"/>
+      <c r="A497" s="24"/>
     </row>
     <row r="498">
-      <c r="A498" s="44"/>
+      <c r="A498" s="24"/>
     </row>
     <row r="499">
-      <c r="A499" s="44"/>
+      <c r="A499" s="24"/>
     </row>
     <row r="500">
-      <c r="A500" s="44"/>
+      <c r="A500" s="24"/>
     </row>
     <row r="501">
-      <c r="A501" s="44"/>
+      <c r="A501" s="24"/>
     </row>
     <row r="502">
-      <c r="A502" s="44"/>
+      <c r="A502" s="24"/>
     </row>
     <row r="503">
-      <c r="A503" s="44"/>
+      <c r="A503" s="24"/>
     </row>
     <row r="504">
-      <c r="A504" s="44"/>
+      <c r="A504" s="24"/>
     </row>
     <row r="505">
-      <c r="A505" s="44"/>
+      <c r="A505" s="24"/>
     </row>
     <row r="506">
-      <c r="A506" s="44"/>
+      <c r="A506" s="24"/>
     </row>
     <row r="507">
-      <c r="A507" s="44"/>
+      <c r="A507" s="24"/>
     </row>
     <row r="508">
-      <c r="A508" s="44"/>
+      <c r="A508" s="24"/>
     </row>
     <row r="509">
-      <c r="A509" s="44"/>
+      <c r="A509" s="24"/>
     </row>
     <row r="510">
-      <c r="A510" s="44"/>
+      <c r="A510" s="24"/>
     </row>
     <row r="511">
-      <c r="A511" s="44"/>
+      <c r="A511" s="24"/>
     </row>
     <row r="512">
-      <c r="A512" s="44"/>
+      <c r="A512" s="24"/>
     </row>
     <row r="513">
-      <c r="A513" s="44"/>
+      <c r="A513" s="24"/>
     </row>
     <row r="514">
-      <c r="A514" s="44"/>
+      <c r="A514" s="24"/>
     </row>
     <row r="515">
-      <c r="A515" s="44"/>
+      <c r="A515" s="24"/>
     </row>
     <row r="516">
-      <c r="A516" s="44"/>
+      <c r="A516" s="24"/>
     </row>
     <row r="517">
-      <c r="A517" s="44"/>
+      <c r="A517" s="24"/>
     </row>
     <row r="518">
-      <c r="A518" s="44"/>
+      <c r="A518" s="24"/>
     </row>
     <row r="519">
-      <c r="A519" s="44"/>
+      <c r="A519" s="24"/>
     </row>
     <row r="520">
-      <c r="A520" s="44"/>
+      <c r="A520" s="24"/>
     </row>
     <row r="521">
-      <c r="A521" s="44"/>
+      <c r="A521" s="24"/>
     </row>
     <row r="522">
-      <c r="A522" s="44"/>
+      <c r="A522" s="24"/>
     </row>
     <row r="523">
-      <c r="A523" s="44"/>
+      <c r="A523" s="24"/>
     </row>
     <row r="524">
-      <c r="A524" s="44"/>
+      <c r="A524" s="24"/>
     </row>
     <row r="525">
-      <c r="A525" s="44"/>
+      <c r="A525" s="24"/>
     </row>
     <row r="526">
-      <c r="A526" s="44"/>
+      <c r="A526" s="24"/>
     </row>
     <row r="527">
-      <c r="A527" s="44"/>
+      <c r="A527" s="24"/>
     </row>
     <row r="528">
-      <c r="A528" s="44"/>
+      <c r="A528" s="24"/>
     </row>
     <row r="529">
-      <c r="A529" s="44"/>
+      <c r="A529" s="24"/>
     </row>
     <row r="530">
-      <c r="A530" s="44"/>
+      <c r="A530" s="24"/>
     </row>
     <row r="531">
-      <c r="A531" s="44"/>
+      <c r="A531" s="24"/>
     </row>
     <row r="532">
-      <c r="A532" s="44"/>
+      <c r="A532" s="24"/>
     </row>
     <row r="533">
-      <c r="A533" s="44"/>
+      <c r="A533" s="24"/>
     </row>
     <row r="534">
-      <c r="A534" s="44"/>
+      <c r="A534" s="24"/>
     </row>
     <row r="535">
-      <c r="A535" s="44"/>
+      <c r="A535" s="24"/>
     </row>
     <row r="536">
-      <c r="A536" s="44"/>
+      <c r="A536" s="24"/>
     </row>
     <row r="537">
-      <c r="A537" s="44"/>
+      <c r="A537" s="24"/>
     </row>
     <row r="538">
-      <c r="A538" s="44"/>
+      <c r="A538" s="24"/>
     </row>
     <row r="539">
-      <c r="A539" s="44"/>
+      <c r="A539" s="24"/>
     </row>
     <row r="540">
-      <c r="A540" s="44"/>
+      <c r="A540" s="24"/>
     </row>
     <row r="541">
-      <c r="A541" s="44"/>
+      <c r="A541" s="24"/>
     </row>
     <row r="542">
-      <c r="A542" s="44"/>
+      <c r="A542" s="24"/>
     </row>
     <row r="543">
-      <c r="A543" s="44"/>
+      <c r="A543" s="24"/>
     </row>
     <row r="544">
-      <c r="A544" s="44"/>
+      <c r="A544" s="24"/>
     </row>
     <row r="545">
-      <c r="A545" s="44"/>
+      <c r="A545" s="24"/>
     </row>
     <row r="546">
-      <c r="A546" s="44"/>
+      <c r="A546" s="24"/>
     </row>
     <row r="547">
-      <c r="A547" s="44"/>
+      <c r="A547" s="24"/>
     </row>
     <row r="548">
-      <c r="A548" s="44"/>
+      <c r="A548" s="24"/>
     </row>
     <row r="549">
-      <c r="A549" s="44"/>
+      <c r="A549" s="24"/>
     </row>
     <row r="550">
-      <c r="A550" s="44"/>
+      <c r="A550" s="24"/>
     </row>
     <row r="551">
-      <c r="A551" s="44"/>
+      <c r="A551" s="24"/>
     </row>
     <row r="552">
-      <c r="A552" s="44"/>
+      <c r="A552" s="24"/>
     </row>
     <row r="553">
-      <c r="A553" s="44"/>
+      <c r="A553" s="24"/>
     </row>
     <row r="554">
-      <c r="A554" s="44"/>
+      <c r="A554" s="24"/>
     </row>
     <row r="555">
-      <c r="A555" s="44"/>
+      <c r="A555" s="24"/>
     </row>
     <row r="556">
-      <c r="A556" s="44"/>
+      <c r="A556" s="24"/>
     </row>
     <row r="557">
-      <c r="A557" s="44"/>
+      <c r="A557" s="24"/>
     </row>
     <row r="558">
-      <c r="A558" s="44"/>
+      <c r="A558" s="24"/>
     </row>
     <row r="559">
-      <c r="A559" s="44"/>
+      <c r="A559" s="24"/>
     </row>
     <row r="560">
-      <c r="A560" s="44"/>
+      <c r="A560" s="24"/>
     </row>
     <row r="561">
-      <c r="A561" s="44"/>
+      <c r="A561" s="24"/>
     </row>
     <row r="562">
-      <c r="A562" s="44"/>
+      <c r="A562" s="24"/>
     </row>
     <row r="563">
-      <c r="A563" s="44"/>
+      <c r="A563" s="24"/>
     </row>
     <row r="564">
-      <c r="A564" s="44"/>
+      <c r="A564" s="24"/>
     </row>
     <row r="565">
-      <c r="A565" s="44"/>
+      <c r="A565" s="24"/>
     </row>
     <row r="566">
-      <c r="A566" s="44"/>
+      <c r="A566" s="24"/>
     </row>
     <row r="567">
-      <c r="A567" s="44"/>
+      <c r="A567" s="24"/>
     </row>
     <row r="568">
-      <c r="A568" s="44"/>
+      <c r="A568" s="24"/>
     </row>
     <row r="569">
-      <c r="A569" s="44"/>
+      <c r="A569" s="24"/>
     </row>
     <row r="570">
-      <c r="A570" s="44"/>
+      <c r="A570" s="24"/>
     </row>
     <row r="571">
-      <c r="A571" s="44"/>
+      <c r="A571" s="24"/>
     </row>
     <row r="572">
-      <c r="A572" s="44"/>
+      <c r="A572" s="24"/>
     </row>
     <row r="573">
-      <c r="A573" s="44"/>
+      <c r="A573" s="24"/>
     </row>
     <row r="574">
-      <c r="A574" s="44"/>
+      <c r="A574" s="24"/>
     </row>
     <row r="575">
-      <c r="A575" s="44"/>
+      <c r="A575" s="24"/>
     </row>
     <row r="576">
-      <c r="A576" s="44"/>
+      <c r="A576" s="24"/>
     </row>
     <row r="577">
-      <c r="A577" s="44"/>
+      <c r="A577" s="24"/>
     </row>
     <row r="578">
-      <c r="A578" s="44"/>
+      <c r="A578" s="24"/>
     </row>
     <row r="579">
-      <c r="A579" s="44"/>
+      <c r="A579" s="24"/>
     </row>
     <row r="580">
-      <c r="A580" s="44"/>
+      <c r="A580" s="24"/>
     </row>
     <row r="581">
-      <c r="A581" s="44"/>
+      <c r="A581" s="24"/>
     </row>
     <row r="582">
-      <c r="A582" s="44"/>
+      <c r="A582" s="24"/>
     </row>
     <row r="583">
-      <c r="A583" s="44"/>
+      <c r="A583" s="24"/>
     </row>
     <row r="584">
-      <c r="A584" s="44"/>
+      <c r="A584" s="24"/>
     </row>
     <row r="585">
-      <c r="A585" s="44"/>
+      <c r="A585" s="24"/>
     </row>
     <row r="586">
-      <c r="A586" s="44"/>
+      <c r="A586" s="24"/>
     </row>
     <row r="587">
-      <c r="A587" s="44"/>
+      <c r="A587" s="24"/>
     </row>
     <row r="588">
-      <c r="A588" s="44"/>
+      <c r="A588" s="24"/>
     </row>
     <row r="589">
-      <c r="A589" s="44"/>
+      <c r="A589" s="24"/>
     </row>
     <row r="590">
-      <c r="A590" s="44"/>
+      <c r="A590" s="24"/>
     </row>
     <row r="591">
-      <c r="A591" s="44"/>
+      <c r="A591" s="24"/>
     </row>
     <row r="592">
-      <c r="A592" s="44"/>
+      <c r="A592" s="24"/>
     </row>
     <row r="593">
-      <c r="A593" s="44"/>
+      <c r="A593" s="24"/>
     </row>
     <row r="594">
-      <c r="A594" s="44"/>
+      <c r="A594" s="24"/>
     </row>
     <row r="595">
-      <c r="A595" s="44"/>
+      <c r="A595" s="24"/>
     </row>
     <row r="596">
-      <c r="A596" s="44"/>
+      <c r="A596" s="24"/>
     </row>
     <row r="597">
-      <c r="A597" s="44"/>
+      <c r="A597" s="24"/>
     </row>
     <row r="598">
-      <c r="A598" s="44"/>
+      <c r="A598" s="24"/>
     </row>
     <row r="599">
-      <c r="A599" s="44"/>
+      <c r="A599" s="24"/>
     </row>
     <row r="600">
-      <c r="A600" s="44"/>
+      <c r="A600" s="24"/>
     </row>
     <row r="601">
-      <c r="A601" s="44"/>
+      <c r="A601" s="24"/>
     </row>
     <row r="602">
-      <c r="A602" s="44"/>
+      <c r="A602" s="24"/>
     </row>
     <row r="603">
-      <c r="A603" s="44"/>
+      <c r="A603" s="24"/>
     </row>
     <row r="604">
-      <c r="A604" s="44"/>
+      <c r="A604" s="24"/>
     </row>
     <row r="605">
-      <c r="A605" s="44"/>
+      <c r="A605" s="24"/>
     </row>
     <row r="606">
-      <c r="A606" s="44"/>
+      <c r="A606" s="24"/>
     </row>
     <row r="607">
-      <c r="A607" s="44"/>
+      <c r="A607" s="24"/>
     </row>
     <row r="608">
-      <c r="A608" s="44"/>
+      <c r="A608" s="24"/>
     </row>
     <row r="609">
-      <c r="A609" s="44"/>
+      <c r="A609" s="24"/>
     </row>
     <row r="610">
-      <c r="A610" s="44"/>
+      <c r="A610" s="24"/>
     </row>
     <row r="611">
-      <c r="A611" s="44"/>
+      <c r="A611" s="24"/>
     </row>
     <row r="612">
-      <c r="A612" s="44"/>
+      <c r="A612" s="24"/>
     </row>
     <row r="613">
-      <c r="A613" s="44"/>
+      <c r="A613" s="24"/>
     </row>
     <row r="614">
-      <c r="A614" s="44"/>
+      <c r="A614" s="24"/>
     </row>
     <row r="615">
-      <c r="A615" s="44"/>
+      <c r="A615" s="24"/>
     </row>
     <row r="616">
-      <c r="A616" s="44"/>
+      <c r="A616" s="24"/>
     </row>
     <row r="617">
-      <c r="A617" s="44"/>
+      <c r="A617" s="24"/>
     </row>
     <row r="618">
-      <c r="A618" s="44"/>
+      <c r="A618" s="24"/>
     </row>
     <row r="619">
-      <c r="A619" s="44"/>
+      <c r="A619" s="24"/>
     </row>
     <row r="620">
-      <c r="A620" s="44"/>
+      <c r="A620" s="24"/>
     </row>
     <row r="621">
-      <c r="A621" s="44"/>
+      <c r="A621" s="24"/>
     </row>
     <row r="622">
-      <c r="A622" s="44"/>
+      <c r="A622" s="24"/>
     </row>
     <row r="623">
-      <c r="A623" s="44"/>
+      <c r="A623" s="24"/>
     </row>
     <row r="624">
-      <c r="A624" s="44"/>
+      <c r="A624" s="24"/>
     </row>
     <row r="625">
-      <c r="A625" s="44"/>
+      <c r="A625" s="24"/>
     </row>
     <row r="626">
-      <c r="A626" s="44"/>
+      <c r="A626" s="24"/>
     </row>
     <row r="627">
-      <c r="A627" s="44"/>
+      <c r="A627" s="24"/>
     </row>
     <row r="628">
-      <c r="A628" s="44"/>
+      <c r="A628" s="24"/>
     </row>
     <row r="629">
-      <c r="A629" s="44"/>
+      <c r="A629" s="24"/>
     </row>
     <row r="630">
-      <c r="A630" s="44"/>
+      <c r="A630" s="24"/>
     </row>
     <row r="631">
-      <c r="A631" s="44"/>
+      <c r="A631" s="24"/>
     </row>
     <row r="632">
-      <c r="A632" s="44"/>
+      <c r="A632" s="24"/>
     </row>
     <row r="633">
-      <c r="A633" s="44"/>
+      <c r="A633" s="24"/>
     </row>
     <row r="634">
-      <c r="A634" s="44"/>
+      <c r="A634" s="24"/>
     </row>
     <row r="635">
-      <c r="A635" s="44"/>
+      <c r="A635" s="24"/>
     </row>
     <row r="636">
-      <c r="A636" s="44"/>
+      <c r="A636" s="24"/>
     </row>
     <row r="637">
-      <c r="A637" s="44"/>
+      <c r="A637" s="24"/>
     </row>
     <row r="638">
-      <c r="A638" s="44"/>
+      <c r="A638" s="24"/>
     </row>
     <row r="639">
-      <c r="A639" s="44"/>
+      <c r="A639" s="24"/>
     </row>
     <row r="640">
-      <c r="A640" s="44"/>
+      <c r="A640" s="24"/>
     </row>
     <row r="641">
-      <c r="A641" s="44"/>
+      <c r="A641" s="24"/>
     </row>
     <row r="642">
-      <c r="A642" s="44"/>
+      <c r="A642" s="24"/>
     </row>
     <row r="643">
-      <c r="A643" s="44"/>
+      <c r="A643" s="24"/>
     </row>
     <row r="644">
-      <c r="A644" s="44"/>
+      <c r="A644" s="24"/>
     </row>
     <row r="645">
-      <c r="A645" s="44"/>
+      <c r="A645" s="24"/>
     </row>
     <row r="646">
-      <c r="A646" s="44"/>
+      <c r="A646" s="24"/>
     </row>
     <row r="647">
-      <c r="A647" s="44"/>
+      <c r="A647" s="24"/>
     </row>
     <row r="648">
-      <c r="A648" s="44"/>
+      <c r="A648" s="24"/>
     </row>
     <row r="649">
-      <c r="A649" s="44"/>
+      <c r="A649" s="24"/>
     </row>
     <row r="650">
-      <c r="A650" s="44"/>
+      <c r="A650" s="24"/>
     </row>
     <row r="651">
-      <c r="A651" s="44"/>
+      <c r="A651" s="24"/>
     </row>
     <row r="652">
-      <c r="A652" s="44"/>
+      <c r="A652" s="24"/>
     </row>
     <row r="653">
-      <c r="A653" s="44"/>
+      <c r="A653" s="24"/>
     </row>
     <row r="654">
-      <c r="A654" s="44"/>
+      <c r="A654" s="24"/>
     </row>
     <row r="655">
-      <c r="A655" s="44"/>
+      <c r="A655" s="24"/>
     </row>
     <row r="656">
-      <c r="A656" s="44"/>
+      <c r="A656" s="24"/>
     </row>
     <row r="657">
-      <c r="A657" s="44"/>
+      <c r="A657" s="24"/>
     </row>
     <row r="658">
-      <c r="A658" s="44"/>
+      <c r="A658" s="24"/>
     </row>
     <row r="659">
-      <c r="A659" s="44"/>
+      <c r="A659" s="24"/>
     </row>
     <row r="660">
-      <c r="A660" s="44"/>
+      <c r="A660" s="24"/>
     </row>
     <row r="661">
-      <c r="A661" s="44"/>
+      <c r="A661" s="24"/>
     </row>
     <row r="662">
-      <c r="A662" s="44"/>
+      <c r="A662" s="24"/>
     </row>
     <row r="663">
-      <c r="A663" s="44"/>
+      <c r="A663" s="24"/>
     </row>
     <row r="664">
-      <c r="A664" s="44"/>
+      <c r="A664" s="24"/>
     </row>
     <row r="665">
-      <c r="A665" s="44"/>
+      <c r="A665" s="24"/>
     </row>
     <row r="666">
-      <c r="A666" s="44"/>
+      <c r="A666" s="24"/>
     </row>
     <row r="667">
-      <c r="A667" s="44"/>
+      <c r="A667" s="24"/>
     </row>
     <row r="668">
-      <c r="A668" s="44"/>
+      <c r="A668" s="24"/>
     </row>
     <row r="669">
-      <c r="A669" s="44"/>
+      <c r="A669" s="24"/>
     </row>
     <row r="670">
-      <c r="A670" s="44"/>
+      <c r="A670" s="24"/>
     </row>
     <row r="671">
-      <c r="A671" s="44"/>
+      <c r="A671" s="24"/>
     </row>
     <row r="672">
-      <c r="A672" s="44"/>
+      <c r="A672" s="24"/>
     </row>
     <row r="673">
-      <c r="A673" s="44"/>
+      <c r="A673" s="24"/>
     </row>
     <row r="674">
-      <c r="A674" s="44"/>
+      <c r="A674" s="24"/>
     </row>
     <row r="675">
-      <c r="A675" s="44"/>
+      <c r="A675" s="24"/>
     </row>
     <row r="676">
-      <c r="A676" s="44"/>
+      <c r="A676" s="24"/>
     </row>
     <row r="677">
-      <c r="A677" s="44"/>
+      <c r="A677" s="24"/>
     </row>
     <row r="678">
-      <c r="A678" s="44"/>
+      <c r="A678" s="24"/>
     </row>
     <row r="679">
-      <c r="A679" s="44"/>
+      <c r="A679" s="24"/>
     </row>
     <row r="680">
-      <c r="A680" s="44"/>
+      <c r="A680" s="24"/>
     </row>
     <row r="681">
-      <c r="A681" s="44"/>
+      <c r="A681" s="24"/>
     </row>
     <row r="682">
-      <c r="A682" s="44"/>
+      <c r="A682" s="24"/>
     </row>
     <row r="683">
-      <c r="A683" s="44"/>
+      <c r="A683" s="24"/>
     </row>
     <row r="684">
-      <c r="A684" s="44"/>
+      <c r="A684" s="24"/>
     </row>
     <row r="685">
-      <c r="A685" s="44"/>
+      <c r="A685" s="24"/>
     </row>
     <row r="686">
-      <c r="A686" s="44"/>
+      <c r="A686" s="24"/>
     </row>
     <row r="687">
-      <c r="A687" s="44"/>
+      <c r="A687" s="24"/>
     </row>
     <row r="688">
-      <c r="A688" s="44"/>
+      <c r="A688" s="24"/>
     </row>
     <row r="689">
-      <c r="A689" s="44"/>
+      <c r="A689" s="24"/>
     </row>
     <row r="690">
-      <c r="A690" s="44"/>
+      <c r="A690" s="24"/>
     </row>
     <row r="691">
-      <c r="A691" s="44"/>
+      <c r="A691" s="24"/>
     </row>
     <row r="692">
-      <c r="A692" s="44"/>
+      <c r="A692" s="24"/>
     </row>
     <row r="693">
-      <c r="A693" s="44"/>
+      <c r="A693" s="24"/>
     </row>
     <row r="694">
-      <c r="A694" s="44"/>
+      <c r="A694" s="24"/>
     </row>
     <row r="695">
-      <c r="A695" s="44"/>
+      <c r="A695" s="24"/>
     </row>
     <row r="696">
-      <c r="A696" s="44"/>
+      <c r="A696" s="24"/>
     </row>
     <row r="697">
-      <c r="A697" s="44"/>
+      <c r="A697" s="24"/>
     </row>
     <row r="698">
-      <c r="A698" s="44"/>
+      <c r="A698" s="24"/>
     </row>
     <row r="699">
-      <c r="A699" s="44"/>
+      <c r="A699" s="24"/>
     </row>
     <row r="700">
-      <c r="A700" s="44"/>
+      <c r="A700" s="24"/>
     </row>
     <row r="701">
-      <c r="A701" s="44"/>
+      <c r="A701" s="24"/>
     </row>
     <row r="702">
-      <c r="A702" s="44"/>
+      <c r="A702" s="24"/>
     </row>
     <row r="703">
-      <c r="A703" s="44"/>
+      <c r="A703" s="24"/>
     </row>
     <row r="704">
-      <c r="A704" s="44"/>
+      <c r="A704" s="24"/>
     </row>
     <row r="705">
-      <c r="A705" s="44"/>
+      <c r="A705" s="24"/>
     </row>
     <row r="706">
-      <c r="A706" s="44"/>
+      <c r="A706" s="24"/>
     </row>
     <row r="707">
-      <c r="A707" s="44"/>
+      <c r="A707" s="24"/>
     </row>
     <row r="708">
-      <c r="A708" s="44"/>
+      <c r="A708" s="24"/>
     </row>
     <row r="709">
-      <c r="A709" s="44"/>
+      <c r="A709" s="24"/>
     </row>
     <row r="710">
-      <c r="A710" s="44"/>
+      <c r="A710" s="24"/>
     </row>
     <row r="711">
-      <c r="A711" s="44"/>
+      <c r="A711" s="24"/>
     </row>
     <row r="712">
-      <c r="A712" s="44"/>
+      <c r="A712" s="24"/>
     </row>
     <row r="713">
-      <c r="A713" s="44"/>
+      <c r="A713" s="24"/>
     </row>
     <row r="714">
-      <c r="A714" s="44"/>
+      <c r="A714" s="24"/>
     </row>
     <row r="715">
-      <c r="A715" s="44"/>
+      <c r="A715" s="24"/>
     </row>
     <row r="716">
-      <c r="A716" s="44"/>
+      <c r="A716" s="24"/>
     </row>
     <row r="717">
-      <c r="A717" s="44"/>
+      <c r="A717" s="24"/>
     </row>
     <row r="718">
-      <c r="A718" s="44"/>
+      <c r="A718" s="24"/>
     </row>
     <row r="719">
-      <c r="A719" s="44"/>
+      <c r="A719" s="24"/>
     </row>
     <row r="720">
-      <c r="A720" s="44"/>
+      <c r="A720" s="24"/>
     </row>
     <row r="721">
-      <c r="A721" s="44"/>
+      <c r="A721" s="24"/>
     </row>
     <row r="722">
-      <c r="A722" s="44"/>
+      <c r="A722" s="24"/>
     </row>
     <row r="723">
-      <c r="A723" s="44"/>
+      <c r="A723" s="24"/>
     </row>
     <row r="724">
-      <c r="A724" s="44"/>
+      <c r="A724" s="24"/>
     </row>
     <row r="725">
-      <c r="A725" s="44"/>
+      <c r="A725" s="24"/>
     </row>
     <row r="726">
-      <c r="A726" s="44"/>
+      <c r="A726" s="24"/>
     </row>
     <row r="727">
-      <c r="A727" s="44"/>
+      <c r="A727" s="24"/>
     </row>
     <row r="728">
-      <c r="A728" s="44"/>
+      <c r="A728" s="24"/>
     </row>
     <row r="729">
-      <c r="A729" s="44"/>
+      <c r="A729" s="24"/>
     </row>
     <row r="730">
-      <c r="A730" s="44"/>
+      <c r="A730" s="24"/>
     </row>
     <row r="731">
-      <c r="A731" s="44"/>
+      <c r="A731" s="24"/>
     </row>
     <row r="732">
-      <c r="A732" s="44"/>
+      <c r="A732" s="24"/>
     </row>
     <row r="733">
-      <c r="A733" s="44"/>
+      <c r="A733" s="24"/>
     </row>
     <row r="734">
-      <c r="A734" s="44"/>
+      <c r="A734" s="24"/>
     </row>
     <row r="735">
-      <c r="A735" s="44"/>
+      <c r="A735" s="24"/>
     </row>
     <row r="736">
-      <c r="A736" s="44"/>
+      <c r="A736" s="24"/>
     </row>
     <row r="737">
-      <c r="A737" s="44"/>
+      <c r="A737" s="24"/>
     </row>
     <row r="738">
-      <c r="A738" s="44"/>
+      <c r="A738" s="24"/>
     </row>
     <row r="739">
-      <c r="A739" s="44"/>
+      <c r="A739" s="24"/>
     </row>
     <row r="740">
-      <c r="A740" s="44"/>
+      <c r="A740" s="24"/>
     </row>
     <row r="741">
-      <c r="A741" s="44"/>
+      <c r="A741" s="24"/>
     </row>
     <row r="742">
-      <c r="A742" s="44"/>
+      <c r="A742" s="24"/>
     </row>
     <row r="743">
-      <c r="A743" s="44"/>
+      <c r="A743" s="24"/>
     </row>
     <row r="744">
-      <c r="A744" s="44"/>
+      <c r="A744" s="24"/>
     </row>
     <row r="745">
-      <c r="A745" s="44"/>
+      <c r="A745" s="24"/>
     </row>
     <row r="746">
-      <c r="A746" s="44"/>
+      <c r="A746" s="24"/>
     </row>
     <row r="747">
-      <c r="A747" s="44"/>
+      <c r="A747" s="24"/>
     </row>
     <row r="748">
-      <c r="A748" s="44"/>
+      <c r="A748" s="24"/>
     </row>
     <row r="749">
-      <c r="A749" s="44"/>
+      <c r="A749" s="24"/>
     </row>
     <row r="750">
-      <c r="A750" s="44"/>
+      <c r="A750" s="24"/>
     </row>
     <row r="751">
-      <c r="A751" s="44"/>
+      <c r="A751" s="24"/>
     </row>
     <row r="752">
-      <c r="A752" s="44"/>
+      <c r="A752" s="24"/>
     </row>
     <row r="753">
-      <c r="A753" s="44"/>
+      <c r="A753" s="24"/>
     </row>
     <row r="754">
-      <c r="A754" s="44"/>
+      <c r="A754" s="24"/>
     </row>
     <row r="755">
-      <c r="A755" s="44"/>
+      <c r="A755" s="24"/>
     </row>
     <row r="756">
-      <c r="A756" s="44"/>
+      <c r="A756" s="24"/>
     </row>
     <row r="757">
-      <c r="A757" s="44"/>
+      <c r="A757" s="24"/>
     </row>
     <row r="758">
-      <c r="A758" s="44"/>
+      <c r="A758" s="24"/>
     </row>
     <row r="759">
-      <c r="A759" s="44"/>
+      <c r="A759" s="24"/>
     </row>
     <row r="760">
-      <c r="A760" s="44"/>
+      <c r="A760" s="24"/>
     </row>
     <row r="761">
-      <c r="A761" s="44"/>
+      <c r="A761" s="24"/>
     </row>
     <row r="762">
-      <c r="A762" s="44"/>
+      <c r="A762" s="24"/>
     </row>
     <row r="763">
-      <c r="A763" s="44"/>
+      <c r="A763" s="24"/>
     </row>
     <row r="764">
-      <c r="A764" s="44"/>
+      <c r="A764" s="24"/>
     </row>
     <row r="765">
-      <c r="A765" s="44"/>
+      <c r="A765" s="24"/>
     </row>
     <row r="766">
-      <c r="A766" s="44"/>
+      <c r="A766" s="24"/>
     </row>
     <row r="767">
-      <c r="A767" s="44"/>
+      <c r="A767" s="24"/>
     </row>
     <row r="768">
-      <c r="A768" s="44"/>
+      <c r="A768" s="24"/>
     </row>
     <row r="769">
-      <c r="A769" s="44"/>
+      <c r="A769" s="24"/>
     </row>
     <row r="770">
-      <c r="A770" s="44"/>
+      <c r="A770" s="24"/>
     </row>
     <row r="771">
-      <c r="A771" s="44"/>
+      <c r="A771" s="24"/>
     </row>
     <row r="772">
-      <c r="A772" s="44"/>
+      <c r="A772" s="24"/>
     </row>
     <row r="773">
-      <c r="A773" s="44"/>
+      <c r="A773" s="24"/>
     </row>
     <row r="774">
-      <c r="A774" s="44"/>
+      <c r="A774" s="24"/>
     </row>
     <row r="775">
-      <c r="A775" s="44"/>
+      <c r="A775" s="24"/>
     </row>
     <row r="776">
-      <c r="A776" s="44"/>
+      <c r="A776" s="24"/>
     </row>
     <row r="777">
-      <c r="A777" s="44"/>
+      <c r="A777" s="24"/>
     </row>
     <row r="778">
-      <c r="A778" s="44"/>
+      <c r="A778" s="24"/>
     </row>
     <row r="779">
-      <c r="A779" s="44"/>
+      <c r="A779" s="24"/>
     </row>
     <row r="780">
-      <c r="A780" s="44"/>
+      <c r="A780" s="24"/>
     </row>
     <row r="781">
-      <c r="A781" s="44"/>
+      <c r="A781" s="24"/>
     </row>
     <row r="782">
-      <c r="A782" s="44"/>
+      <c r="A782" s="24"/>
     </row>
     <row r="783">
-      <c r="A783" s="44"/>
+      <c r="A783" s="24"/>
     </row>
     <row r="784">
-      <c r="A784" s="44"/>
+      <c r="A784" s="24"/>
     </row>
     <row r="785">
-      <c r="A785" s="44"/>
+      <c r="A785" s="24"/>
     </row>
     <row r="786">
-      <c r="A786" s="44"/>
+      <c r="A786" s="24"/>
     </row>
     <row r="787">
-      <c r="A787" s="44"/>
+      <c r="A787" s="24"/>
     </row>
     <row r="788">
-      <c r="A788" s="44"/>
+      <c r="A788" s="24"/>
     </row>
     <row r="789">
-      <c r="A789" s="44"/>
+      <c r="A789" s="24"/>
     </row>
     <row r="790">
-      <c r="A790" s="44"/>
+      <c r="A790" s="24"/>
     </row>
     <row r="791">
-      <c r="A791" s="44"/>
+      <c r="A791" s="24"/>
     </row>
     <row r="792">
-      <c r="A792" s="44"/>
+      <c r="A792" s="24"/>
     </row>
     <row r="793">
-      <c r="A793" s="44"/>
+      <c r="A793" s="24"/>
     </row>
     <row r="794">
-      <c r="A794" s="44"/>
+      <c r="A794" s="24"/>
     </row>
     <row r="795">
-      <c r="A795" s="44"/>
+      <c r="A795" s="24"/>
     </row>
     <row r="796">
-      <c r="A796" s="44"/>
+      <c r="A796" s="24"/>
     </row>
     <row r="797">
-      <c r="A797" s="44"/>
+      <c r="A797" s="24"/>
     </row>
     <row r="798">
-      <c r="A798" s="44"/>
+      <c r="A798" s="24"/>
     </row>
     <row r="799">
-      <c r="A799" s="44"/>
+      <c r="A799" s="24"/>
     </row>
     <row r="800">
-      <c r="A800" s="44"/>
+      <c r="A800" s="24"/>
     </row>
     <row r="801">
-      <c r="A801" s="44"/>
+      <c r="A801" s="24"/>
     </row>
     <row r="802">
-      <c r="A802" s="44"/>
+      <c r="A802" s="24"/>
     </row>
     <row r="803">
-      <c r="A803" s="44"/>
+      <c r="A803" s="24"/>
     </row>
     <row r="804">
-      <c r="A804" s="44"/>
+      <c r="A804" s="24"/>
     </row>
     <row r="805">
-      <c r="A805" s="44"/>
+      <c r="A805" s="24"/>
     </row>
     <row r="806">
-      <c r="A806" s="44"/>
+      <c r="A806" s="24"/>
     </row>
     <row r="807">
-      <c r="A807" s="44"/>
+      <c r="A807" s="24"/>
     </row>
     <row r="808">
-      <c r="A808" s="44"/>
+      <c r="A808" s="24"/>
     </row>
     <row r="809">
-      <c r="A809" s="44"/>
+      <c r="A809" s="24"/>
     </row>
     <row r="810">
-      <c r="A810" s="44"/>
+      <c r="A810" s="24"/>
     </row>
     <row r="811">
-      <c r="A811" s="44"/>
+      <c r="A811" s="24"/>
     </row>
     <row r="812">
-      <c r="A812" s="44"/>
+      <c r="A812" s="24"/>
     </row>
     <row r="813">
-      <c r="A813" s="44"/>
+      <c r="A813" s="24"/>
     </row>
     <row r="814">
-      <c r="A814" s="44"/>
+      <c r="A814" s="24"/>
     </row>
     <row r="815">
-      <c r="A815" s="44"/>
+      <c r="A815" s="24"/>
     </row>
     <row r="816">
-      <c r="A816" s="44"/>
+      <c r="A816" s="24"/>
     </row>
     <row r="817">
-      <c r="A817" s="44"/>
+      <c r="A817" s="24"/>
     </row>
     <row r="818">
-      <c r="A818" s="44"/>
+      <c r="A818" s="24"/>
     </row>
     <row r="819">
-      <c r="A819" s="44"/>
+      <c r="A819" s="24"/>
     </row>
     <row r="820">
-      <c r="A820" s="44"/>
+      <c r="A820" s="24"/>
     </row>
     <row r="821">
-      <c r="A821" s="44"/>
+      <c r="A821" s="24"/>
     </row>
     <row r="822">
-      <c r="A822" s="44"/>
+      <c r="A822" s="24"/>
     </row>
     <row r="823">
-      <c r="A823" s="44"/>
+      <c r="A823" s="24"/>
     </row>
     <row r="824">
-      <c r="A824" s="44"/>
+      <c r="A824" s="24"/>
     </row>
     <row r="825">
-      <c r="A825" s="44"/>
+      <c r="A825" s="24"/>
     </row>
     <row r="826">
-      <c r="A826" s="44"/>
+      <c r="A826" s="24"/>
     </row>
     <row r="827">
-      <c r="A827" s="44"/>
+      <c r="A827" s="24"/>
     </row>
     <row r="828">
-      <c r="A828" s="44"/>
+      <c r="A828" s="24"/>
     </row>
     <row r="829">
-      <c r="A829" s="44"/>
+      <c r="A829" s="24"/>
     </row>
     <row r="830">
-      <c r="A830" s="44"/>
+      <c r="A830" s="24"/>
     </row>
     <row r="831">
-      <c r="A831" s="44"/>
+      <c r="A831" s="24"/>
     </row>
     <row r="832">
-      <c r="A832" s="44"/>
+      <c r="A832" s="24"/>
     </row>
     <row r="833">
-      <c r="A833" s="44"/>
+      <c r="A833" s="24"/>
     </row>
     <row r="834">
-      <c r="A834" s="44"/>
+      <c r="A834" s="24"/>
     </row>
     <row r="835">
-      <c r="A835" s="44"/>
+      <c r="A835" s="24"/>
     </row>
     <row r="836">
-      <c r="A836" s="44"/>
+      <c r="A836" s="24"/>
     </row>
     <row r="837">
-      <c r="A837" s="44"/>
+      <c r="A837" s="24"/>
     </row>
     <row r="838">
-      <c r="A838" s="44"/>
+      <c r="A838" s="24"/>
     </row>
     <row r="839">
-      <c r="A839" s="44"/>
+      <c r="A839" s="24"/>
     </row>
     <row r="840">
-      <c r="A840" s="44"/>
+      <c r="A840" s="24"/>
     </row>
     <row r="841">
-      <c r="A841" s="44"/>
+      <c r="A841" s="24"/>
     </row>
     <row r="842">
-      <c r="A842" s="44"/>
+      <c r="A842" s="24"/>
     </row>
     <row r="843">
-      <c r="A843" s="44"/>
+      <c r="A843" s="24"/>
     </row>
     <row r="844">
-      <c r="A844" s="44"/>
+      <c r="A844" s="24"/>
     </row>
     <row r="845">
-      <c r="A845" s="44"/>
+      <c r="A845" s="24"/>
     </row>
     <row r="846">
-      <c r="A846" s="44"/>
+      <c r="A846" s="24"/>
     </row>
     <row r="847">
-      <c r="A847" s="44"/>
+      <c r="A847" s="24"/>
     </row>
     <row r="848">
-      <c r="A848" s="44"/>
+      <c r="A848" s="24"/>
     </row>
     <row r="849">
-      <c r="A849" s="44"/>
+      <c r="A849" s="24"/>
     </row>
     <row r="850">
-      <c r="A850" s="44"/>
+      <c r="A850" s="24"/>
     </row>
     <row r="851">
-      <c r="A851" s="44"/>
+      <c r="A851" s="24"/>
     </row>
     <row r="852">
-      <c r="A852" s="44"/>
+      <c r="A852" s="24"/>
     </row>
     <row r="853">
-      <c r="A853" s="44"/>
+      <c r="A853" s="24"/>
     </row>
     <row r="854">
-      <c r="A854" s="44"/>
+      <c r="A854" s="24"/>
     </row>
     <row r="855">
-      <c r="A855" s="44"/>
+      <c r="A855" s="24"/>
     </row>
     <row r="856">
-      <c r="A856" s="44"/>
+      <c r="A856" s="24"/>
     </row>
     <row r="857">
-      <c r="A857" s="44"/>
+      <c r="A857" s="24"/>
     </row>
     <row r="858">
-      <c r="A858" s="44"/>
+      <c r="A858" s="24"/>
     </row>
     <row r="859">
-      <c r="A859" s="44"/>
+      <c r="A859" s="24"/>
     </row>
     <row r="860">
-      <c r="A860" s="44"/>
+      <c r="A860" s="24"/>
     </row>
     <row r="861">
-      <c r="A861" s="44"/>
+      <c r="A861" s="24"/>
     </row>
     <row r="862">
-      <c r="A862" s="44"/>
+      <c r="A862" s="24"/>
     </row>
     <row r="863">
-      <c r="A863" s="44"/>
+      <c r="A863" s="24"/>
     </row>
     <row r="864">
-      <c r="A864" s="44"/>
+      <c r="A864" s="24"/>
     </row>
     <row r="865">
-      <c r="A865" s="44"/>
+      <c r="A865" s="24"/>
     </row>
     <row r="866">
-      <c r="A866" s="44"/>
+      <c r="A866" s="24"/>
     </row>
     <row r="867">
-      <c r="A867" s="44"/>
+      <c r="A867" s="24"/>
     </row>
     <row r="868">
-      <c r="A868" s="44"/>
+      <c r="A868" s="24"/>
     </row>
     <row r="869">
-      <c r="A869" s="44"/>
+      <c r="A869" s="24"/>
     </row>
     <row r="870">
-      <c r="A870" s="44"/>
+      <c r="A870" s="24"/>
     </row>
     <row r="871">
-      <c r="A871" s="44"/>
+      <c r="A871" s="24"/>
     </row>
     <row r="872">
-      <c r="A872" s="44"/>
+      <c r="A872" s="24"/>
     </row>
     <row r="873">
-      <c r="A873" s="44"/>
+      <c r="A873" s="24"/>
     </row>
     <row r="874">
-      <c r="A874" s="44"/>
+      <c r="A874" s="24"/>
     </row>
     <row r="875">
-      <c r="A875" s="44"/>
+      <c r="A875" s="24"/>
     </row>
     <row r="876">
-      <c r="A876" s="44"/>
+      <c r="A876" s="24"/>
     </row>
     <row r="877">
-      <c r="A877" s="44"/>
+      <c r="A877" s="24"/>
     </row>
     <row r="878">
-      <c r="A878" s="44"/>
+      <c r="A878" s="24"/>
     </row>
     <row r="879">
-      <c r="A879" s="44"/>
+      <c r="A879" s="24"/>
     </row>
     <row r="880">
-      <c r="A880" s="44"/>
+      <c r="A880" s="24"/>
     </row>
     <row r="881">
-      <c r="A881" s="44"/>
+      <c r="A881" s="24"/>
     </row>
     <row r="882">
-      <c r="A882" s="44"/>
+      <c r="A882" s="24"/>
     </row>
     <row r="883">
-      <c r="A883" s="44"/>
+      <c r="A883" s="24"/>
     </row>
     <row r="884">
-      <c r="A884" s="44"/>
+      <c r="A884" s="24"/>
     </row>
     <row r="885">
-      <c r="A885" s="44"/>
+      <c r="A885" s="24"/>
     </row>
     <row r="886">
-      <c r="A886" s="44"/>
+      <c r="A886" s="24"/>
     </row>
     <row r="887">
-      <c r="A887" s="44"/>
+      <c r="A887" s="24"/>
     </row>
     <row r="888">
-      <c r="A888" s="44"/>
+      <c r="A888" s="24"/>
     </row>
     <row r="889">
-      <c r="A889" s="44"/>
+      <c r="A889" s="24"/>
     </row>
     <row r="890">
-      <c r="A890" s="44"/>
+      <c r="A890" s="24"/>
     </row>
     <row r="891">
-      <c r="A891" s="44"/>
+      <c r="A891" s="24"/>
     </row>
     <row r="892">
-      <c r="A892" s="44"/>
+      <c r="A892" s="24"/>
     </row>
     <row r="893">
-      <c r="A893" s="44"/>
+      <c r="A893" s="24"/>
     </row>
     <row r="894">
-      <c r="A894" s="44"/>
+      <c r="A894" s="24"/>
     </row>
     <row r="895">
-      <c r="A895" s="44"/>
+      <c r="A895" s="24"/>
     </row>
     <row r="896">
-      <c r="A896" s="44"/>
+      <c r="A896" s="24"/>
     </row>
     <row r="897">
-      <c r="A897" s="44"/>
+      <c r="A897" s="24"/>
     </row>
     <row r="898">
-      <c r="A898" s="44"/>
+      <c r="A898" s="24"/>
     </row>
     <row r="899">
-      <c r="A899" s="44"/>
+      <c r="A899" s="24"/>
     </row>
     <row r="900">
-      <c r="A900" s="44"/>
+      <c r="A900" s="24"/>
     </row>
     <row r="901">
-      <c r="A901" s="44"/>
+      <c r="A901" s="24"/>
     </row>
     <row r="902">
-      <c r="A902" s="44"/>
+      <c r="A902" s="24"/>
     </row>
     <row r="903">
-      <c r="A903" s="44"/>
+      <c r="A903" s="24"/>
     </row>
     <row r="904">
-      <c r="A904" s="44"/>
+      <c r="A904" s="24"/>
     </row>
     <row r="905">
-      <c r="A905" s="44"/>
+      <c r="A905" s="24"/>
     </row>
     <row r="906">
-      <c r="A906" s="44"/>
+      <c r="A906" s="24"/>
     </row>
     <row r="907">
-      <c r="A907" s="44"/>
+      <c r="A907" s="24"/>
     </row>
     <row r="908">
-      <c r="A908" s="44"/>
+      <c r="A908" s="24"/>
     </row>
     <row r="909">
-      <c r="A909" s="44"/>
+      <c r="A909" s="24"/>
     </row>
     <row r="910">
-      <c r="A910" s="44"/>
+      <c r="A910" s="24"/>
     </row>
     <row r="911">
-      <c r="A911" s="44"/>
+      <c r="A911" s="24"/>
     </row>
     <row r="912">
-      <c r="A912" s="44"/>
+      <c r="A912" s="24"/>
     </row>
     <row r="913">
-      <c r="A913" s="44"/>
+      <c r="A913" s="24"/>
     </row>
     <row r="914">
-      <c r="A914" s="44"/>
+      <c r="A914" s="24"/>
     </row>
     <row r="915">
-      <c r="A915" s="44"/>
+      <c r="A915" s="24"/>
     </row>
     <row r="916">
-      <c r="A916" s="44"/>
+      <c r="A916" s="24"/>
     </row>
     <row r="917">
-      <c r="A917" s="44"/>
+      <c r="A917" s="24"/>
     </row>
     <row r="918">
-      <c r="A918" s="44"/>
+      <c r="A918" s="24"/>
     </row>
     <row r="919">
-      <c r="A919" s="44"/>
+      <c r="A919" s="24"/>
     </row>
     <row r="920">
-      <c r="A920" s="44"/>
+      <c r="A920" s="24"/>
     </row>
     <row r="921">
-      <c r="A921" s="44"/>
+      <c r="A921" s="24"/>
     </row>
     <row r="922">
-      <c r="A922" s="44"/>
+      <c r="A922" s="24"/>
     </row>
     <row r="923">
-      <c r="A923" s="44"/>
+      <c r="A923" s="24"/>
     </row>
     <row r="924">
-      <c r="A924" s="44"/>
+      <c r="A924" s="24"/>
     </row>
     <row r="925">
-      <c r="A925" s="44"/>
+      <c r="A925" s="24"/>
     </row>
     <row r="926">
-      <c r="A926" s="44"/>
+      <c r="A926" s="24"/>
     </row>
     <row r="927">
-      <c r="A927" s="44"/>
+      <c r="A927" s="24"/>
     </row>
     <row r="928">
-      <c r="A928" s="44"/>
+      <c r="A928" s="24"/>
     </row>
     <row r="929">
-      <c r="A929" s="44"/>
+      <c r="A929" s="24"/>
     </row>
     <row r="930">
-      <c r="A930" s="44"/>
+      <c r="A930" s="24"/>
     </row>
     <row r="931">
-      <c r="A931" s="44"/>
+      <c r="A931" s="24"/>
     </row>
     <row r="932">
-      <c r="A932" s="44"/>
+      <c r="A932" s="24"/>
     </row>
     <row r="933">
-      <c r="A933" s="44"/>
+      <c r="A933" s="24"/>
     </row>
     <row r="934">
-      <c r="A934" s="44"/>
+      <c r="A934" s="24"/>
     </row>
     <row r="935">
-      <c r="A935" s="44"/>
+      <c r="A935" s="24"/>
     </row>
     <row r="936">
-      <c r="A936" s="44"/>
+      <c r="A936" s="24"/>
     </row>
     <row r="937">
-      <c r="A937" s="44"/>
+      <c r="A937" s="24"/>
     </row>
     <row r="938">
-      <c r="A938" s="44"/>
+      <c r="A938" s="24"/>
     </row>
     <row r="939">
-      <c r="A939" s="44"/>
+      <c r="A939" s="24"/>
     </row>
     <row r="940">
-      <c r="A940" s="44"/>
+      <c r="A940" s="24"/>
     </row>
     <row r="941">
-      <c r="A941" s="44"/>
+      <c r="A941" s="24"/>
     </row>
     <row r="942">
-      <c r="A942" s="44"/>
+      <c r="A942" s="24"/>
     </row>
     <row r="943">
-      <c r="A943" s="44"/>
+      <c r="A943" s="24"/>
     </row>
     <row r="944">
-      <c r="A944" s="44"/>
+      <c r="A944" s="24"/>
     </row>
     <row r="945">
-      <c r="A945" s="44"/>
+      <c r="A945" s="24"/>
     </row>
     <row r="946">
-      <c r="A946" s="44"/>
+      <c r="A946" s="24"/>
     </row>
     <row r="947">
-      <c r="A947" s="44"/>
+      <c r="A947" s="24"/>
     </row>
     <row r="948">
-      <c r="A948" s="44"/>
+      <c r="A948" s="24"/>
     </row>
     <row r="949">
-      <c r="A949" s="44"/>
+      <c r="A949" s="24"/>
     </row>
     <row r="950">
-      <c r="A950" s="44"/>
+      <c r="A950" s="24"/>
     </row>
     <row r="951">
-      <c r="A951" s="44"/>
+      <c r="A951" s="24"/>
     </row>
     <row r="952">
-      <c r="A952" s="44"/>
+      <c r="A952" s="24"/>
     </row>
     <row r="953">
-      <c r="A953" s="44"/>
+      <c r="A953" s="24"/>
     </row>
     <row r="954">
-      <c r="A954" s="44"/>
+      <c r="A954" s="24"/>
     </row>
     <row r="955">
-      <c r="A955" s="44"/>
+      <c r="A955" s="24"/>
     </row>
     <row r="956">
-      <c r="A956" s="44"/>
+      <c r="A956" s="24"/>
     </row>
     <row r="957">
-      <c r="A957" s="44"/>
+      <c r="A957" s="24"/>
     </row>
     <row r="958">
-      <c r="A958" s="44"/>
+      <c r="A958" s="24"/>
     </row>
     <row r="959">
-      <c r="A959" s="44"/>
+      <c r="A959" s="24"/>
     </row>
     <row r="960">
-      <c r="A960" s="44"/>
+      <c r="A960" s="24"/>
     </row>
     <row r="961">
-      <c r="A961" s="44"/>
+      <c r="A961" s="24"/>
     </row>
     <row r="962">
-      <c r="A962" s="44"/>
+      <c r="A962" s="24"/>
     </row>
     <row r="963">
-      <c r="A963" s="44"/>
+      <c r="A963" s="24"/>
     </row>
     <row r="964">
-      <c r="A964" s="44"/>
+      <c r="A964" s="24"/>
     </row>
     <row r="965">
-      <c r="A965" s="44"/>
+      <c r="A965" s="24"/>
     </row>
     <row r="966">
-      <c r="A966" s="44"/>
+      <c r="A966" s="24"/>
     </row>
     <row r="967">
-      <c r="A967" s="44"/>
+      <c r="A967" s="24"/>
     </row>
     <row r="968">
-      <c r="A968" s="44"/>
+      <c r="A968" s="24"/>
     </row>
     <row r="969">
-      <c r="A969" s="44"/>
+      <c r="A969" s="24"/>
     </row>
     <row r="970">
-      <c r="A970" s="44"/>
+      <c r="A970" s="24"/>
     </row>
     <row r="971">
-      <c r="A971" s="44"/>
+      <c r="A971" s="24"/>
     </row>
     <row r="972">
-      <c r="A972" s="44"/>
+      <c r="A972" s="24"/>
     </row>
     <row r="973">
-      <c r="A973" s="44"/>
+      <c r="A973" s="24"/>
     </row>
     <row r="974">
-      <c r="A974" s="44"/>
+      <c r="A974" s="24"/>
     </row>
     <row r="975">
-      <c r="A975" s="44"/>
+      <c r="A975" s="24"/>
     </row>
     <row r="976">
-      <c r="A976" s="44"/>
+      <c r="A976" s="24"/>
     </row>
     <row r="977">
-      <c r="A977" s="44"/>
+      <c r="A977" s="24"/>
     </row>
     <row r="978">
-      <c r="A978" s="44"/>
+      <c r="A978" s="24"/>
     </row>
     <row r="979">
-      <c r="A979" s="44"/>
+      <c r="A979" s="24"/>
     </row>
     <row r="980">
-      <c r="A980" s="44"/>
+      <c r="A980" s="24"/>
     </row>
     <row r="981">
-      <c r="A981" s="44"/>
+      <c r="A981" s="24"/>
     </row>
     <row r="982">
-      <c r="A982" s="44"/>
+      <c r="A982" s="24"/>
     </row>
     <row r="983">
-      <c r="A983" s="44"/>
+      <c r="A983" s="24"/>
     </row>
     <row r="984">
-      <c r="A984" s="44"/>
+      <c r="A984" s="24"/>
     </row>
     <row r="985">
-      <c r="A985" s="44"/>
+      <c r="A985" s="24"/>
     </row>
     <row r="986">
-      <c r="A986" s="44"/>
+      <c r="A986" s="24"/>
     </row>
     <row r="987">
-      <c r="A987" s="44"/>
+      <c r="A987" s="24"/>
     </row>
     <row r="988">
-      <c r="A988" s="44"/>
+      <c r="A988" s="24"/>
     </row>
     <row r="989">
-      <c r="A989" s="44"/>
+      <c r="A989" s="24"/>
     </row>
     <row r="990">
-      <c r="A990" s="44"/>
+      <c r="A990" s="24"/>
     </row>
     <row r="991">
-      <c r="A991" s="44"/>
+      <c r="A991" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9598,3023 +9598,3023 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="A3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="A4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="A5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25"/>
+      <c r="A6" s="33"/>
     </row>
     <row r="7">
-      <c r="A7" s="25"/>
+      <c r="A7" s="33"/>
     </row>
     <row r="8">
-      <c r="A8" s="38"/>
+      <c r="A8" s="34"/>
     </row>
     <row r="9">
-      <c r="A9" s="38"/>
+      <c r="A9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="38"/>
+      <c r="A10" s="34"/>
     </row>
     <row r="11">
-      <c r="A11" s="38"/>
+      <c r="A11" s="34"/>
     </row>
     <row r="12">
-      <c r="A12" s="38"/>
+      <c r="A12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="38"/>
+      <c r="A13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="38"/>
+      <c r="A14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="38"/>
+      <c r="A15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="38"/>
+      <c r="A16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="38"/>
+      <c r="A17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="38"/>
+      <c r="A18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="38"/>
+      <c r="A19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="38"/>
+      <c r="A20" s="34"/>
     </row>
     <row r="21">
-      <c r="A21" s="38"/>
+      <c r="A21" s="34"/>
     </row>
     <row r="22">
-      <c r="A22" s="38"/>
+      <c r="A22" s="34"/>
     </row>
     <row r="23">
-      <c r="A23" s="38"/>
+      <c r="A23" s="34"/>
     </row>
     <row r="24">
-      <c r="A24" s="38"/>
+      <c r="A24" s="34"/>
     </row>
     <row r="25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="34"/>
     </row>
     <row r="26">
-      <c r="A26" s="38"/>
+      <c r="A26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="38"/>
+      <c r="A27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="38"/>
+      <c r="A28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="38"/>
+      <c r="A29" s="34"/>
     </row>
     <row r="30">
-      <c r="A30" s="38"/>
+      <c r="A30" s="34"/>
     </row>
     <row r="31">
-      <c r="A31" s="38"/>
+      <c r="A31" s="34"/>
     </row>
     <row r="32">
-      <c r="A32" s="38"/>
+      <c r="A32" s="34"/>
     </row>
     <row r="33">
-      <c r="A33" s="38"/>
+      <c r="A33" s="34"/>
     </row>
     <row r="34">
-      <c r="A34" s="38"/>
+      <c r="A34" s="34"/>
     </row>
     <row r="35">
-      <c r="A35" s="38"/>
+      <c r="A35" s="34"/>
     </row>
     <row r="36">
-      <c r="A36" s="38"/>
+      <c r="A36" s="34"/>
     </row>
     <row r="37">
-      <c r="A37" s="38"/>
+      <c r="A37" s="34"/>
     </row>
     <row r="38">
-      <c r="A38" s="38"/>
+      <c r="A38" s="34"/>
     </row>
     <row r="39">
-      <c r="A39" s="38"/>
+      <c r="A39" s="34"/>
     </row>
     <row r="40">
-      <c r="A40" s="38"/>
+      <c r="A40" s="34"/>
     </row>
     <row r="41">
-      <c r="A41" s="38"/>
+      <c r="A41" s="34"/>
     </row>
     <row r="42">
-      <c r="A42" s="38"/>
+      <c r="A42" s="34"/>
     </row>
     <row r="43">
-      <c r="A43" s="38"/>
+      <c r="A43" s="34"/>
     </row>
     <row r="44">
-      <c r="A44" s="38"/>
+      <c r="A44" s="34"/>
     </row>
     <row r="45">
-      <c r="A45" s="38"/>
+      <c r="A45" s="34"/>
     </row>
     <row r="46">
-      <c r="A46" s="38"/>
+      <c r="A46" s="34"/>
     </row>
     <row r="47">
-      <c r="A47" s="38"/>
+      <c r="A47" s="34"/>
     </row>
     <row r="48">
-      <c r="A48" s="38"/>
+      <c r="A48" s="34"/>
     </row>
     <row r="49">
-      <c r="A49" s="38"/>
+      <c r="A49" s="34"/>
     </row>
     <row r="50">
-      <c r="A50" s="38"/>
+      <c r="A50" s="34"/>
     </row>
     <row r="51">
-      <c r="A51" s="38"/>
+      <c r="A51" s="34"/>
     </row>
     <row r="52">
-      <c r="A52" s="38"/>
+      <c r="A52" s="34"/>
     </row>
     <row r="53">
-      <c r="A53" s="38"/>
+      <c r="A53" s="34"/>
     </row>
     <row r="54">
-      <c r="A54" s="38"/>
+      <c r="A54" s="34"/>
     </row>
     <row r="55">
-      <c r="A55" s="38"/>
+      <c r="A55" s="34"/>
     </row>
     <row r="56">
-      <c r="A56" s="38"/>
+      <c r="A56" s="34"/>
     </row>
     <row r="57">
-      <c r="A57" s="38"/>
+      <c r="A57" s="34"/>
     </row>
     <row r="58">
-      <c r="A58" s="38"/>
+      <c r="A58" s="34"/>
     </row>
     <row r="59">
-      <c r="A59" s="38"/>
+      <c r="A59" s="34"/>
     </row>
     <row r="60">
-      <c r="A60" s="38"/>
+      <c r="A60" s="34"/>
     </row>
     <row r="61">
-      <c r="A61" s="38"/>
+      <c r="A61" s="34"/>
     </row>
     <row r="62">
-      <c r="A62" s="38"/>
+      <c r="A62" s="34"/>
     </row>
     <row r="63">
-      <c r="A63" s="38"/>
+      <c r="A63" s="34"/>
     </row>
     <row r="64">
-      <c r="A64" s="38"/>
+      <c r="A64" s="34"/>
     </row>
     <row r="65">
-      <c r="A65" s="38"/>
+      <c r="A65" s="34"/>
     </row>
     <row r="66">
-      <c r="A66" s="38"/>
+      <c r="A66" s="34"/>
     </row>
     <row r="67">
-      <c r="A67" s="38"/>
+      <c r="A67" s="34"/>
     </row>
     <row r="68">
-      <c r="A68" s="38"/>
+      <c r="A68" s="34"/>
     </row>
     <row r="69">
-      <c r="A69" s="38"/>
+      <c r="A69" s="34"/>
     </row>
     <row r="70">
-      <c r="A70" s="38"/>
+      <c r="A70" s="34"/>
     </row>
     <row r="71">
-      <c r="A71" s="38"/>
+      <c r="A71" s="34"/>
     </row>
     <row r="72">
-      <c r="A72" s="38"/>
+      <c r="A72" s="34"/>
     </row>
     <row r="73">
-      <c r="A73" s="38"/>
+      <c r="A73" s="34"/>
     </row>
     <row r="74">
-      <c r="A74" s="38"/>
+      <c r="A74" s="34"/>
     </row>
     <row r="75">
-      <c r="A75" s="38"/>
+      <c r="A75" s="34"/>
     </row>
     <row r="76">
-      <c r="A76" s="38"/>
+      <c r="A76" s="34"/>
     </row>
     <row r="77">
-      <c r="A77" s="38"/>
+      <c r="A77" s="34"/>
     </row>
     <row r="78">
-      <c r="A78" s="38"/>
+      <c r="A78" s="34"/>
     </row>
     <row r="79">
-      <c r="A79" s="38"/>
+      <c r="A79" s="34"/>
     </row>
     <row r="80">
-      <c r="A80" s="38"/>
+      <c r="A80" s="34"/>
     </row>
     <row r="81">
-      <c r="A81" s="38"/>
+      <c r="A81" s="34"/>
     </row>
     <row r="82">
-      <c r="A82" s="38"/>
+      <c r="A82" s="34"/>
     </row>
     <row r="83">
-      <c r="A83" s="38"/>
+      <c r="A83" s="34"/>
     </row>
     <row r="84">
-      <c r="A84" s="38"/>
+      <c r="A84" s="34"/>
     </row>
     <row r="85">
-      <c r="A85" s="38"/>
+      <c r="A85" s="34"/>
     </row>
     <row r="86">
-      <c r="A86" s="38"/>
+      <c r="A86" s="34"/>
     </row>
     <row r="87">
-      <c r="A87" s="38"/>
+      <c r="A87" s="34"/>
     </row>
     <row r="88">
-      <c r="A88" s="38"/>
+      <c r="A88" s="34"/>
     </row>
     <row r="89">
-      <c r="A89" s="38"/>
+      <c r="A89" s="34"/>
     </row>
     <row r="90">
-      <c r="A90" s="38"/>
+      <c r="A90" s="34"/>
     </row>
     <row r="91">
-      <c r="A91" s="38"/>
+      <c r="A91" s="34"/>
     </row>
     <row r="92">
-      <c r="A92" s="38"/>
+      <c r="A92" s="34"/>
     </row>
     <row r="93">
-      <c r="A93" s="38"/>
+      <c r="A93" s="34"/>
     </row>
     <row r="94">
-      <c r="A94" s="38"/>
+      <c r="A94" s="34"/>
     </row>
     <row r="95">
-      <c r="A95" s="38"/>
+      <c r="A95" s="34"/>
     </row>
     <row r="96">
-      <c r="A96" s="38"/>
+      <c r="A96" s="34"/>
     </row>
     <row r="97">
-      <c r="A97" s="38"/>
+      <c r="A97" s="34"/>
     </row>
     <row r="98">
-      <c r="A98" s="38"/>
+      <c r="A98" s="34"/>
     </row>
     <row r="99">
-      <c r="A99" s="38"/>
+      <c r="A99" s="34"/>
     </row>
     <row r="100">
-      <c r="A100" s="38"/>
+      <c r="A100" s="34"/>
     </row>
     <row r="101">
-      <c r="A101" s="38"/>
+      <c r="A101" s="34"/>
     </row>
     <row r="102">
-      <c r="A102" s="38"/>
+      <c r="A102" s="34"/>
     </row>
     <row r="103">
-      <c r="A103" s="38"/>
+      <c r="A103" s="34"/>
     </row>
     <row r="104">
-      <c r="A104" s="38"/>
+      <c r="A104" s="34"/>
     </row>
     <row r="105">
-      <c r="A105" s="38"/>
+      <c r="A105" s="34"/>
     </row>
     <row r="106">
-      <c r="A106" s="38"/>
+      <c r="A106" s="34"/>
     </row>
     <row r="107">
-      <c r="A107" s="38"/>
+      <c r="A107" s="34"/>
     </row>
     <row r="108">
-      <c r="A108" s="38"/>
+      <c r="A108" s="34"/>
     </row>
     <row r="109">
-      <c r="A109" s="38"/>
+      <c r="A109" s="34"/>
     </row>
     <row r="110">
-      <c r="A110" s="38"/>
+      <c r="A110" s="34"/>
     </row>
     <row r="111">
-      <c r="A111" s="38"/>
+      <c r="A111" s="34"/>
     </row>
     <row r="112">
-      <c r="A112" s="38"/>
+      <c r="A112" s="34"/>
     </row>
     <row r="113">
-      <c r="A113" s="38"/>
+      <c r="A113" s="34"/>
     </row>
     <row r="114">
-      <c r="A114" s="38"/>
+      <c r="A114" s="34"/>
     </row>
     <row r="115">
-      <c r="A115" s="38"/>
+      <c r="A115" s="34"/>
     </row>
     <row r="116">
-      <c r="A116" s="38"/>
+      <c r="A116" s="34"/>
     </row>
     <row r="117">
-      <c r="A117" s="38"/>
+      <c r="A117" s="34"/>
     </row>
     <row r="118">
-      <c r="A118" s="38"/>
+      <c r="A118" s="34"/>
     </row>
     <row r="119">
-      <c r="A119" s="38"/>
+      <c r="A119" s="34"/>
     </row>
     <row r="120">
-      <c r="A120" s="38"/>
+      <c r="A120" s="34"/>
     </row>
     <row r="121">
-      <c r="A121" s="38"/>
+      <c r="A121" s="34"/>
     </row>
     <row r="122">
-      <c r="A122" s="38"/>
+      <c r="A122" s="34"/>
     </row>
     <row r="123">
-      <c r="A123" s="38"/>
+      <c r="A123" s="34"/>
     </row>
     <row r="124">
-      <c r="A124" s="38"/>
+      <c r="A124" s="34"/>
     </row>
     <row r="125">
-      <c r="A125" s="38"/>
+      <c r="A125" s="34"/>
     </row>
     <row r="126">
-      <c r="A126" s="38"/>
+      <c r="A126" s="34"/>
     </row>
     <row r="127">
-      <c r="A127" s="38"/>
+      <c r="A127" s="34"/>
     </row>
     <row r="128">
-      <c r="A128" s="38"/>
+      <c r="A128" s="34"/>
     </row>
     <row r="129">
-      <c r="A129" s="38"/>
+      <c r="A129" s="34"/>
     </row>
     <row r="130">
-      <c r="A130" s="38"/>
+      <c r="A130" s="34"/>
     </row>
     <row r="131">
-      <c r="A131" s="38"/>
+      <c r="A131" s="34"/>
     </row>
     <row r="132">
-      <c r="A132" s="38"/>
+      <c r="A132" s="34"/>
     </row>
     <row r="133">
-      <c r="A133" s="38"/>
+      <c r="A133" s="34"/>
     </row>
     <row r="134">
-      <c r="A134" s="38"/>
+      <c r="A134" s="34"/>
     </row>
     <row r="135">
-      <c r="A135" s="38"/>
+      <c r="A135" s="34"/>
     </row>
     <row r="136">
-      <c r="A136" s="38"/>
+      <c r="A136" s="34"/>
     </row>
     <row r="137">
-      <c r="A137" s="38"/>
+      <c r="A137" s="34"/>
     </row>
     <row r="138">
-      <c r="A138" s="38"/>
+      <c r="A138" s="34"/>
     </row>
     <row r="139">
-      <c r="A139" s="38"/>
+      <c r="A139" s="34"/>
     </row>
     <row r="140">
-      <c r="A140" s="38"/>
+      <c r="A140" s="34"/>
     </row>
     <row r="141">
-      <c r="A141" s="38"/>
+      <c r="A141" s="34"/>
     </row>
     <row r="142">
-      <c r="A142" s="38"/>
+      <c r="A142" s="34"/>
     </row>
     <row r="143">
-      <c r="A143" s="38"/>
+      <c r="A143" s="34"/>
     </row>
     <row r="144">
-      <c r="A144" s="38"/>
+      <c r="A144" s="34"/>
     </row>
     <row r="145">
-      <c r="A145" s="38"/>
+      <c r="A145" s="34"/>
     </row>
     <row r="146">
-      <c r="A146" s="38"/>
+      <c r="A146" s="34"/>
     </row>
     <row r="147">
-      <c r="A147" s="38"/>
+      <c r="A147" s="34"/>
     </row>
     <row r="148">
-      <c r="A148" s="38"/>
+      <c r="A148" s="34"/>
     </row>
     <row r="149">
-      <c r="A149" s="38"/>
+      <c r="A149" s="34"/>
     </row>
     <row r="150">
-      <c r="A150" s="38"/>
+      <c r="A150" s="34"/>
     </row>
     <row r="151">
-      <c r="A151" s="38"/>
+      <c r="A151" s="34"/>
     </row>
     <row r="152">
-      <c r="A152" s="38"/>
+      <c r="A152" s="34"/>
     </row>
     <row r="153">
-      <c r="A153" s="38"/>
+      <c r="A153" s="34"/>
     </row>
     <row r="154">
-      <c r="A154" s="38"/>
+      <c r="A154" s="34"/>
     </row>
     <row r="155">
-      <c r="A155" s="38"/>
+      <c r="A155" s="34"/>
     </row>
     <row r="156">
-      <c r="A156" s="38"/>
+      <c r="A156" s="34"/>
     </row>
     <row r="157">
-      <c r="A157" s="38"/>
+      <c r="A157" s="34"/>
     </row>
     <row r="158">
-      <c r="A158" s="38"/>
+      <c r="A158" s="34"/>
     </row>
     <row r="159">
-      <c r="A159" s="38"/>
+      <c r="A159" s="34"/>
     </row>
     <row r="160">
-      <c r="A160" s="38"/>
+      <c r="A160" s="34"/>
     </row>
     <row r="161">
-      <c r="A161" s="38"/>
+      <c r="A161" s="34"/>
     </row>
     <row r="162">
-      <c r="A162" s="38"/>
+      <c r="A162" s="34"/>
     </row>
     <row r="163">
-      <c r="A163" s="38"/>
+      <c r="A163" s="34"/>
     </row>
     <row r="164">
-      <c r="A164" s="38"/>
+      <c r="A164" s="34"/>
     </row>
     <row r="165">
-      <c r="A165" s="38"/>
+      <c r="A165" s="34"/>
     </row>
     <row r="166">
-      <c r="A166" s="38"/>
+      <c r="A166" s="34"/>
     </row>
     <row r="167">
-      <c r="A167" s="38"/>
+      <c r="A167" s="34"/>
     </row>
     <row r="168">
-      <c r="A168" s="38"/>
+      <c r="A168" s="34"/>
     </row>
     <row r="169">
-      <c r="A169" s="38"/>
+      <c r="A169" s="34"/>
     </row>
     <row r="170">
-      <c r="A170" s="38"/>
+      <c r="A170" s="34"/>
     </row>
     <row r="171">
-      <c r="A171" s="38"/>
+      <c r="A171" s="34"/>
     </row>
     <row r="172">
-      <c r="A172" s="38"/>
+      <c r="A172" s="34"/>
     </row>
     <row r="173">
-      <c r="A173" s="38"/>
+      <c r="A173" s="34"/>
     </row>
     <row r="174">
-      <c r="A174" s="38"/>
+      <c r="A174" s="34"/>
     </row>
     <row r="175">
-      <c r="A175" s="38"/>
+      <c r="A175" s="34"/>
     </row>
     <row r="176">
-      <c r="A176" s="38"/>
+      <c r="A176" s="34"/>
     </row>
     <row r="177">
-      <c r="A177" s="38"/>
+      <c r="A177" s="34"/>
     </row>
     <row r="178">
-      <c r="A178" s="38"/>
+      <c r="A178" s="34"/>
     </row>
     <row r="179">
-      <c r="A179" s="38"/>
+      <c r="A179" s="34"/>
     </row>
     <row r="180">
-      <c r="A180" s="38"/>
+      <c r="A180" s="34"/>
     </row>
     <row r="181">
-      <c r="A181" s="38"/>
+      <c r="A181" s="34"/>
     </row>
     <row r="182">
-      <c r="A182" s="38"/>
+      <c r="A182" s="34"/>
     </row>
     <row r="183">
-      <c r="A183" s="38"/>
+      <c r="A183" s="34"/>
     </row>
     <row r="184">
-      <c r="A184" s="38"/>
+      <c r="A184" s="34"/>
     </row>
     <row r="185">
-      <c r="A185" s="38"/>
+      <c r="A185" s="34"/>
     </row>
     <row r="186">
-      <c r="A186" s="38"/>
+      <c r="A186" s="34"/>
     </row>
     <row r="187">
-      <c r="A187" s="38"/>
+      <c r="A187" s="34"/>
     </row>
     <row r="188">
-      <c r="A188" s="38"/>
+      <c r="A188" s="34"/>
     </row>
     <row r="189">
-      <c r="A189" s="38"/>
+      <c r="A189" s="34"/>
     </row>
     <row r="190">
-      <c r="A190" s="38"/>
+      <c r="A190" s="34"/>
     </row>
     <row r="191">
-      <c r="A191" s="38"/>
+      <c r="A191" s="34"/>
     </row>
     <row r="192">
-      <c r="A192" s="38"/>
+      <c r="A192" s="34"/>
     </row>
     <row r="193">
-      <c r="A193" s="38"/>
+      <c r="A193" s="34"/>
     </row>
     <row r="194">
-      <c r="A194" s="38"/>
+      <c r="A194" s="34"/>
     </row>
     <row r="195">
-      <c r="A195" s="38"/>
+      <c r="A195" s="34"/>
     </row>
     <row r="196">
-      <c r="A196" s="38"/>
+      <c r="A196" s="34"/>
     </row>
     <row r="197">
-      <c r="A197" s="38"/>
+      <c r="A197" s="34"/>
     </row>
     <row r="198">
-      <c r="A198" s="38"/>
+      <c r="A198" s="34"/>
     </row>
     <row r="199">
-      <c r="A199" s="38"/>
+      <c r="A199" s="34"/>
     </row>
     <row r="200">
-      <c r="A200" s="38"/>
+      <c r="A200" s="34"/>
     </row>
     <row r="201">
-      <c r="A201" s="38"/>
+      <c r="A201" s="34"/>
     </row>
     <row r="202">
-      <c r="A202" s="38"/>
+      <c r="A202" s="34"/>
     </row>
     <row r="203">
-      <c r="A203" s="38"/>
+      <c r="A203" s="34"/>
     </row>
     <row r="204">
-      <c r="A204" s="38"/>
+      <c r="A204" s="34"/>
     </row>
     <row r="205">
-      <c r="A205" s="38"/>
+      <c r="A205" s="34"/>
     </row>
     <row r="206">
-      <c r="A206" s="38"/>
+      <c r="A206" s="34"/>
     </row>
     <row r="207">
-      <c r="A207" s="38"/>
+      <c r="A207" s="34"/>
     </row>
     <row r="208">
-      <c r="A208" s="38"/>
+      <c r="A208" s="34"/>
     </row>
     <row r="209">
-      <c r="A209" s="38"/>
+      <c r="A209" s="34"/>
     </row>
     <row r="210">
-      <c r="A210" s="38"/>
+      <c r="A210" s="34"/>
     </row>
     <row r="211">
-      <c r="A211" s="38"/>
+      <c r="A211" s="34"/>
     </row>
     <row r="212">
-      <c r="A212" s="38"/>
+      <c r="A212" s="34"/>
     </row>
     <row r="213">
-      <c r="A213" s="38"/>
+      <c r="A213" s="34"/>
     </row>
     <row r="214">
-      <c r="A214" s="38"/>
+      <c r="A214" s="34"/>
     </row>
     <row r="215">
-      <c r="A215" s="38"/>
+      <c r="A215" s="34"/>
     </row>
     <row r="216">
-      <c r="A216" s="38"/>
+      <c r="A216" s="34"/>
     </row>
     <row r="217">
-      <c r="A217" s="38"/>
+      <c r="A217" s="34"/>
     </row>
     <row r="218">
-      <c r="A218" s="38"/>
+      <c r="A218" s="34"/>
     </row>
     <row r="219">
-      <c r="A219" s="38"/>
+      <c r="A219" s="34"/>
     </row>
     <row r="220">
-      <c r="A220" s="38"/>
+      <c r="A220" s="34"/>
     </row>
     <row r="221">
-      <c r="A221" s="38"/>
+      <c r="A221" s="34"/>
     </row>
     <row r="222">
-      <c r="A222" s="38"/>
+      <c r="A222" s="34"/>
     </row>
     <row r="223">
-      <c r="A223" s="38"/>
+      <c r="A223" s="34"/>
     </row>
     <row r="224">
-      <c r="A224" s="38"/>
+      <c r="A224" s="34"/>
     </row>
     <row r="225">
-      <c r="A225" s="38"/>
+      <c r="A225" s="34"/>
     </row>
     <row r="226">
-      <c r="A226" s="38"/>
+      <c r="A226" s="34"/>
     </row>
     <row r="227">
-      <c r="A227" s="38"/>
+      <c r="A227" s="34"/>
     </row>
     <row r="228">
-      <c r="A228" s="38"/>
+      <c r="A228" s="34"/>
     </row>
     <row r="229">
-      <c r="A229" s="38"/>
+      <c r="A229" s="34"/>
     </row>
     <row r="230">
-      <c r="A230" s="38"/>
+      <c r="A230" s="34"/>
     </row>
     <row r="231">
-      <c r="A231" s="38"/>
+      <c r="A231" s="34"/>
     </row>
     <row r="232">
-      <c r="A232" s="38"/>
+      <c r="A232" s="34"/>
     </row>
     <row r="233">
-      <c r="A233" s="38"/>
+      <c r="A233" s="34"/>
     </row>
     <row r="234">
-      <c r="A234" s="38"/>
+      <c r="A234" s="34"/>
     </row>
     <row r="235">
-      <c r="A235" s="38"/>
+      <c r="A235" s="34"/>
     </row>
     <row r="236">
-      <c r="A236" s="38"/>
+      <c r="A236" s="34"/>
     </row>
     <row r="237">
-      <c r="A237" s="38"/>
+      <c r="A237" s="34"/>
     </row>
     <row r="238">
-      <c r="A238" s="38"/>
+      <c r="A238" s="34"/>
     </row>
     <row r="239">
-      <c r="A239" s="38"/>
+      <c r="A239" s="34"/>
     </row>
     <row r="240">
-      <c r="A240" s="38"/>
+      <c r="A240" s="34"/>
     </row>
     <row r="241">
-      <c r="A241" s="38"/>
+      <c r="A241" s="34"/>
     </row>
     <row r="242">
-      <c r="A242" s="38"/>
+      <c r="A242" s="34"/>
     </row>
     <row r="243">
-      <c r="A243" s="38"/>
+      <c r="A243" s="34"/>
     </row>
     <row r="244">
-      <c r="A244" s="38"/>
+      <c r="A244" s="34"/>
     </row>
     <row r="245">
-      <c r="A245" s="38"/>
+      <c r="A245" s="34"/>
     </row>
     <row r="246">
-      <c r="A246" s="38"/>
+      <c r="A246" s="34"/>
     </row>
     <row r="247">
-      <c r="A247" s="38"/>
+      <c r="A247" s="34"/>
     </row>
     <row r="248">
-      <c r="A248" s="38"/>
+      <c r="A248" s="34"/>
     </row>
     <row r="249">
-      <c r="A249" s="38"/>
+      <c r="A249" s="34"/>
     </row>
     <row r="250">
-      <c r="A250" s="38"/>
+      <c r="A250" s="34"/>
     </row>
     <row r="251">
-      <c r="A251" s="38"/>
+      <c r="A251" s="34"/>
     </row>
     <row r="252">
-      <c r="A252" s="38"/>
+      <c r="A252" s="34"/>
     </row>
     <row r="253">
-      <c r="A253" s="38"/>
+      <c r="A253" s="34"/>
     </row>
     <row r="254">
-      <c r="A254" s="38"/>
+      <c r="A254" s="34"/>
     </row>
     <row r="255">
-      <c r="A255" s="38"/>
+      <c r="A255" s="34"/>
     </row>
     <row r="256">
-      <c r="A256" s="38"/>
+      <c r="A256" s="34"/>
     </row>
     <row r="257">
-      <c r="A257" s="38"/>
+      <c r="A257" s="34"/>
     </row>
     <row r="258">
-      <c r="A258" s="38"/>
+      <c r="A258" s="34"/>
     </row>
     <row r="259">
-      <c r="A259" s="38"/>
+      <c r="A259" s="34"/>
     </row>
     <row r="260">
-      <c r="A260" s="38"/>
+      <c r="A260" s="34"/>
     </row>
     <row r="261">
-      <c r="A261" s="38"/>
+      <c r="A261" s="34"/>
     </row>
     <row r="262">
-      <c r="A262" s="38"/>
+      <c r="A262" s="34"/>
     </row>
     <row r="263">
-      <c r="A263" s="38"/>
+      <c r="A263" s="34"/>
     </row>
     <row r="264">
-      <c r="A264" s="38"/>
+      <c r="A264" s="34"/>
     </row>
     <row r="265">
-      <c r="A265" s="38"/>
+      <c r="A265" s="34"/>
     </row>
     <row r="266">
-      <c r="A266" s="38"/>
+      <c r="A266" s="34"/>
     </row>
     <row r="267">
-      <c r="A267" s="38"/>
+      <c r="A267" s="34"/>
     </row>
     <row r="268">
-      <c r="A268" s="38"/>
+      <c r="A268" s="34"/>
     </row>
     <row r="269">
-      <c r="A269" s="38"/>
+      <c r="A269" s="34"/>
     </row>
     <row r="270">
-      <c r="A270" s="38"/>
+      <c r="A270" s="34"/>
     </row>
     <row r="271">
-      <c r="A271" s="38"/>
+      <c r="A271" s="34"/>
     </row>
     <row r="272">
-      <c r="A272" s="38"/>
+      <c r="A272" s="34"/>
     </row>
     <row r="273">
-      <c r="A273" s="38"/>
+      <c r="A273" s="34"/>
     </row>
     <row r="274">
-      <c r="A274" s="38"/>
+      <c r="A274" s="34"/>
     </row>
     <row r="275">
-      <c r="A275" s="38"/>
+      <c r="A275" s="34"/>
     </row>
     <row r="276">
-      <c r="A276" s="38"/>
+      <c r="A276" s="34"/>
     </row>
     <row r="277">
-      <c r="A277" s="38"/>
+      <c r="A277" s="34"/>
     </row>
     <row r="278">
-      <c r="A278" s="38"/>
+      <c r="A278" s="34"/>
     </row>
     <row r="279">
-      <c r="A279" s="38"/>
+      <c r="A279" s="34"/>
     </row>
     <row r="280">
-      <c r="A280" s="38"/>
+      <c r="A280" s="34"/>
     </row>
     <row r="281">
-      <c r="A281" s="38"/>
+      <c r="A281" s="34"/>
     </row>
     <row r="282">
-      <c r="A282" s="38"/>
+      <c r="A282" s="34"/>
     </row>
     <row r="283">
-      <c r="A283" s="38"/>
+      <c r="A283" s="34"/>
     </row>
     <row r="284">
-      <c r="A284" s="38"/>
+      <c r="A284" s="34"/>
     </row>
     <row r="285">
-      <c r="A285" s="38"/>
+      <c r="A285" s="34"/>
     </row>
     <row r="286">
-      <c r="A286" s="38"/>
+      <c r="A286" s="34"/>
     </row>
     <row r="287">
-      <c r="A287" s="38"/>
+      <c r="A287" s="34"/>
     </row>
     <row r="288">
-      <c r="A288" s="38"/>
+      <c r="A288" s="34"/>
     </row>
     <row r="289">
-      <c r="A289" s="38"/>
+      <c r="A289" s="34"/>
     </row>
     <row r="290">
-      <c r="A290" s="38"/>
+      <c r="A290" s="34"/>
     </row>
     <row r="291">
-      <c r="A291" s="38"/>
+      <c r="A291" s="34"/>
     </row>
     <row r="292">
-      <c r="A292" s="38"/>
+      <c r="A292" s="34"/>
     </row>
     <row r="293">
-      <c r="A293" s="38"/>
+      <c r="A293" s="34"/>
     </row>
     <row r="294">
-      <c r="A294" s="38"/>
+      <c r="A294" s="34"/>
     </row>
     <row r="295">
-      <c r="A295" s="38"/>
+      <c r="A295" s="34"/>
     </row>
     <row r="296">
-      <c r="A296" s="38"/>
+      <c r="A296" s="34"/>
     </row>
     <row r="297">
-      <c r="A297" s="38"/>
+      <c r="A297" s="34"/>
     </row>
     <row r="298">
-      <c r="A298" s="38"/>
+      <c r="A298" s="34"/>
     </row>
     <row r="299">
-      <c r="A299" s="38"/>
+      <c r="A299" s="34"/>
     </row>
     <row r="300">
-      <c r="A300" s="38"/>
+      <c r="A300" s="34"/>
     </row>
     <row r="301">
-      <c r="A301" s="38"/>
+      <c r="A301" s="34"/>
     </row>
     <row r="302">
-      <c r="A302" s="38"/>
+      <c r="A302" s="34"/>
     </row>
     <row r="303">
-      <c r="A303" s="38"/>
+      <c r="A303" s="34"/>
     </row>
     <row r="304">
-      <c r="A304" s="38"/>
+      <c r="A304" s="34"/>
     </row>
     <row r="305">
-      <c r="A305" s="38"/>
+      <c r="A305" s="34"/>
     </row>
     <row r="306">
-      <c r="A306" s="38"/>
+      <c r="A306" s="34"/>
     </row>
     <row r="307">
-      <c r="A307" s="38"/>
+      <c r="A307" s="34"/>
     </row>
     <row r="308">
-      <c r="A308" s="38"/>
+      <c r="A308" s="34"/>
     </row>
     <row r="309">
-      <c r="A309" s="38"/>
+      <c r="A309" s="34"/>
     </row>
     <row r="310">
-      <c r="A310" s="38"/>
+      <c r="A310" s="34"/>
     </row>
     <row r="311">
-      <c r="A311" s="38"/>
+      <c r="A311" s="34"/>
     </row>
     <row r="312">
-      <c r="A312" s="38"/>
+      <c r="A312" s="34"/>
     </row>
     <row r="313">
-      <c r="A313" s="38"/>
+      <c r="A313" s="34"/>
     </row>
     <row r="314">
-      <c r="A314" s="38"/>
+      <c r="A314" s="34"/>
     </row>
     <row r="315">
-      <c r="A315" s="38"/>
+      <c r="A315" s="34"/>
     </row>
     <row r="316">
-      <c r="A316" s="38"/>
+      <c r="A316" s="34"/>
     </row>
     <row r="317">
-      <c r="A317" s="38"/>
+      <c r="A317" s="34"/>
     </row>
     <row r="318">
-      <c r="A318" s="38"/>
+      <c r="A318" s="34"/>
     </row>
     <row r="319">
-      <c r="A319" s="38"/>
+      <c r="A319" s="34"/>
     </row>
     <row r="320">
-      <c r="A320" s="38"/>
+      <c r="A320" s="34"/>
     </row>
     <row r="321">
-      <c r="A321" s="38"/>
+      <c r="A321" s="34"/>
     </row>
     <row r="322">
-      <c r="A322" s="38"/>
+      <c r="A322" s="34"/>
     </row>
     <row r="323">
-      <c r="A323" s="38"/>
+      <c r="A323" s="34"/>
     </row>
     <row r="324">
-      <c r="A324" s="38"/>
+      <c r="A324" s="34"/>
     </row>
     <row r="325">
-      <c r="A325" s="38"/>
+      <c r="A325" s="34"/>
     </row>
     <row r="326">
-      <c r="A326" s="38"/>
+      <c r="A326" s="34"/>
     </row>
     <row r="327">
-      <c r="A327" s="38"/>
+      <c r="A327" s="34"/>
     </row>
     <row r="328">
-      <c r="A328" s="38"/>
+      <c r="A328" s="34"/>
     </row>
     <row r="329">
-      <c r="A329" s="38"/>
+      <c r="A329" s="34"/>
     </row>
     <row r="330">
-      <c r="A330" s="38"/>
+      <c r="A330" s="34"/>
     </row>
     <row r="331">
-      <c r="A331" s="38"/>
+      <c r="A331" s="34"/>
     </row>
     <row r="332">
-      <c r="A332" s="38"/>
+      <c r="A332" s="34"/>
     </row>
     <row r="333">
-      <c r="A333" s="38"/>
+      <c r="A333" s="34"/>
     </row>
     <row r="334">
-      <c r="A334" s="38"/>
+      <c r="A334" s="34"/>
     </row>
     <row r="335">
-      <c r="A335" s="38"/>
+      <c r="A335" s="34"/>
     </row>
     <row r="336">
-      <c r="A336" s="38"/>
+      <c r="A336" s="34"/>
     </row>
     <row r="337">
-      <c r="A337" s="38"/>
+      <c r="A337" s="34"/>
     </row>
     <row r="338">
-      <c r="A338" s="38"/>
+      <c r="A338" s="34"/>
     </row>
     <row r="339">
-      <c r="A339" s="38"/>
+      <c r="A339" s="34"/>
     </row>
     <row r="340">
-      <c r="A340" s="38"/>
+      <c r="A340" s="34"/>
     </row>
     <row r="341">
-      <c r="A341" s="38"/>
+      <c r="A341" s="34"/>
     </row>
     <row r="342">
-      <c r="A342" s="38"/>
+      <c r="A342" s="34"/>
     </row>
     <row r="343">
-      <c r="A343" s="38"/>
+      <c r="A343" s="34"/>
     </row>
     <row r="344">
-      <c r="A344" s="38"/>
+      <c r="A344" s="34"/>
     </row>
     <row r="345">
-      <c r="A345" s="38"/>
+      <c r="A345" s="34"/>
     </row>
     <row r="346">
-      <c r="A346" s="38"/>
+      <c r="A346" s="34"/>
     </row>
     <row r="347">
-      <c r="A347" s="38"/>
+      <c r="A347" s="34"/>
     </row>
     <row r="348">
-      <c r="A348" s="38"/>
+      <c r="A348" s="34"/>
     </row>
     <row r="349">
-      <c r="A349" s="38"/>
+      <c r="A349" s="34"/>
     </row>
     <row r="350">
-      <c r="A350" s="38"/>
+      <c r="A350" s="34"/>
     </row>
     <row r="351">
-      <c r="A351" s="38"/>
+      <c r="A351" s="34"/>
     </row>
     <row r="352">
-      <c r="A352" s="38"/>
+      <c r="A352" s="34"/>
     </row>
     <row r="353">
-      <c r="A353" s="38"/>
+      <c r="A353" s="34"/>
     </row>
     <row r="354">
-      <c r="A354" s="38"/>
+      <c r="A354" s="34"/>
     </row>
     <row r="355">
-      <c r="A355" s="38"/>
+      <c r="A355" s="34"/>
     </row>
     <row r="356">
-      <c r="A356" s="38"/>
+      <c r="A356" s="34"/>
     </row>
     <row r="357">
-      <c r="A357" s="38"/>
+      <c r="A357" s="34"/>
     </row>
     <row r="358">
-      <c r="A358" s="38"/>
+      <c r="A358" s="34"/>
     </row>
     <row r="359">
-      <c r="A359" s="38"/>
+      <c r="A359" s="34"/>
     </row>
     <row r="360">
-      <c r="A360" s="38"/>
+      <c r="A360" s="34"/>
     </row>
     <row r="361">
-      <c r="A361" s="38"/>
+      <c r="A361" s="34"/>
     </row>
     <row r="362">
-      <c r="A362" s="38"/>
+      <c r="A362" s="34"/>
     </row>
     <row r="363">
-      <c r="A363" s="38"/>
+      <c r="A363" s="34"/>
     </row>
     <row r="364">
-      <c r="A364" s="38"/>
+      <c r="A364" s="34"/>
     </row>
     <row r="365">
-      <c r="A365" s="38"/>
+      <c r="A365" s="34"/>
     </row>
     <row r="366">
-      <c r="A366" s="38"/>
+      <c r="A366" s="34"/>
     </row>
     <row r="367">
-      <c r="A367" s="38"/>
+      <c r="A367" s="34"/>
     </row>
     <row r="368">
-      <c r="A368" s="38"/>
+      <c r="A368" s="34"/>
     </row>
     <row r="369">
-      <c r="A369" s="38"/>
+      <c r="A369" s="34"/>
     </row>
     <row r="370">
-      <c r="A370" s="38"/>
+      <c r="A370" s="34"/>
     </row>
     <row r="371">
-      <c r="A371" s="38"/>
+      <c r="A371" s="34"/>
     </row>
     <row r="372">
-      <c r="A372" s="38"/>
+      <c r="A372" s="34"/>
     </row>
     <row r="373">
-      <c r="A373" s="38"/>
+      <c r="A373" s="34"/>
     </row>
     <row r="374">
-      <c r="A374" s="38"/>
+      <c r="A374" s="34"/>
     </row>
     <row r="375">
-      <c r="A375" s="38"/>
+      <c r="A375" s="34"/>
     </row>
     <row r="376">
-      <c r="A376" s="38"/>
+      <c r="A376" s="34"/>
     </row>
     <row r="377">
-      <c r="A377" s="38"/>
+      <c r="A377" s="34"/>
     </row>
     <row r="378">
-      <c r="A378" s="38"/>
+      <c r="A378" s="34"/>
     </row>
     <row r="379">
-      <c r="A379" s="38"/>
+      <c r="A379" s="34"/>
     </row>
     <row r="380">
-      <c r="A380" s="38"/>
+      <c r="A380" s="34"/>
     </row>
     <row r="381">
-      <c r="A381" s="38"/>
+      <c r="A381" s="34"/>
     </row>
     <row r="382">
-      <c r="A382" s="38"/>
+      <c r="A382" s="34"/>
     </row>
     <row r="383">
-      <c r="A383" s="38"/>
+      <c r="A383" s="34"/>
     </row>
     <row r="384">
-      <c r="A384" s="38"/>
+      <c r="A384" s="34"/>
     </row>
     <row r="385">
-      <c r="A385" s="38"/>
+      <c r="A385" s="34"/>
     </row>
     <row r="386">
-      <c r="A386" s="38"/>
+      <c r="A386" s="34"/>
     </row>
     <row r="387">
-      <c r="A387" s="38"/>
+      <c r="A387" s="34"/>
     </row>
     <row r="388">
-      <c r="A388" s="38"/>
+      <c r="A388" s="34"/>
     </row>
     <row r="389">
-      <c r="A389" s="38"/>
+      <c r="A389" s="34"/>
     </row>
     <row r="390">
-      <c r="A390" s="38"/>
+      <c r="A390" s="34"/>
     </row>
     <row r="391">
-      <c r="A391" s="38"/>
+      <c r="A391" s="34"/>
     </row>
     <row r="392">
-      <c r="A392" s="38"/>
+      <c r="A392" s="34"/>
     </row>
     <row r="393">
-      <c r="A393" s="38"/>
+      <c r="A393" s="34"/>
     </row>
     <row r="394">
-      <c r="A394" s="38"/>
+      <c r="A394" s="34"/>
     </row>
     <row r="395">
-      <c r="A395" s="38"/>
+      <c r="A395" s="34"/>
     </row>
     <row r="396">
-      <c r="A396" s="38"/>
+      <c r="A396" s="34"/>
     </row>
     <row r="397">
-      <c r="A397" s="38"/>
+      <c r="A397" s="34"/>
     </row>
     <row r="398">
-      <c r="A398" s="38"/>
+      <c r="A398" s="34"/>
     </row>
     <row r="399">
-      <c r="A399" s="38"/>
+      <c r="A399" s="34"/>
     </row>
     <row r="400">
-      <c r="A400" s="38"/>
+      <c r="A400" s="34"/>
     </row>
     <row r="401">
-      <c r="A401" s="38"/>
+      <c r="A401" s="34"/>
     </row>
     <row r="402">
-      <c r="A402" s="38"/>
+      <c r="A402" s="34"/>
     </row>
     <row r="403">
-      <c r="A403" s="38"/>
+      <c r="A403" s="34"/>
     </row>
     <row r="404">
-      <c r="A404" s="38"/>
+      <c r="A404" s="34"/>
     </row>
     <row r="405">
-      <c r="A405" s="38"/>
+      <c r="A405" s="34"/>
     </row>
     <row r="406">
-      <c r="A406" s="38"/>
+      <c r="A406" s="34"/>
     </row>
     <row r="407">
-      <c r="A407" s="38"/>
+      <c r="A407" s="34"/>
     </row>
     <row r="408">
-      <c r="A408" s="38"/>
+      <c r="A408" s="34"/>
     </row>
     <row r="409">
-      <c r="A409" s="38"/>
+      <c r="A409" s="34"/>
     </row>
     <row r="410">
-      <c r="A410" s="38"/>
+      <c r="A410" s="34"/>
     </row>
     <row r="411">
-      <c r="A411" s="38"/>
+      <c r="A411" s="34"/>
     </row>
     <row r="412">
-      <c r="A412" s="38"/>
+      <c r="A412" s="34"/>
     </row>
     <row r="413">
-      <c r="A413" s="38"/>
+      <c r="A413" s="34"/>
     </row>
     <row r="414">
-      <c r="A414" s="38"/>
+      <c r="A414" s="34"/>
     </row>
     <row r="415">
-      <c r="A415" s="38"/>
+      <c r="A415" s="34"/>
     </row>
     <row r="416">
-      <c r="A416" s="38"/>
+      <c r="A416" s="34"/>
     </row>
     <row r="417">
-      <c r="A417" s="38"/>
+      <c r="A417" s="34"/>
     </row>
     <row r="418">
-      <c r="A418" s="38"/>
+      <c r="A418" s="34"/>
     </row>
     <row r="419">
-      <c r="A419" s="38"/>
+      <c r="A419" s="34"/>
     </row>
     <row r="420">
-      <c r="A420" s="38"/>
+      <c r="A420" s="34"/>
     </row>
     <row r="421">
-      <c r="A421" s="38"/>
+      <c r="A421" s="34"/>
     </row>
     <row r="422">
-      <c r="A422" s="38"/>
+      <c r="A422" s="34"/>
     </row>
     <row r="423">
-      <c r="A423" s="38"/>
+      <c r="A423" s="34"/>
     </row>
     <row r="424">
-      <c r="A424" s="38"/>
+      <c r="A424" s="34"/>
     </row>
     <row r="425">
-      <c r="A425" s="38"/>
+      <c r="A425" s="34"/>
     </row>
     <row r="426">
-      <c r="A426" s="38"/>
+      <c r="A426" s="34"/>
     </row>
     <row r="427">
-      <c r="A427" s="38"/>
+      <c r="A427" s="34"/>
     </row>
     <row r="428">
-      <c r="A428" s="38"/>
+      <c r="A428" s="34"/>
     </row>
     <row r="429">
-      <c r="A429" s="38"/>
+      <c r="A429" s="34"/>
     </row>
     <row r="430">
-      <c r="A430" s="38"/>
+      <c r="A430" s="34"/>
     </row>
     <row r="431">
-      <c r="A431" s="38"/>
+      <c r="A431" s="34"/>
     </row>
     <row r="432">
-      <c r="A432" s="38"/>
+      <c r="A432" s="34"/>
     </row>
     <row r="433">
-      <c r="A433" s="38"/>
+      <c r="A433" s="34"/>
     </row>
     <row r="434">
-      <c r="A434" s="38"/>
+      <c r="A434" s="34"/>
     </row>
     <row r="435">
-      <c r="A435" s="38"/>
+      <c r="A435" s="34"/>
     </row>
     <row r="436">
-      <c r="A436" s="38"/>
+      <c r="A436" s="34"/>
     </row>
     <row r="437">
-      <c r="A437" s="38"/>
+      <c r="A437" s="34"/>
     </row>
     <row r="438">
-      <c r="A438" s="38"/>
+      <c r="A438" s="34"/>
     </row>
     <row r="439">
-      <c r="A439" s="38"/>
+      <c r="A439" s="34"/>
     </row>
     <row r="440">
-      <c r="A440" s="38"/>
+      <c r="A440" s="34"/>
     </row>
     <row r="441">
-      <c r="A441" s="38"/>
+      <c r="A441" s="34"/>
     </row>
     <row r="442">
-      <c r="A442" s="38"/>
+      <c r="A442" s="34"/>
     </row>
     <row r="443">
-      <c r="A443" s="38"/>
+      <c r="A443" s="34"/>
     </row>
     <row r="444">
-      <c r="A444" s="38"/>
+      <c r="A444" s="34"/>
     </row>
     <row r="445">
-      <c r="A445" s="38"/>
+      <c r="A445" s="34"/>
     </row>
     <row r="446">
-      <c r="A446" s="38"/>
+      <c r="A446" s="34"/>
     </row>
     <row r="447">
-      <c r="A447" s="38"/>
+      <c r="A447" s="34"/>
     </row>
     <row r="448">
-      <c r="A448" s="38"/>
+      <c r="A448" s="34"/>
     </row>
     <row r="449">
-      <c r="A449" s="38"/>
+      <c r="A449" s="34"/>
     </row>
     <row r="450">
-      <c r="A450" s="38"/>
+      <c r="A450" s="34"/>
     </row>
     <row r="451">
-      <c r="A451" s="38"/>
+      <c r="A451" s="34"/>
     </row>
     <row r="452">
-      <c r="A452" s="38"/>
+      <c r="A452" s="34"/>
     </row>
     <row r="453">
-      <c r="A453" s="38"/>
+      <c r="A453" s="34"/>
     </row>
     <row r="454">
-      <c r="A454" s="38"/>
+      <c r="A454" s="34"/>
     </row>
     <row r="455">
-      <c r="A455" s="38"/>
+      <c r="A455" s="34"/>
     </row>
     <row r="456">
-      <c r="A456" s="38"/>
+      <c r="A456" s="34"/>
     </row>
     <row r="457">
-      <c r="A457" s="38"/>
+      <c r="A457" s="34"/>
     </row>
     <row r="458">
-      <c r="A458" s="38"/>
+      <c r="A458" s="34"/>
     </row>
     <row r="459">
-      <c r="A459" s="38"/>
+      <c r="A459" s="34"/>
     </row>
     <row r="460">
-      <c r="A460" s="38"/>
+      <c r="A460" s="34"/>
     </row>
     <row r="461">
-      <c r="A461" s="38"/>
+      <c r="A461" s="34"/>
     </row>
     <row r="462">
-      <c r="A462" s="38"/>
+      <c r="A462" s="34"/>
     </row>
     <row r="463">
-      <c r="A463" s="38"/>
+      <c r="A463" s="34"/>
     </row>
     <row r="464">
-      <c r="A464" s="38"/>
+      <c r="A464" s="34"/>
     </row>
     <row r="465">
-      <c r="A465" s="38"/>
+      <c r="A465" s="34"/>
     </row>
     <row r="466">
-      <c r="A466" s="38"/>
+      <c r="A466" s="34"/>
     </row>
     <row r="467">
-      <c r="A467" s="38"/>
+      <c r="A467" s="34"/>
     </row>
     <row r="468">
-      <c r="A468" s="38"/>
+      <c r="A468" s="34"/>
     </row>
     <row r="469">
-      <c r="A469" s="38"/>
+      <c r="A469" s="34"/>
     </row>
     <row r="470">
-      <c r="A470" s="38"/>
+      <c r="A470" s="34"/>
     </row>
     <row r="471">
-      <c r="A471" s="38"/>
+      <c r="A471" s="34"/>
     </row>
     <row r="472">
-      <c r="A472" s="38"/>
+      <c r="A472" s="34"/>
     </row>
     <row r="473">
-      <c r="A473" s="38"/>
+      <c r="A473" s="34"/>
     </row>
     <row r="474">
-      <c r="A474" s="38"/>
+      <c r="A474" s="34"/>
     </row>
     <row r="475">
-      <c r="A475" s="38"/>
+      <c r="A475" s="34"/>
     </row>
     <row r="476">
-      <c r="A476" s="38"/>
+      <c r="A476" s="34"/>
     </row>
     <row r="477">
-      <c r="A477" s="38"/>
+      <c r="A477" s="34"/>
     </row>
     <row r="478">
-      <c r="A478" s="38"/>
+      <c r="A478" s="34"/>
     </row>
     <row r="479">
-      <c r="A479" s="38"/>
+      <c r="A479" s="34"/>
     </row>
     <row r="480">
-      <c r="A480" s="38"/>
+      <c r="A480" s="34"/>
     </row>
     <row r="481">
-      <c r="A481" s="38"/>
+      <c r="A481" s="34"/>
     </row>
     <row r="482">
-      <c r="A482" s="38"/>
+      <c r="A482" s="34"/>
     </row>
     <row r="483">
-      <c r="A483" s="38"/>
+      <c r="A483" s="34"/>
     </row>
     <row r="484">
-      <c r="A484" s="38"/>
+      <c r="A484" s="34"/>
     </row>
     <row r="485">
-      <c r="A485" s="38"/>
+      <c r="A485" s="34"/>
     </row>
     <row r="486">
-      <c r="A486" s="38"/>
+      <c r="A486" s="34"/>
     </row>
     <row r="487">
-      <c r="A487" s="38"/>
+      <c r="A487" s="34"/>
     </row>
     <row r="488">
-      <c r="A488" s="38"/>
+      <c r="A488" s="34"/>
     </row>
     <row r="489">
-      <c r="A489" s="38"/>
+      <c r="A489" s="34"/>
     </row>
     <row r="490">
-      <c r="A490" s="38"/>
+      <c r="A490" s="34"/>
     </row>
     <row r="491">
-      <c r="A491" s="38"/>
+      <c r="A491" s="34"/>
     </row>
     <row r="492">
-      <c r="A492" s="38"/>
+      <c r="A492" s="34"/>
     </row>
     <row r="493">
-      <c r="A493" s="38"/>
+      <c r="A493" s="34"/>
     </row>
     <row r="494">
-      <c r="A494" s="38"/>
+      <c r="A494" s="34"/>
     </row>
     <row r="495">
-      <c r="A495" s="38"/>
+      <c r="A495" s="34"/>
     </row>
     <row r="496">
-      <c r="A496" s="38"/>
+      <c r="A496" s="34"/>
     </row>
     <row r="497">
-      <c r="A497" s="38"/>
+      <c r="A497" s="34"/>
     </row>
     <row r="498">
-      <c r="A498" s="38"/>
+      <c r="A498" s="34"/>
     </row>
     <row r="499">
-      <c r="A499" s="38"/>
+      <c r="A499" s="34"/>
     </row>
     <row r="500">
-      <c r="A500" s="38"/>
+      <c r="A500" s="34"/>
     </row>
     <row r="501">
-      <c r="A501" s="38"/>
+      <c r="A501" s="34"/>
     </row>
     <row r="502">
-      <c r="A502" s="38"/>
+      <c r="A502" s="34"/>
     </row>
     <row r="503">
-      <c r="A503" s="38"/>
+      <c r="A503" s="34"/>
     </row>
     <row r="504">
-      <c r="A504" s="38"/>
+      <c r="A504" s="34"/>
     </row>
     <row r="505">
-      <c r="A505" s="38"/>
+      <c r="A505" s="34"/>
     </row>
     <row r="506">
-      <c r="A506" s="38"/>
+      <c r="A506" s="34"/>
     </row>
     <row r="507">
-      <c r="A507" s="38"/>
+      <c r="A507" s="34"/>
     </row>
     <row r="508">
-      <c r="A508" s="38"/>
+      <c r="A508" s="34"/>
     </row>
     <row r="509">
-      <c r="A509" s="38"/>
+      <c r="A509" s="34"/>
     </row>
     <row r="510">
-      <c r="A510" s="38"/>
+      <c r="A510" s="34"/>
     </row>
     <row r="511">
-      <c r="A511" s="38"/>
+      <c r="A511" s="34"/>
     </row>
     <row r="512">
-      <c r="A512" s="38"/>
+      <c r="A512" s="34"/>
     </row>
     <row r="513">
-      <c r="A513" s="38"/>
+      <c r="A513" s="34"/>
     </row>
     <row r="514">
-      <c r="A514" s="38"/>
+      <c r="A514" s="34"/>
     </row>
     <row r="515">
-      <c r="A515" s="38"/>
+      <c r="A515" s="34"/>
     </row>
     <row r="516">
-      <c r="A516" s="38"/>
+      <c r="A516" s="34"/>
     </row>
     <row r="517">
-      <c r="A517" s="38"/>
+      <c r="A517" s="34"/>
     </row>
     <row r="518">
-      <c r="A518" s="38"/>
+      <c r="A518" s="34"/>
     </row>
     <row r="519">
-      <c r="A519" s="38"/>
+      <c r="A519" s="34"/>
     </row>
     <row r="520">
-      <c r="A520" s="38"/>
+      <c r="A520" s="34"/>
     </row>
     <row r="521">
-      <c r="A521" s="38"/>
+      <c r="A521" s="34"/>
     </row>
     <row r="522">
-      <c r="A522" s="38"/>
+      <c r="A522" s="34"/>
     </row>
     <row r="523">
-      <c r="A523" s="38"/>
+      <c r="A523" s="34"/>
     </row>
     <row r="524">
-      <c r="A524" s="38"/>
+      <c r="A524" s="34"/>
     </row>
     <row r="525">
-      <c r="A525" s="38"/>
+      <c r="A525" s="34"/>
     </row>
     <row r="526">
-      <c r="A526" s="38"/>
+      <c r="A526" s="34"/>
     </row>
     <row r="527">
-      <c r="A527" s="38"/>
+      <c r="A527" s="34"/>
     </row>
     <row r="528">
-      <c r="A528" s="38"/>
+      <c r="A528" s="34"/>
     </row>
     <row r="529">
-      <c r="A529" s="38"/>
+      <c r="A529" s="34"/>
     </row>
     <row r="530">
-      <c r="A530" s="38"/>
+      <c r="A530" s="34"/>
     </row>
     <row r="531">
-      <c r="A531" s="38"/>
+      <c r="A531" s="34"/>
     </row>
     <row r="532">
-      <c r="A532" s="38"/>
+      <c r="A532" s="34"/>
     </row>
     <row r="533">
-      <c r="A533" s="38"/>
+      <c r="A533" s="34"/>
     </row>
     <row r="534">
-      <c r="A534" s="38"/>
+      <c r="A534" s="34"/>
     </row>
     <row r="535">
-      <c r="A535" s="38"/>
+      <c r="A535" s="34"/>
     </row>
     <row r="536">
-      <c r="A536" s="38"/>
+      <c r="A536" s="34"/>
     </row>
     <row r="537">
-      <c r="A537" s="38"/>
+      <c r="A537" s="34"/>
     </row>
     <row r="538">
-      <c r="A538" s="38"/>
+      <c r="A538" s="34"/>
     </row>
     <row r="539">
-      <c r="A539" s="38"/>
+      <c r="A539" s="34"/>
     </row>
     <row r="540">
-      <c r="A540" s="38"/>
+      <c r="A540" s="34"/>
     </row>
     <row r="541">
-      <c r="A541" s="38"/>
+      <c r="A541" s="34"/>
     </row>
     <row r="542">
-      <c r="A542" s="38"/>
+      <c r="A542" s="34"/>
     </row>
     <row r="543">
-      <c r="A543" s="38"/>
+      <c r="A543" s="34"/>
     </row>
     <row r="544">
-      <c r="A544" s="38"/>
+      <c r="A544" s="34"/>
     </row>
     <row r="545">
-      <c r="A545" s="38"/>
+      <c r="A545" s="34"/>
     </row>
     <row r="546">
-      <c r="A546" s="38"/>
+      <c r="A546" s="34"/>
     </row>
     <row r="547">
-      <c r="A547" s="38"/>
+      <c r="A547" s="34"/>
     </row>
     <row r="548">
-      <c r="A548" s="38"/>
+      <c r="A548" s="34"/>
     </row>
     <row r="549">
-      <c r="A549" s="38"/>
+      <c r="A549" s="34"/>
     </row>
     <row r="550">
-      <c r="A550" s="38"/>
+      <c r="A550" s="34"/>
     </row>
     <row r="551">
-      <c r="A551" s="38"/>
+      <c r="A551" s="34"/>
     </row>
     <row r="552">
-      <c r="A552" s="38"/>
+      <c r="A552" s="34"/>
     </row>
     <row r="553">
-      <c r="A553" s="38"/>
+      <c r="A553" s="34"/>
     </row>
     <row r="554">
-      <c r="A554" s="38"/>
+      <c r="A554" s="34"/>
     </row>
     <row r="555">
-      <c r="A555" s="38"/>
+      <c r="A555" s="34"/>
     </row>
     <row r="556">
-      <c r="A556" s="38"/>
+      <c r="A556" s="34"/>
     </row>
     <row r="557">
-      <c r="A557" s="38"/>
+      <c r="A557" s="34"/>
     </row>
     <row r="558">
-      <c r="A558" s="38"/>
+      <c r="A558" s="34"/>
     </row>
     <row r="559">
-      <c r="A559" s="38"/>
+      <c r="A559" s="34"/>
     </row>
     <row r="560">
-      <c r="A560" s="38"/>
+      <c r="A560" s="34"/>
     </row>
     <row r="561">
-      <c r="A561" s="38"/>
+      <c r="A561" s="34"/>
     </row>
     <row r="562">
-      <c r="A562" s="38"/>
+      <c r="A562" s="34"/>
     </row>
     <row r="563">
-      <c r="A563" s="38"/>
+      <c r="A563" s="34"/>
     </row>
     <row r="564">
-      <c r="A564" s="38"/>
+      <c r="A564" s="34"/>
     </row>
     <row r="565">
-      <c r="A565" s="38"/>
+      <c r="A565" s="34"/>
     </row>
     <row r="566">
-      <c r="A566" s="38"/>
+      <c r="A566" s="34"/>
     </row>
     <row r="567">
-      <c r="A567" s="38"/>
+      <c r="A567" s="34"/>
     </row>
     <row r="568">
-      <c r="A568" s="38"/>
+      <c r="A568" s="34"/>
     </row>
     <row r="569">
-      <c r="A569" s="38"/>
+      <c r="A569" s="34"/>
     </row>
     <row r="570">
-      <c r="A570" s="38"/>
+      <c r="A570" s="34"/>
     </row>
     <row r="571">
-      <c r="A571" s="38"/>
+      <c r="A571" s="34"/>
     </row>
     <row r="572">
-      <c r="A572" s="38"/>
+      <c r="A572" s="34"/>
     </row>
     <row r="573">
-      <c r="A573" s="38"/>
+      <c r="A573" s="34"/>
     </row>
     <row r="574">
-      <c r="A574" s="38"/>
+      <c r="A574" s="34"/>
     </row>
     <row r="575">
-      <c r="A575" s="38"/>
+      <c r="A575" s="34"/>
     </row>
     <row r="576">
-      <c r="A576" s="38"/>
+      <c r="A576" s="34"/>
     </row>
     <row r="577">
-      <c r="A577" s="38"/>
+      <c r="A577" s="34"/>
     </row>
     <row r="578">
-      <c r="A578" s="38"/>
+      <c r="A578" s="34"/>
     </row>
     <row r="579">
-      <c r="A579" s="38"/>
+      <c r="A579" s="34"/>
     </row>
     <row r="580">
-      <c r="A580" s="38"/>
+      <c r="A580" s="34"/>
     </row>
     <row r="581">
-      <c r="A581" s="38"/>
+      <c r="A581" s="34"/>
     </row>
     <row r="582">
-      <c r="A582" s="38"/>
+      <c r="A582" s="34"/>
     </row>
     <row r="583">
-      <c r="A583" s="38"/>
+      <c r="A583" s="34"/>
     </row>
     <row r="584">
-      <c r="A584" s="38"/>
+      <c r="A584" s="34"/>
     </row>
     <row r="585">
-      <c r="A585" s="38"/>
+      <c r="A585" s="34"/>
     </row>
     <row r="586">
-      <c r="A586" s="38"/>
+      <c r="A586" s="34"/>
     </row>
     <row r="587">
-      <c r="A587" s="38"/>
+      <c r="A587" s="34"/>
     </row>
     <row r="588">
-      <c r="A588" s="38"/>
+      <c r="A588" s="34"/>
     </row>
     <row r="589">
-      <c r="A589" s="38"/>
+      <c r="A589" s="34"/>
     </row>
     <row r="590">
-      <c r="A590" s="38"/>
+      <c r="A590" s="34"/>
     </row>
     <row r="591">
-      <c r="A591" s="38"/>
+      <c r="A591" s="34"/>
     </row>
     <row r="592">
-      <c r="A592" s="38"/>
+      <c r="A592" s="34"/>
     </row>
     <row r="593">
-      <c r="A593" s="38"/>
+      <c r="A593" s="34"/>
     </row>
     <row r="594">
-      <c r="A594" s="38"/>
+      <c r="A594" s="34"/>
     </row>
     <row r="595">
-      <c r="A595" s="38"/>
+      <c r="A595" s="34"/>
     </row>
     <row r="596">
-      <c r="A596" s="38"/>
+      <c r="A596" s="34"/>
     </row>
     <row r="597">
-      <c r="A597" s="38"/>
+      <c r="A597" s="34"/>
     </row>
     <row r="598">
-      <c r="A598" s="38"/>
+      <c r="A598" s="34"/>
     </row>
     <row r="599">
-      <c r="A599" s="38"/>
+      <c r="A599" s="34"/>
     </row>
     <row r="600">
-      <c r="A600" s="38"/>
+      <c r="A600" s="34"/>
     </row>
     <row r="601">
-      <c r="A601" s="38"/>
+      <c r="A601" s="34"/>
     </row>
     <row r="602">
-      <c r="A602" s="38"/>
+      <c r="A602" s="34"/>
     </row>
     <row r="603">
-      <c r="A603" s="38"/>
+      <c r="A603" s="34"/>
     </row>
     <row r="604">
-      <c r="A604" s="38"/>
+      <c r="A604" s="34"/>
     </row>
     <row r="605">
-      <c r="A605" s="38"/>
+      <c r="A605" s="34"/>
     </row>
     <row r="606">
-      <c r="A606" s="38"/>
+      <c r="A606" s="34"/>
     </row>
     <row r="607">
-      <c r="A607" s="38"/>
+      <c r="A607" s="34"/>
     </row>
     <row r="608">
-      <c r="A608" s="38"/>
+      <c r="A608" s="34"/>
     </row>
     <row r="609">
-      <c r="A609" s="38"/>
+      <c r="A609" s="34"/>
     </row>
     <row r="610">
-      <c r="A610" s="38"/>
+      <c r="A610" s="34"/>
     </row>
     <row r="611">
-      <c r="A611" s="38"/>
+      <c r="A611" s="34"/>
     </row>
     <row r="612">
-      <c r="A612" s="38"/>
+      <c r="A612" s="34"/>
     </row>
     <row r="613">
-      <c r="A613" s="38"/>
+      <c r="A613" s="34"/>
     </row>
     <row r="614">
-      <c r="A614" s="38"/>
+      <c r="A614" s="34"/>
     </row>
     <row r="615">
-      <c r="A615" s="38"/>
+      <c r="A615" s="34"/>
     </row>
     <row r="616">
-      <c r="A616" s="38"/>
+      <c r="A616" s="34"/>
     </row>
     <row r="617">
-      <c r="A617" s="38"/>
+      <c r="A617" s="34"/>
     </row>
     <row r="618">
-      <c r="A618" s="38"/>
+      <c r="A618" s="34"/>
     </row>
     <row r="619">
-      <c r="A619" s="38"/>
+      <c r="A619" s="34"/>
     </row>
     <row r="620">
-      <c r="A620" s="38"/>
+      <c r="A620" s="34"/>
     </row>
     <row r="621">
-      <c r="A621" s="38"/>
+      <c r="A621" s="34"/>
     </row>
     <row r="622">
-      <c r="A622" s="38"/>
+      <c r="A622" s="34"/>
     </row>
     <row r="623">
-      <c r="A623" s="38"/>
+      <c r="A623" s="34"/>
     </row>
     <row r="624">
-      <c r="A624" s="38"/>
+      <c r="A624" s="34"/>
     </row>
     <row r="625">
-      <c r="A625" s="38"/>
+      <c r="A625" s="34"/>
     </row>
     <row r="626">
-      <c r="A626" s="38"/>
+      <c r="A626" s="34"/>
     </row>
     <row r="627">
-      <c r="A627" s="38"/>
+      <c r="A627" s="34"/>
     </row>
     <row r="628">
-      <c r="A628" s="38"/>
+      <c r="A628" s="34"/>
     </row>
     <row r="629">
-      <c r="A629" s="38"/>
+      <c r="A629" s="34"/>
     </row>
     <row r="630">
-      <c r="A630" s="38"/>
+      <c r="A630" s="34"/>
     </row>
     <row r="631">
-      <c r="A631" s="38"/>
+      <c r="A631" s="34"/>
     </row>
     <row r="632">
-      <c r="A632" s="38"/>
+      <c r="A632" s="34"/>
     </row>
     <row r="633">
-      <c r="A633" s="38"/>
+      <c r="A633" s="34"/>
     </row>
     <row r="634">
-      <c r="A634" s="38"/>
+      <c r="A634" s="34"/>
     </row>
     <row r="635">
-      <c r="A635" s="38"/>
+      <c r="A635" s="34"/>
     </row>
     <row r="636">
-      <c r="A636" s="38"/>
+      <c r="A636" s="34"/>
     </row>
     <row r="637">
-      <c r="A637" s="38"/>
+      <c r="A637" s="34"/>
     </row>
     <row r="638">
-      <c r="A638" s="38"/>
+      <c r="A638" s="34"/>
     </row>
     <row r="639">
-      <c r="A639" s="38"/>
+      <c r="A639" s="34"/>
     </row>
     <row r="640">
-      <c r="A640" s="38"/>
+      <c r="A640" s="34"/>
     </row>
     <row r="641">
-      <c r="A641" s="38"/>
+      <c r="A641" s="34"/>
     </row>
     <row r="642">
-      <c r="A642" s="38"/>
+      <c r="A642" s="34"/>
     </row>
     <row r="643">
-      <c r="A643" s="38"/>
+      <c r="A643" s="34"/>
     </row>
     <row r="644">
-      <c r="A644" s="38"/>
+      <c r="A644" s="34"/>
     </row>
     <row r="645">
-      <c r="A645" s="38"/>
+      <c r="A645" s="34"/>
     </row>
     <row r="646">
-      <c r="A646" s="38"/>
+      <c r="A646" s="34"/>
     </row>
     <row r="647">
-      <c r="A647" s="38"/>
+      <c r="A647" s="34"/>
     </row>
     <row r="648">
-      <c r="A648" s="38"/>
+      <c r="A648" s="34"/>
     </row>
     <row r="649">
-      <c r="A649" s="38"/>
+      <c r="A649" s="34"/>
     </row>
     <row r="650">
-      <c r="A650" s="38"/>
+      <c r="A650" s="34"/>
     </row>
     <row r="651">
-      <c r="A651" s="38"/>
+      <c r="A651" s="34"/>
     </row>
     <row r="652">
-      <c r="A652" s="38"/>
+      <c r="A652" s="34"/>
     </row>
     <row r="653">
-      <c r="A653" s="38"/>
+      <c r="A653" s="34"/>
     </row>
     <row r="654">
-      <c r="A654" s="38"/>
+      <c r="A654" s="34"/>
     </row>
     <row r="655">
-      <c r="A655" s="38"/>
+      <c r="A655" s="34"/>
     </row>
     <row r="656">
-      <c r="A656" s="38"/>
+      <c r="A656" s="34"/>
     </row>
     <row r="657">
-      <c r="A657" s="38"/>
+      <c r="A657" s="34"/>
     </row>
     <row r="658">
-      <c r="A658" s="38"/>
+      <c r="A658" s="34"/>
     </row>
     <row r="659">
-      <c r="A659" s="38"/>
+      <c r="A659" s="34"/>
     </row>
     <row r="660">
-      <c r="A660" s="38"/>
+      <c r="A660" s="34"/>
     </row>
     <row r="661">
-      <c r="A661" s="38"/>
+      <c r="A661" s="34"/>
     </row>
     <row r="662">
-      <c r="A662" s="38"/>
+      <c r="A662" s="34"/>
     </row>
     <row r="663">
-      <c r="A663" s="38"/>
+      <c r="A663" s="34"/>
     </row>
     <row r="664">
-      <c r="A664" s="38"/>
+      <c r="A664" s="34"/>
     </row>
     <row r="665">
-      <c r="A665" s="38"/>
+      <c r="A665" s="34"/>
     </row>
     <row r="666">
-      <c r="A666" s="38"/>
+      <c r="A666" s="34"/>
     </row>
     <row r="667">
-      <c r="A667" s="38"/>
+      <c r="A667" s="34"/>
     </row>
     <row r="668">
-      <c r="A668" s="38"/>
+      <c r="A668" s="34"/>
     </row>
     <row r="669">
-      <c r="A669" s="38"/>
+      <c r="A669" s="34"/>
     </row>
     <row r="670">
-      <c r="A670" s="38"/>
+      <c r="A670" s="34"/>
     </row>
     <row r="671">
-      <c r="A671" s="38"/>
+      <c r="A671" s="34"/>
     </row>
     <row r="672">
-      <c r="A672" s="38"/>
+      <c r="A672" s="34"/>
     </row>
     <row r="673">
-      <c r="A673" s="38"/>
+      <c r="A673" s="34"/>
     </row>
     <row r="674">
-      <c r="A674" s="38"/>
+      <c r="A674" s="34"/>
     </row>
     <row r="675">
-      <c r="A675" s="38"/>
+      <c r="A675" s="34"/>
     </row>
     <row r="676">
-      <c r="A676" s="38"/>
+      <c r="A676" s="34"/>
     </row>
     <row r="677">
-      <c r="A677" s="38"/>
+      <c r="A677" s="34"/>
     </row>
     <row r="678">
-      <c r="A678" s="38"/>
+      <c r="A678" s="34"/>
     </row>
     <row r="679">
-      <c r="A679" s="38"/>
+      <c r="A679" s="34"/>
     </row>
     <row r="680">
-      <c r="A680" s="38"/>
+      <c r="A680" s="34"/>
     </row>
     <row r="681">
-      <c r="A681" s="38"/>
+      <c r="A681" s="34"/>
     </row>
     <row r="682">
-      <c r="A682" s="38"/>
+      <c r="A682" s="34"/>
     </row>
     <row r="683">
-      <c r="A683" s="38"/>
+      <c r="A683" s="34"/>
     </row>
     <row r="684">
-      <c r="A684" s="38"/>
+      <c r="A684" s="34"/>
     </row>
     <row r="685">
-      <c r="A685" s="38"/>
+      <c r="A685" s="34"/>
     </row>
     <row r="686">
-      <c r="A686" s="38"/>
+      <c r="A686" s="34"/>
     </row>
     <row r="687">
-      <c r="A687" s="38"/>
+      <c r="A687" s="34"/>
     </row>
     <row r="688">
-      <c r="A688" s="38"/>
+      <c r="A688" s="34"/>
     </row>
     <row r="689">
-      <c r="A689" s="38"/>
+      <c r="A689" s="34"/>
     </row>
     <row r="690">
-      <c r="A690" s="38"/>
+      <c r="A690" s="34"/>
     </row>
     <row r="691">
-      <c r="A691" s="38"/>
+      <c r="A691" s="34"/>
     </row>
     <row r="692">
-      <c r="A692" s="38"/>
+      <c r="A692" s="34"/>
     </row>
     <row r="693">
-      <c r="A693" s="38"/>
+      <c r="A693" s="34"/>
     </row>
     <row r="694">
-      <c r="A694" s="38"/>
+      <c r="A694" s="34"/>
     </row>
     <row r="695">
-      <c r="A695" s="38"/>
+      <c r="A695" s="34"/>
     </row>
     <row r="696">
-      <c r="A696" s="38"/>
+      <c r="A696" s="34"/>
     </row>
     <row r="697">
-      <c r="A697" s="38"/>
+      <c r="A697" s="34"/>
     </row>
     <row r="698">
-      <c r="A698" s="38"/>
+      <c r="A698" s="34"/>
     </row>
     <row r="699">
-      <c r="A699" s="38"/>
+      <c r="A699" s="34"/>
     </row>
     <row r="700">
-      <c r="A700" s="38"/>
+      <c r="A700" s="34"/>
     </row>
     <row r="701">
-      <c r="A701" s="38"/>
+      <c r="A701" s="34"/>
     </row>
     <row r="702">
-      <c r="A702" s="38"/>
+      <c r="A702" s="34"/>
     </row>
     <row r="703">
-      <c r="A703" s="38"/>
+      <c r="A703" s="34"/>
     </row>
     <row r="704">
-      <c r="A704" s="38"/>
+      <c r="A704" s="34"/>
     </row>
     <row r="705">
-      <c r="A705" s="38"/>
+      <c r="A705" s="34"/>
     </row>
     <row r="706">
-      <c r="A706" s="38"/>
+      <c r="A706" s="34"/>
     </row>
     <row r="707">
-      <c r="A707" s="38"/>
+      <c r="A707" s="34"/>
     </row>
     <row r="708">
-      <c r="A708" s="38"/>
+      <c r="A708" s="34"/>
     </row>
     <row r="709">
-      <c r="A709" s="38"/>
+      <c r="A709" s="34"/>
     </row>
     <row r="710">
-      <c r="A710" s="38"/>
+      <c r="A710" s="34"/>
     </row>
     <row r="711">
-      <c r="A711" s="38"/>
+      <c r="A711" s="34"/>
     </row>
     <row r="712">
-      <c r="A712" s="38"/>
+      <c r="A712" s="34"/>
     </row>
     <row r="713">
-      <c r="A713" s="38"/>
+      <c r="A713" s="34"/>
     </row>
     <row r="714">
-      <c r="A714" s="38"/>
+      <c r="A714" s="34"/>
     </row>
     <row r="715">
-      <c r="A715" s="38"/>
+      <c r="A715" s="34"/>
     </row>
     <row r="716">
-      <c r="A716" s="38"/>
+      <c r="A716" s="34"/>
     </row>
     <row r="717">
-      <c r="A717" s="38"/>
+      <c r="A717" s="34"/>
     </row>
     <row r="718">
-      <c r="A718" s="38"/>
+      <c r="A718" s="34"/>
     </row>
     <row r="719">
-      <c r="A719" s="38"/>
+      <c r="A719" s="34"/>
     </row>
     <row r="720">
-      <c r="A720" s="38"/>
+      <c r="A720" s="34"/>
     </row>
     <row r="721">
-      <c r="A721" s="38"/>
+      <c r="A721" s="34"/>
     </row>
     <row r="722">
-      <c r="A722" s="38"/>
+      <c r="A722" s="34"/>
     </row>
     <row r="723">
-      <c r="A723" s="38"/>
+      <c r="A723" s="34"/>
     </row>
     <row r="724">
-      <c r="A724" s="38"/>
+      <c r="A724" s="34"/>
     </row>
     <row r="725">
-      <c r="A725" s="38"/>
+      <c r="A725" s="34"/>
     </row>
     <row r="726">
-      <c r="A726" s="38"/>
+      <c r="A726" s="34"/>
     </row>
     <row r="727">
-      <c r="A727" s="38"/>
+      <c r="A727" s="34"/>
     </row>
     <row r="728">
-      <c r="A728" s="38"/>
+      <c r="A728" s="34"/>
     </row>
     <row r="729">
-      <c r="A729" s="38"/>
+      <c r="A729" s="34"/>
     </row>
     <row r="730">
-      <c r="A730" s="38"/>
+      <c r="A730" s="34"/>
     </row>
     <row r="731">
-      <c r="A731" s="38"/>
+      <c r="A731" s="34"/>
     </row>
     <row r="732">
-      <c r="A732" s="38"/>
+      <c r="A732" s="34"/>
     </row>
     <row r="733">
-      <c r="A733" s="38"/>
+      <c r="A733" s="34"/>
     </row>
     <row r="734">
-      <c r="A734" s="38"/>
+      <c r="A734" s="34"/>
     </row>
     <row r="735">
-      <c r="A735" s="38"/>
+      <c r="A735" s="34"/>
     </row>
     <row r="736">
-      <c r="A736" s="38"/>
+      <c r="A736" s="34"/>
     </row>
     <row r="737">
-      <c r="A737" s="38"/>
+      <c r="A737" s="34"/>
     </row>
     <row r="738">
-      <c r="A738" s="38"/>
+      <c r="A738" s="34"/>
     </row>
     <row r="739">
-      <c r="A739" s="38"/>
+      <c r="A739" s="34"/>
     </row>
     <row r="740">
-      <c r="A740" s="38"/>
+      <c r="A740" s="34"/>
     </row>
     <row r="741">
-      <c r="A741" s="38"/>
+      <c r="A741" s="34"/>
     </row>
     <row r="742">
-      <c r="A742" s="38"/>
+      <c r="A742" s="34"/>
     </row>
     <row r="743">
-      <c r="A743" s="38"/>
+      <c r="A743" s="34"/>
     </row>
     <row r="744">
-      <c r="A744" s="38"/>
+      <c r="A744" s="34"/>
     </row>
     <row r="745">
-      <c r="A745" s="38"/>
+      <c r="A745" s="34"/>
     </row>
     <row r="746">
-      <c r="A746" s="38"/>
+      <c r="A746" s="34"/>
     </row>
     <row r="747">
-      <c r="A747" s="38"/>
+      <c r="A747" s="34"/>
     </row>
     <row r="748">
-      <c r="A748" s="38"/>
+      <c r="A748" s="34"/>
     </row>
     <row r="749">
-      <c r="A749" s="38"/>
+      <c r="A749" s="34"/>
     </row>
     <row r="750">
-      <c r="A750" s="38"/>
+      <c r="A750" s="34"/>
     </row>
     <row r="751">
-      <c r="A751" s="38"/>
+      <c r="A751" s="34"/>
     </row>
     <row r="752">
-      <c r="A752" s="38"/>
+      <c r="A752" s="34"/>
     </row>
     <row r="753">
-      <c r="A753" s="38"/>
+      <c r="A753" s="34"/>
     </row>
     <row r="754">
-      <c r="A754" s="38"/>
+      <c r="A754" s="34"/>
     </row>
     <row r="755">
-      <c r="A755" s="38"/>
+      <c r="A755" s="34"/>
     </row>
     <row r="756">
-      <c r="A756" s="38"/>
+      <c r="A756" s="34"/>
     </row>
     <row r="757">
-      <c r="A757" s="38"/>
+      <c r="A757" s="34"/>
     </row>
     <row r="758">
-      <c r="A758" s="38"/>
+      <c r="A758" s="34"/>
     </row>
     <row r="759">
-      <c r="A759" s="38"/>
+      <c r="A759" s="34"/>
     </row>
     <row r="760">
-      <c r="A760" s="38"/>
+      <c r="A760" s="34"/>
     </row>
     <row r="761">
-      <c r="A761" s="38"/>
+      <c r="A761" s="34"/>
     </row>
     <row r="762">
-      <c r="A762" s="38"/>
+      <c r="A762" s="34"/>
     </row>
     <row r="763">
-      <c r="A763" s="38"/>
+      <c r="A763" s="34"/>
     </row>
     <row r="764">
-      <c r="A764" s="38"/>
+      <c r="A764" s="34"/>
     </row>
     <row r="765">
-      <c r="A765" s="38"/>
+      <c r="A765" s="34"/>
     </row>
     <row r="766">
-      <c r="A766" s="38"/>
+      <c r="A766" s="34"/>
     </row>
     <row r="767">
-      <c r="A767" s="38"/>
+      <c r="A767" s="34"/>
     </row>
     <row r="768">
-      <c r="A768" s="38"/>
+      <c r="A768" s="34"/>
     </row>
     <row r="769">
-      <c r="A769" s="38"/>
+      <c r="A769" s="34"/>
     </row>
     <row r="770">
-      <c r="A770" s="38"/>
+      <c r="A770" s="34"/>
     </row>
     <row r="771">
-      <c r="A771" s="38"/>
+      <c r="A771" s="34"/>
     </row>
     <row r="772">
-      <c r="A772" s="38"/>
+      <c r="A772" s="34"/>
     </row>
     <row r="773">
-      <c r="A773" s="38"/>
+      <c r="A773" s="34"/>
     </row>
     <row r="774">
-      <c r="A774" s="38"/>
+      <c r="A774" s="34"/>
     </row>
     <row r="775">
-      <c r="A775" s="38"/>
+      <c r="A775" s="34"/>
     </row>
     <row r="776">
-      <c r="A776" s="38"/>
+      <c r="A776" s="34"/>
     </row>
     <row r="777">
-      <c r="A777" s="38"/>
+      <c r="A777" s="34"/>
     </row>
     <row r="778">
-      <c r="A778" s="38"/>
+      <c r="A778" s="34"/>
     </row>
     <row r="779">
-      <c r="A779" s="38"/>
+      <c r="A779" s="34"/>
     </row>
     <row r="780">
-      <c r="A780" s="38"/>
+      <c r="A780" s="34"/>
     </row>
     <row r="781">
-      <c r="A781" s="38"/>
+      <c r="A781" s="34"/>
     </row>
     <row r="782">
-      <c r="A782" s="38"/>
+      <c r="A782" s="34"/>
     </row>
     <row r="783">
-      <c r="A783" s="38"/>
+      <c r="A783" s="34"/>
     </row>
     <row r="784">
-      <c r="A784" s="38"/>
+      <c r="A784" s="34"/>
     </row>
     <row r="785">
-      <c r="A785" s="38"/>
+      <c r="A785" s="34"/>
     </row>
     <row r="786">
-      <c r="A786" s="38"/>
+      <c r="A786" s="34"/>
     </row>
     <row r="787">
-      <c r="A787" s="38"/>
+      <c r="A787" s="34"/>
     </row>
     <row r="788">
-      <c r="A788" s="38"/>
+      <c r="A788" s="34"/>
     </row>
     <row r="789">
-      <c r="A789" s="38"/>
+      <c r="A789" s="34"/>
     </row>
     <row r="790">
-      <c r="A790" s="38"/>
+      <c r="A790" s="34"/>
     </row>
     <row r="791">
-      <c r="A791" s="38"/>
+      <c r="A791" s="34"/>
     </row>
     <row r="792">
-      <c r="A792" s="38"/>
+      <c r="A792" s="34"/>
     </row>
     <row r="793">
-      <c r="A793" s="38"/>
+      <c r="A793" s="34"/>
     </row>
     <row r="794">
-      <c r="A794" s="38"/>
+      <c r="A794" s="34"/>
     </row>
     <row r="795">
-      <c r="A795" s="38"/>
+      <c r="A795" s="34"/>
     </row>
     <row r="796">
-      <c r="A796" s="38"/>
+      <c r="A796" s="34"/>
     </row>
     <row r="797">
-      <c r="A797" s="38"/>
+      <c r="A797" s="34"/>
     </row>
     <row r="798">
-      <c r="A798" s="38"/>
+      <c r="A798" s="34"/>
     </row>
     <row r="799">
-      <c r="A799" s="38"/>
+      <c r="A799" s="34"/>
     </row>
     <row r="800">
-      <c r="A800" s="38"/>
+      <c r="A800" s="34"/>
     </row>
     <row r="801">
-      <c r="A801" s="38"/>
+      <c r="A801" s="34"/>
     </row>
     <row r="802">
-      <c r="A802" s="38"/>
+      <c r="A802" s="34"/>
     </row>
     <row r="803">
-      <c r="A803" s="38"/>
+      <c r="A803" s="34"/>
     </row>
     <row r="804">
-      <c r="A804" s="38"/>
+      <c r="A804" s="34"/>
     </row>
     <row r="805">
-      <c r="A805" s="38"/>
+      <c r="A805" s="34"/>
     </row>
     <row r="806">
-      <c r="A806" s="38"/>
+      <c r="A806" s="34"/>
     </row>
     <row r="807">
-      <c r="A807" s="38"/>
+      <c r="A807" s="34"/>
     </row>
     <row r="808">
-      <c r="A808" s="38"/>
+      <c r="A808" s="34"/>
     </row>
     <row r="809">
-      <c r="A809" s="38"/>
+      <c r="A809" s="34"/>
     </row>
     <row r="810">
-      <c r="A810" s="38"/>
+      <c r="A810" s="34"/>
     </row>
     <row r="811">
-      <c r="A811" s="38"/>
+      <c r="A811" s="34"/>
     </row>
     <row r="812">
-      <c r="A812" s="38"/>
+      <c r="A812" s="34"/>
     </row>
     <row r="813">
-      <c r="A813" s="38"/>
+      <c r="A813" s="34"/>
     </row>
     <row r="814">
-      <c r="A814" s="38"/>
+      <c r="A814" s="34"/>
     </row>
     <row r="815">
-      <c r="A815" s="38"/>
+      <c r="A815" s="34"/>
     </row>
     <row r="816">
-      <c r="A816" s="38"/>
+      <c r="A816" s="34"/>
     </row>
     <row r="817">
-      <c r="A817" s="38"/>
+      <c r="A817" s="34"/>
     </row>
     <row r="818">
-      <c r="A818" s="38"/>
+      <c r="A818" s="34"/>
     </row>
     <row r="819">
-      <c r="A819" s="38"/>
+      <c r="A819" s="34"/>
     </row>
     <row r="820">
-      <c r="A820" s="38"/>
+      <c r="A820" s="34"/>
     </row>
     <row r="821">
-      <c r="A821" s="38"/>
+      <c r="A821" s="34"/>
     </row>
     <row r="822">
-      <c r="A822" s="38"/>
+      <c r="A822" s="34"/>
     </row>
     <row r="823">
-      <c r="A823" s="38"/>
+      <c r="A823" s="34"/>
     </row>
     <row r="824">
-      <c r="A824" s="38"/>
+      <c r="A824" s="34"/>
     </row>
     <row r="825">
-      <c r="A825" s="38"/>
+      <c r="A825" s="34"/>
     </row>
     <row r="826">
-      <c r="A826" s="38"/>
+      <c r="A826" s="34"/>
     </row>
     <row r="827">
-      <c r="A827" s="38"/>
+      <c r="A827" s="34"/>
     </row>
     <row r="828">
-      <c r="A828" s="38"/>
+      <c r="A828" s="34"/>
     </row>
     <row r="829">
-      <c r="A829" s="38"/>
+      <c r="A829" s="34"/>
     </row>
     <row r="830">
-      <c r="A830" s="38"/>
+      <c r="A830" s="34"/>
     </row>
     <row r="831">
-      <c r="A831" s="38"/>
+      <c r="A831" s="34"/>
     </row>
     <row r="832">
-      <c r="A832" s="38"/>
+      <c r="A832" s="34"/>
     </row>
     <row r="833">
-      <c r="A833" s="38"/>
+      <c r="A833" s="34"/>
     </row>
     <row r="834">
-      <c r="A834" s="38"/>
+      <c r="A834" s="34"/>
     </row>
     <row r="835">
-      <c r="A835" s="38"/>
+      <c r="A835" s="34"/>
     </row>
     <row r="836">
-      <c r="A836" s="38"/>
+      <c r="A836" s="34"/>
     </row>
     <row r="837">
-      <c r="A837" s="38"/>
+      <c r="A837" s="34"/>
     </row>
     <row r="838">
-      <c r="A838" s="38"/>
+      <c r="A838" s="34"/>
     </row>
     <row r="839">
-      <c r="A839" s="38"/>
+      <c r="A839" s="34"/>
     </row>
     <row r="840">
-      <c r="A840" s="38"/>
+      <c r="A840" s="34"/>
     </row>
     <row r="841">
-      <c r="A841" s="38"/>
+      <c r="A841" s="34"/>
     </row>
     <row r="842">
-      <c r="A842" s="38"/>
+      <c r="A842" s="34"/>
     </row>
     <row r="843">
-      <c r="A843" s="38"/>
+      <c r="A843" s="34"/>
     </row>
     <row r="844">
-      <c r="A844" s="38"/>
+      <c r="A844" s="34"/>
     </row>
     <row r="845">
-      <c r="A845" s="38"/>
+      <c r="A845" s="34"/>
     </row>
     <row r="846">
-      <c r="A846" s="38"/>
+      <c r="A846" s="34"/>
     </row>
     <row r="847">
-      <c r="A847" s="38"/>
+      <c r="A847" s="34"/>
     </row>
     <row r="848">
-      <c r="A848" s="38"/>
+      <c r="A848" s="34"/>
     </row>
     <row r="849">
-      <c r="A849" s="38"/>
+      <c r="A849" s="34"/>
     </row>
     <row r="850">
-      <c r="A850" s="38"/>
+      <c r="A850" s="34"/>
     </row>
     <row r="851">
-      <c r="A851" s="38"/>
+      <c r="A851" s="34"/>
     </row>
     <row r="852">
-      <c r="A852" s="38"/>
+      <c r="A852" s="34"/>
     </row>
     <row r="853">
-      <c r="A853" s="38"/>
+      <c r="A853" s="34"/>
     </row>
     <row r="854">
-      <c r="A854" s="38"/>
+      <c r="A854" s="34"/>
     </row>
     <row r="855">
-      <c r="A855" s="38"/>
+      <c r="A855" s="34"/>
     </row>
     <row r="856">
-      <c r="A856" s="38"/>
+      <c r="A856" s="34"/>
     </row>
     <row r="857">
-      <c r="A857" s="38"/>
+      <c r="A857" s="34"/>
     </row>
     <row r="858">
-      <c r="A858" s="38"/>
+      <c r="A858" s="34"/>
     </row>
     <row r="859">
-      <c r="A859" s="38"/>
+      <c r="A859" s="34"/>
     </row>
     <row r="860">
-      <c r="A860" s="38"/>
+      <c r="A860" s="34"/>
     </row>
     <row r="861">
-      <c r="A861" s="38"/>
+      <c r="A861" s="34"/>
     </row>
     <row r="862">
-      <c r="A862" s="38"/>
+      <c r="A862" s="34"/>
     </row>
     <row r="863">
-      <c r="A863" s="38"/>
+      <c r="A863" s="34"/>
     </row>
     <row r="864">
-      <c r="A864" s="38"/>
+      <c r="A864" s="34"/>
     </row>
     <row r="865">
-      <c r="A865" s="38"/>
+      <c r="A865" s="34"/>
     </row>
     <row r="866">
-      <c r="A866" s="38"/>
+      <c r="A866" s="34"/>
     </row>
     <row r="867">
-      <c r="A867" s="38"/>
+      <c r="A867" s="34"/>
     </row>
     <row r="868">
-      <c r="A868" s="38"/>
+      <c r="A868" s="34"/>
     </row>
     <row r="869">
-      <c r="A869" s="38"/>
+      <c r="A869" s="34"/>
     </row>
     <row r="870">
-      <c r="A870" s="38"/>
+      <c r="A870" s="34"/>
     </row>
     <row r="871">
-      <c r="A871" s="38"/>
+      <c r="A871" s="34"/>
     </row>
     <row r="872">
-      <c r="A872" s="38"/>
+      <c r="A872" s="34"/>
     </row>
     <row r="873">
-      <c r="A873" s="38"/>
+      <c r="A873" s="34"/>
     </row>
     <row r="874">
-      <c r="A874" s="38"/>
+      <c r="A874" s="34"/>
     </row>
     <row r="875">
-      <c r="A875" s="38"/>
+      <c r="A875" s="34"/>
     </row>
     <row r="876">
-      <c r="A876" s="38"/>
+      <c r="A876" s="34"/>
     </row>
     <row r="877">
-      <c r="A877" s="38"/>
+      <c r="A877" s="34"/>
     </row>
     <row r="878">
-      <c r="A878" s="38"/>
+      <c r="A878" s="34"/>
     </row>
     <row r="879">
-      <c r="A879" s="38"/>
+      <c r="A879" s="34"/>
     </row>
     <row r="880">
-      <c r="A880" s="38"/>
+      <c r="A880" s="34"/>
     </row>
     <row r="881">
-      <c r="A881" s="38"/>
+      <c r="A881" s="34"/>
     </row>
     <row r="882">
-      <c r="A882" s="38"/>
+      <c r="A882" s="34"/>
     </row>
     <row r="883">
-      <c r="A883" s="38"/>
+      <c r="A883" s="34"/>
     </row>
     <row r="884">
-      <c r="A884" s="38"/>
+      <c r="A884" s="34"/>
     </row>
     <row r="885">
-      <c r="A885" s="38"/>
+      <c r="A885" s="34"/>
     </row>
     <row r="886">
-      <c r="A886" s="38"/>
+      <c r="A886" s="34"/>
     </row>
     <row r="887">
-      <c r="A887" s="38"/>
+      <c r="A887" s="34"/>
     </row>
     <row r="888">
-      <c r="A888" s="38"/>
+      <c r="A888" s="34"/>
     </row>
     <row r="889">
-      <c r="A889" s="38"/>
+      <c r="A889" s="34"/>
     </row>
     <row r="890">
-      <c r="A890" s="38"/>
+      <c r="A890" s="34"/>
     </row>
     <row r="891">
-      <c r="A891" s="38"/>
+      <c r="A891" s="34"/>
     </row>
     <row r="892">
-      <c r="A892" s="38"/>
+      <c r="A892" s="34"/>
     </row>
     <row r="893">
-      <c r="A893" s="38"/>
+      <c r="A893" s="34"/>
     </row>
     <row r="894">
-      <c r="A894" s="38"/>
+      <c r="A894" s="34"/>
     </row>
     <row r="895">
-      <c r="A895" s="38"/>
+      <c r="A895" s="34"/>
     </row>
     <row r="896">
-      <c r="A896" s="38"/>
+      <c r="A896" s="34"/>
     </row>
     <row r="897">
-      <c r="A897" s="38"/>
+      <c r="A897" s="34"/>
     </row>
     <row r="898">
-      <c r="A898" s="38"/>
+      <c r="A898" s="34"/>
     </row>
     <row r="899">
-      <c r="A899" s="38"/>
+      <c r="A899" s="34"/>
     </row>
     <row r="900">
-      <c r="A900" s="38"/>
+      <c r="A900" s="34"/>
     </row>
     <row r="901">
-      <c r="A901" s="38"/>
+      <c r="A901" s="34"/>
     </row>
     <row r="902">
-      <c r="A902" s="38"/>
+      <c r="A902" s="34"/>
     </row>
     <row r="903">
-      <c r="A903" s="38"/>
+      <c r="A903" s="34"/>
     </row>
     <row r="904">
-      <c r="A904" s="38"/>
+      <c r="A904" s="34"/>
     </row>
     <row r="905">
-      <c r="A905" s="38"/>
+      <c r="A905" s="34"/>
     </row>
     <row r="906">
-      <c r="A906" s="38"/>
+      <c r="A906" s="34"/>
     </row>
     <row r="907">
-      <c r="A907" s="38"/>
+      <c r="A907" s="34"/>
     </row>
     <row r="908">
-      <c r="A908" s="38"/>
+      <c r="A908" s="34"/>
     </row>
     <row r="909">
-      <c r="A909" s="38"/>
+      <c r="A909" s="34"/>
     </row>
     <row r="910">
-      <c r="A910" s="38"/>
+      <c r="A910" s="34"/>
     </row>
     <row r="911">
-      <c r="A911" s="38"/>
+      <c r="A911" s="34"/>
     </row>
     <row r="912">
-      <c r="A912" s="38"/>
+      <c r="A912" s="34"/>
     </row>
     <row r="913">
-      <c r="A913" s="38"/>
+      <c r="A913" s="34"/>
     </row>
     <row r="914">
-      <c r="A914" s="38"/>
+      <c r="A914" s="34"/>
     </row>
     <row r="915">
-      <c r="A915" s="38"/>
+      <c r="A915" s="34"/>
     </row>
     <row r="916">
-      <c r="A916" s="38"/>
+      <c r="A916" s="34"/>
     </row>
     <row r="917">
-      <c r="A917" s="38"/>
+      <c r="A917" s="34"/>
     </row>
     <row r="918">
-      <c r="A918" s="38"/>
+      <c r="A918" s="34"/>
     </row>
     <row r="919">
-      <c r="A919" s="38"/>
+      <c r="A919" s="34"/>
     </row>
     <row r="920">
-      <c r="A920" s="38"/>
+      <c r="A920" s="34"/>
     </row>
     <row r="921">
-      <c r="A921" s="38"/>
+      <c r="A921" s="34"/>
     </row>
     <row r="922">
-      <c r="A922" s="38"/>
+      <c r="A922" s="34"/>
     </row>
     <row r="923">
-      <c r="A923" s="38"/>
+      <c r="A923" s="34"/>
     </row>
     <row r="924">
-      <c r="A924" s="38"/>
+      <c r="A924" s="34"/>
     </row>
     <row r="925">
-      <c r="A925" s="38"/>
+      <c r="A925" s="34"/>
     </row>
     <row r="926">
-      <c r="A926" s="38"/>
+      <c r="A926" s="34"/>
     </row>
     <row r="927">
-      <c r="A927" s="38"/>
+      <c r="A927" s="34"/>
     </row>
     <row r="928">
-      <c r="A928" s="38"/>
+      <c r="A928" s="34"/>
     </row>
     <row r="929">
-      <c r="A929" s="38"/>
+      <c r="A929" s="34"/>
     </row>
     <row r="930">
-      <c r="A930" s="38"/>
+      <c r="A930" s="34"/>
     </row>
     <row r="931">
-      <c r="A931" s="38"/>
+      <c r="A931" s="34"/>
     </row>
     <row r="932">
-      <c r="A932" s="38"/>
+      <c r="A932" s="34"/>
     </row>
     <row r="933">
-      <c r="A933" s="38"/>
+      <c r="A933" s="34"/>
     </row>
     <row r="934">
-      <c r="A934" s="38"/>
+      <c r="A934" s="34"/>
     </row>
     <row r="935">
-      <c r="A935" s="38"/>
+      <c r="A935" s="34"/>
     </row>
     <row r="936">
-      <c r="A936" s="38"/>
+      <c r="A936" s="34"/>
     </row>
     <row r="937">
-      <c r="A937" s="38"/>
+      <c r="A937" s="34"/>
     </row>
     <row r="938">
-      <c r="A938" s="38"/>
+      <c r="A938" s="34"/>
     </row>
     <row r="939">
-      <c r="A939" s="38"/>
+      <c r="A939" s="34"/>
     </row>
     <row r="940">
-      <c r="A940" s="38"/>
+      <c r="A940" s="34"/>
     </row>
     <row r="941">
-      <c r="A941" s="38"/>
+      <c r="A941" s="34"/>
     </row>
     <row r="942">
-      <c r="A942" s="38"/>
+      <c r="A942" s="34"/>
     </row>
     <row r="943">
-      <c r="A943" s="38"/>
+      <c r="A943" s="34"/>
     </row>
     <row r="944">
-      <c r="A944" s="38"/>
+      <c r="A944" s="34"/>
     </row>
     <row r="945">
-      <c r="A945" s="38"/>
+      <c r="A945" s="34"/>
     </row>
     <row r="946">
-      <c r="A946" s="38"/>
+      <c r="A946" s="34"/>
     </row>
     <row r="947">
-      <c r="A947" s="38"/>
+      <c r="A947" s="34"/>
     </row>
     <row r="948">
-      <c r="A948" s="38"/>
+      <c r="A948" s="34"/>
     </row>
     <row r="949">
-      <c r="A949" s="38"/>
+      <c r="A949" s="34"/>
     </row>
     <row r="950">
-      <c r="A950" s="38"/>
+      <c r="A950" s="34"/>
     </row>
     <row r="951">
-      <c r="A951" s="38"/>
+      <c r="A951" s="34"/>
     </row>
     <row r="952">
-      <c r="A952" s="38"/>
+      <c r="A952" s="34"/>
     </row>
     <row r="953">
-      <c r="A953" s="38"/>
+      <c r="A953" s="34"/>
     </row>
     <row r="954">
-      <c r="A954" s="38"/>
+      <c r="A954" s="34"/>
     </row>
     <row r="955">
-      <c r="A955" s="38"/>
+      <c r="A955" s="34"/>
     </row>
     <row r="956">
-      <c r="A956" s="38"/>
+      <c r="A956" s="34"/>
     </row>
     <row r="957">
-      <c r="A957" s="38"/>
+      <c r="A957" s="34"/>
     </row>
     <row r="958">
-      <c r="A958" s="38"/>
+      <c r="A958" s="34"/>
     </row>
     <row r="959">
-      <c r="A959" s="38"/>
+      <c r="A959" s="34"/>
     </row>
     <row r="960">
-      <c r="A960" s="38"/>
+      <c r="A960" s="34"/>
     </row>
     <row r="961">
-      <c r="A961" s="38"/>
+      <c r="A961" s="34"/>
     </row>
     <row r="962">
-      <c r="A962" s="38"/>
+      <c r="A962" s="34"/>
     </row>
     <row r="963">
-      <c r="A963" s="38"/>
+      <c r="A963" s="34"/>
     </row>
     <row r="964">
-      <c r="A964" s="38"/>
+      <c r="A964" s="34"/>
     </row>
     <row r="965">
-      <c r="A965" s="38"/>
+      <c r="A965" s="34"/>
     </row>
     <row r="966">
-      <c r="A966" s="38"/>
+      <c r="A966" s="34"/>
     </row>
     <row r="967">
-      <c r="A967" s="38"/>
+      <c r="A967" s="34"/>
     </row>
     <row r="968">
-      <c r="A968" s="38"/>
+      <c r="A968" s="34"/>
     </row>
     <row r="969">
-      <c r="A969" s="38"/>
+      <c r="A969" s="34"/>
     </row>
     <row r="970">
-      <c r="A970" s="38"/>
+      <c r="A970" s="34"/>
     </row>
     <row r="971">
-      <c r="A971" s="38"/>
+      <c r="A971" s="34"/>
     </row>
     <row r="972">
-      <c r="A972" s="38"/>
+      <c r="A972" s="34"/>
     </row>
     <row r="973">
-      <c r="A973" s="38"/>
+      <c r="A973" s="34"/>
     </row>
     <row r="974">
-      <c r="A974" s="38"/>
+      <c r="A974" s="34"/>
     </row>
     <row r="975">
-      <c r="A975" s="38"/>
+      <c r="A975" s="34"/>
     </row>
     <row r="976">
-      <c r="A976" s="38"/>
+      <c r="A976" s="34"/>
     </row>
     <row r="977">
-      <c r="A977" s="38"/>
+      <c r="A977" s="34"/>
     </row>
     <row r="978">
-      <c r="A978" s="38"/>
+      <c r="A978" s="34"/>
     </row>
     <row r="979">
-      <c r="A979" s="38"/>
+      <c r="A979" s="34"/>
     </row>
     <row r="980">
-      <c r="A980" s="38"/>
+      <c r="A980" s="34"/>
     </row>
     <row r="981">
-      <c r="A981" s="38"/>
+      <c r="A981" s="34"/>
     </row>
     <row r="982">
-      <c r="A982" s="38"/>
+      <c r="A982" s="34"/>
     </row>
     <row r="983">
-      <c r="A983" s="38"/>
+      <c r="A983" s="34"/>
     </row>
     <row r="984">
-      <c r="A984" s="38"/>
+      <c r="A984" s="34"/>
     </row>
     <row r="985">
-      <c r="A985" s="38"/>
+      <c r="A985" s="34"/>
     </row>
     <row r="986">
-      <c r="A986" s="38"/>
+      <c r="A986" s="34"/>
     </row>
     <row r="987">
-      <c r="A987" s="38"/>
+      <c r="A987" s="34"/>
     </row>
     <row r="988">
-      <c r="A988" s="38"/>
+      <c r="A988" s="34"/>
     </row>
     <row r="989">
-      <c r="A989" s="38"/>
+      <c r="A989" s="34"/>
     </row>
     <row r="990">
-      <c r="A990" s="38"/>
+      <c r="A990" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
